--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-AZ/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251032D-EB69-47F3-A6B4-B355B57B27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -25,7 +19,7 @@
   <definedNames>
     <definedName name="VEDA2">'Import Settings'!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,12 +58,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,12 +82,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,14 +105,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -133,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1020">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3030,9 +3024,6 @@
     <t>MKr20</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>AZ1</t>
   </si>
   <si>
@@ -3178,12 +3169,30 @@
   </si>
   <si>
     <t>P1-5</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>DE2</t>
+  </si>
+  <si>
+    <t>DE3</t>
+  </si>
+  <si>
+    <t>DE4</t>
+  </si>
+  <si>
+    <t>DE5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
@@ -4029,27 +4038,27 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="5x indented GHG Textfiels" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="AggOrange_CRFReport-template" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="AggOrange9_CRFReport-template" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="CustomizationCells" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Euro" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="InputCells" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="1"/>
+    <cellStyle name="AggOrange_CRFReport-template" xfId="2"/>
+    <cellStyle name="AggOrange9_CRFReport-template" xfId="3"/>
+    <cellStyle name="CustomizationCells" xfId="4"/>
+    <cellStyle name="Euro" xfId="5"/>
+    <cellStyle name="InputCells" xfId="6"/>
     <cellStyle name="Link" xfId="20" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 10 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 10" xfId="7"/>
+    <cellStyle name="Normal 10 2" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal 4" xfId="11"/>
+    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="13"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14"/>
+    <cellStyle name="Normale_B2020" xfId="15"/>
     <cellStyle name="Procent" xfId="16" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Standaard_Blad1" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="17"/>
+    <cellStyle name="Standaard_Blad1" xfId="19"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4084,7 +4093,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,9 +4123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4154,9 +4163,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4189,26 +4198,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4241,26 +4233,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4433,27 +4408,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A3:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -4464,7 +4439,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -4484,10 +4459,10 @@
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
-        <v>965</v>
+        <v>1014</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>966</v>
+        <v>1015</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>55</v>
@@ -4516,13 +4491,13 @@
         <v>68</v>
       </c>
       <c r="R5" s="114" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="68" t="s">
-        <v>967</v>
+        <v>1016</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>52</v>
@@ -4551,14 +4526,14 @@
         <v>70</v>
       </c>
       <c r="R6" s="114" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>53</v>
@@ -4578,13 +4553,15 @@
         <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
+      <c r="C8" s="68" t="s">
+        <v>1018</v>
+      </c>
       <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
@@ -4603,22 +4580,24 @@
         <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="68" t="s">
+        <v>1019</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="G9" s="33" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="Q9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4632,7 +4611,7 @@
         <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4640,13 +4619,13 @@
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
       <c r="G11" s="33" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="Q11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4657,7 +4636,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4665,7 +4644,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4673,7 +4652,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="114"/>
       <c r="C15" s="3"/>
@@ -4681,28 +4660,28 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="115"/>
       <c r="C18" s="115"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="115"/>
       <c r="C19" s="115"/>
@@ -4778,32 +4757,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -4814,7 +4793,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4823,43 +4802,43 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="71" t="str">
         <f ca="1">IF(VEDA2,"~DefaultYear",T(0))</f>
         <v>~DefaultYear</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="70">
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="64" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>1013</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>1014</v>
       </c>
       <c r="I16" s="149" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="149" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K16" s="89" t="s">
         <v>1013</v>
       </c>
-      <c r="K16" s="89" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -4879,7 +4858,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>3</v>
       </c>
@@ -4899,7 +4878,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>4</v>
       </c>
@@ -4919,7 +4898,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>5</v>
       </c>
@@ -4939,7 +4918,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>5</v>
       </c>
@@ -4959,7 +4938,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>5</v>
       </c>
@@ -4979,7 +4958,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>5</v>
       </c>
@@ -4999,7 +4978,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>5</v>
       </c>
@@ -5019,7 +4998,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>5</v>
       </c>
@@ -5039,7 +5018,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>5</v>
       </c>
@@ -5440,41 +5419,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="13" width="8" customWidth="1"/>
-    <col min="17" max="17" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" customWidth="1"/>
-    <col min="21" max="21" width="8.08984375" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="str">
         <f ca="1">IF(VEDA2,"~TFM_MIG","~TFM_UPD")</f>
         <v>~TFM_MIG</v>
@@ -5495,13 +5474,13 @@
         <v>Year2</v>
       </c>
       <c r="F6" s="73" t="s">
+        <v>965</v>
+      </c>
+      <c r="G6" s="73" t="s">
         <v>966</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="H6" s="73" t="s">
         <v>967</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>968</v>
       </c>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
@@ -5596,30 +5575,30 @@
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="11" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -5662,19 +5641,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>951</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -5682,12 +5661,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
@@ -5743,20 +5722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="str">
         <f ca="1">"~Scenario:"&amp;REPLACE(REPLACE($F$1,FIND(".",$F$1),100,""),1,FIND("[",$F$1),"")</f>
         <v>~Scenario:</v>
@@ -5770,17 +5749,17 @@
       </c>
       <c r="F1" s="17" t="str">
         <f ca="1">CELL("filename",$E$1)</f>
-        <v>https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-AZ/[SysSettings.xlsx]Import Settings</v>
+        <v>C:\Users\hjs.MEDICOUH\Documents\GitHub\Bachelor_Git\TIMES-DE\[SysSettings.xlsx]Import Settings</v>
       </c>
       <c r="I1" s="66"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
@@ -5837,7 +5816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -5847,30 +5826,30 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="56" customWidth="1"/>
-    <col min="6" max="8" width="8.36328125" style="56" customWidth="1"/>
-    <col min="9" max="13" width="9.08984375" style="56"/>
-    <col min="14" max="14" width="18.6328125" style="56" customWidth="1"/>
-    <col min="15" max="16384" width="9.08984375" style="56"/>
+    <col min="1" max="1" width="3.44140625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="56" customWidth="1"/>
+    <col min="6" max="8" width="8.33203125" style="56" customWidth="1"/>
+    <col min="9" max="13" width="9.109375" style="56"/>
+    <col min="14" max="14" width="18.6640625" style="56" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:55" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:55" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:55" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B5" s="94" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:55" ht="26" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:55" ht="27.6" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5884,13 +5863,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>967</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>968</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>22</v>
@@ -5944,7 +5923,7 @@
       <c r="BB6"/>
       <c r="BC6"/>
     </row>
-    <row r="7" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="99"/>
       <c r="C7" s="99" t="s">
         <v>49</v>
@@ -6006,7 +5985,7 @@
       <c r="BB7"/>
       <c r="BC7"/>
     </row>
-    <row r="8" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="100"/>
       <c r="C8" s="100" t="s">
         <v>35</v>
@@ -6144,7 +6123,7 @@
       <c r="BB9"/>
       <c r="BC9"/>
     </row>
-    <row r="10" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="104"/>
       <c r="C10" s="67" t="s">
         <v>78</v>
@@ -6693,7 +6672,7 @@
       </c>
       <c r="L13"/>
       <c r="N13" s="135" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O13" s="140">
         <v>0.13827220141517502</v>
@@ -6844,7 +6823,7 @@
       <c r="L14"/>
       <c r="M14" s="61"/>
       <c r="N14" s="135" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O14" s="141">
         <f>O12*Rates!$C$8</f>
@@ -7035,7 +7014,7 @@
       <c r="L15"/>
       <c r="M15" s="61"/>
       <c r="N15" s="135" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O15" s="141">
         <f>HLOOKUP($O$8,$O$10:$BC$12,3,FALSE)/7.45*O12</f>
@@ -7225,7 +7204,7 @@
       </c>
       <c r="L16"/>
       <c r="N16" s="135" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O16" s="141">
         <f>XCHG_rates!C10*O12</f>
@@ -7415,7 +7394,7 @@
       </c>
       <c r="L17"/>
       <c r="N17" s="147" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O17" s="148">
         <f>XCHG_rates!C9*O12</f>
@@ -7582,7 +7561,7 @@
         <v>0.19126558372437868</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="104"/>
       <c r="C18" s="67" t="s">
         <v>78</v>
@@ -7647,7 +7626,7 @@
       <c r="BB18"/>
       <c r="BC18"/>
     </row>
-    <row r="19" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="99"/>
       <c r="C19" s="67" t="s">
         <v>78</v>
@@ -7712,7 +7691,7 @@
       <c r="BB19"/>
       <c r="BC19"/>
     </row>
-    <row r="20" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="99"/>
       <c r="C20" s="67" t="s">
         <v>78</v>
@@ -7778,7 +7757,7 @@
       <c r="BB20"/>
       <c r="BC20"/>
     </row>
-    <row r="21" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="99"/>
       <c r="C21" s="67" t="s">
         <v>78</v>
@@ -7806,7 +7785,7 @@
         <v>23</v>
       </c>
       <c r="P21" s="127" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Q21" s="54"/>
       <c r="R21"/>
@@ -7848,7 +7827,7 @@
       <c r="BB21"/>
       <c r="BC21"/>
     </row>
-    <row r="22" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99"/>
       <c r="C22" s="67" t="s">
         <v>78</v>
@@ -7912,7 +7891,7 @@
       <c r="BB22" s="30"/>
       <c r="BC22"/>
     </row>
-    <row r="23" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="104"/>
       <c r="C23" s="105" t="s">
         <v>78</v>
@@ -7984,11 +7963,11 @@
       </c>
       <c r="L25"/>
       <c r="R25" s="121" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="S25" s="54"/>
     </row>
-    <row r="26" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="104"/>
       <c r="C26" s="105" t="s">
         <v>78</v>
@@ -8016,7 +7995,7 @@
       <c r="R26" s="121"/>
       <c r="S26" s="54"/>
     </row>
-    <row r="27" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="104"/>
       <c r="C27" s="105" t="s">
         <v>78</v>
@@ -9094,7 +9073,7 @@
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B35" s="100"/>
       <c r="C35" s="101" t="s">
         <v>78</v>
@@ -9157,7 +9136,7 @@
       <c r="BB35" s="41"/>
       <c r="BC35" s="41"/>
     </row>
-    <row r="36" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B36" s="104"/>
       <c r="C36" s="67" t="s">
         <v>78</v>
@@ -9179,7 +9158,7 @@
         <v>MEUR20</v>
       </c>
       <c r="N36" s="86" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O36" s="41"/>
       <c r="P36" s="41"/>
@@ -9223,7 +9202,7 @@
       <c r="BB36" s="41"/>
       <c r="BC36" s="41"/>
     </row>
-    <row r="37" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B37" s="104"/>
       <c r="C37" s="67" t="s">
         <v>78</v>
@@ -9248,7 +9227,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="P37" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="Q37"/>
       <c r="R37"/>
@@ -9290,7 +9269,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B38" s="104"/>
       <c r="C38" s="67" t="s">
         <v>78</v>
@@ -9315,7 +9294,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="P38" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q38"/>
       <c r="R38"/>
@@ -9383,7 +9362,7 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="P39" s="56" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.25">
@@ -9412,7 +9391,7 @@
         <v>0.10850000000000001</v>
       </c>
       <c r="P40" s="56" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
@@ -9544,22 +9523,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
@@ -9570,7 +9549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>38</v>
       </c>
@@ -9593,9 +9572,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="95" t="s">
@@ -9622,9 +9601,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="130" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="131"/>
@@ -9647,9 +9626,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="130" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="131"/>
@@ -9672,9 +9651,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="130" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="131"/>
@@ -9682,9 +9661,9 @@
       <c r="F7" s="133"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="130" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="131"/>
@@ -9692,9 +9671,9 @@
       <c r="F8" s="133"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="130" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="131"/>
@@ -9702,7 +9681,7 @@
       <c r="F9" s="133"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="130" t="s">
         <v>937</v>
       </c>
@@ -9712,9 +9691,9 @@
       <c r="F10" s="133"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="130" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="131"/>
@@ -9722,9 +9701,9 @@
       <c r="F11" s="133"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="130" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="131"/>
@@ -9732,9 +9711,9 @@
       <c r="F12" s="133"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="130" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="131"/>
@@ -9742,9 +9721,9 @@
       <c r="F13" s="133"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="130" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="131"/>
@@ -9932,12 +9911,12 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="93" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -9954,26 +9933,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D82B70-5F11-4295-9715-416BB83E3B58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -9983,12 +9962,12 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="S6" s="42"/>
       <c r="T6" s="43"/>
@@ -9999,7 +9978,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S7" s="41"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -10009,7 +9988,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2010</v>
       </c>
@@ -10034,7 +10013,7 @@
       <c r="Y8" s="125"/>
       <c r="Z8" s="125"/>
     </row>
-    <row r="9" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2011</v>
       </c>
@@ -10059,7 +10038,7 @@
       <c r="Y9" s="125"/>
       <c r="Z9" s="125"/>
     </row>
-    <row r="10" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2012</v>
       </c>
@@ -10084,7 +10063,7 @@
       <c r="Y10" s="126"/>
       <c r="Z10" s="126"/>
     </row>
-    <row r="11" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2013</v>
       </c>
@@ -10108,7 +10087,7 @@
       <c r="Y11" s="125"/>
       <c r="Z11" s="125"/>
     </row>
-    <row r="12" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2014</v>
       </c>
@@ -10133,7 +10112,7 @@
       <c r="Y12" s="47"/>
       <c r="Z12" s="47"/>
     </row>
-    <row r="13" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2015</v>
       </c>
@@ -10149,7 +10128,7 @@
         <v>1.0675083333333333</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2016</v>
       </c>
@@ -10165,7 +10144,7 @@
         <v>1.6065250000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2017</v>
       </c>
@@ -10181,7 +10160,7 @@
         <v>1.7234916666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2018</v>
       </c>
@@ -10197,7 +10176,7 @@
         <v>1.701225</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2019</v>
       </c>
@@ -10213,7 +10192,7 @@
         <v>1.7024999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -10231,40 +10210,40 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>973</v>
+      </c>
+      <c r="C24" t="s">
         <v>974</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>975</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>976</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>977</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>978</v>
       </c>
-      <c r="G24" t="s">
-        <v>979</v>
-      </c>
       <c r="K24" t="s">
+        <v>973</v>
+      </c>
+      <c r="L24" t="s">
         <v>974</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>975</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>976</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>977</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>978</v>
-      </c>
-      <c r="P24" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -15859,24 +15838,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
         <v>88</v>
       </c>
@@ -15887,7 +15866,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="44">
         <v>2010</v>
@@ -15911,7 +15890,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>89</v>
@@ -15945,7 +15924,7 @@
         <v>0.78615548740460983</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
         <v>90</v>
@@ -15979,7 +15958,7 @@
         <v>0.80182435242407102</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>91</v>
@@ -16046,7 +16025,7 @@
         <v>0.10769671819564115</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
         <v>93</v>
@@ -16080,7 +16059,7 @@
         <v>0.13431460128400069</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="50"/>
@@ -16096,7 +16075,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="152" t="s">
         <v>95</v>
       </c>
@@ -16154,7 +16133,7 @@
       <c r="AU15" s="151"/>
       <c r="AV15" s="151"/>
     </row>
-    <row r="16" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>101</v>
       </c>
@@ -20102,21 +20081,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -20339,24 +20303,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0421F0-51EF-4FEE-8D79-C499B8BD686A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20373,4 +20335,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1017">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3022,15 +3022,6 @@
   </si>
   <si>
     <t>MKr20</t>
-  </si>
-  <si>
-    <t>AZ1</t>
-  </si>
-  <si>
-    <t>AZ2</t>
-  </si>
-  <si>
-    <t>AZ3</t>
   </si>
   <si>
     <t>Socio economic discount rate is calculated based on the difference in interest rates set by the central banks of Azerbaijan and Denmark, with baseline assumption of Danish socio-economic discount rate is 4 %</t>
@@ -4459,10 +4450,10 @@
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>55</v>
@@ -4491,13 +4482,13 @@
         <v>68</v>
       </c>
       <c r="R5" s="114" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="68" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>52</v>
@@ -4526,14 +4517,14 @@
         <v>70</v>
       </c>
       <c r="R6" s="114" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>53</v>
@@ -4553,14 +4544,14 @@
         <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>54</v>
@@ -4580,24 +4571,24 @@
         <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="33" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="R9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4611,7 +4602,7 @@
         <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4619,13 +4610,13 @@
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
       <c r="G11" s="33" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="Q11" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="R11" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4823,19 +4814,19 @@
         <v>44</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I16" s="149" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="149" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="K16" s="89" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -5422,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5474,16 +5465,20 @@
         <v>Year2</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>965</v>
+        <v>1012</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>966</v>
+        <v>1013</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>967</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+        <v>1014</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>1016</v>
+      </c>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
@@ -5725,7 +5720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -5820,10 +5815,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A3:BF67"/>
+  <dimension ref="A3:BH67"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5833,23 +5828,23 @@
     <col min="3" max="3" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" style="56" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="56" customWidth="1"/>
-    <col min="6" max="8" width="8.33203125" style="56" customWidth="1"/>
-    <col min="9" max="13" width="9.109375" style="56"/>
-    <col min="14" max="14" width="18.6640625" style="56" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="56"/>
+    <col min="6" max="10" width="8.33203125" style="56" customWidth="1"/>
+    <col min="11" max="15" width="9.109375" style="56"/>
+    <col min="16" max="16" width="18.6640625" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:55" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:57" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B5" s="94" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:55" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:57" ht="27.6" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5863,26 +5858,30 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>965</v>
+        <v>1012</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>966</v>
+        <v>1013</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>967</v>
+        <v>1014</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6"/>
-      <c r="P6"/>
+      <c r="P6" s="20"/>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
@@ -5922,8 +5921,10 @@
       <c r="BA6"/>
       <c r="BB6"/>
       <c r="BC6"/>
-    </row>
-    <row r="7" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BD6"/>
+      <c r="BE6"/>
+    </row>
+    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="99"/>
       <c r="C7" s="99" t="s">
         <v>49</v>
@@ -5938,14 +5939,14 @@
       <c r="I7" s="99"/>
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
-      <c r="N7" s="20" t="s">
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="P7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="Q7" s="62" t="s">
         <v>936</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -5984,8 +5985,10 @@
       <c r="BA7"/>
       <c r="BB7"/>
       <c r="BC7"/>
-    </row>
-    <row r="8" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD7"/>
+      <c r="BE7"/>
+    </row>
+    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="100"/>
       <c r="C8" s="100" t="s">
         <v>35</v>
@@ -5994,26 +5997,26 @@
         <v>2010</v>
       </c>
       <c r="E8" s="117">
-        <f>O40</f>
+        <f>Q40</f>
         <v>0.10850000000000001</v>
       </c>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="100"/>
       <c r="I8" s="100"/>
-      <c r="J8" s="100" t="str">
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100" t="str">
         <f>Defaults!B4</f>
         <v>MEUR20</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="N8" s="35" t="s">
+      <c r="M8" s="100"/>
+      <c r="P8" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>2020</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
@@ -6052,55 +6055,57 @@
       <c r="BA8"/>
       <c r="BB8"/>
       <c r="BC8"/>
-    </row>
-    <row r="9" spans="2:55" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BD8"/>
+      <c r="BE8"/>
+    </row>
+    <row r="9" spans="2:57" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="104"/>
       <c r="C9" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="105"/>
       <c r="E9" s="134" cm="1">
-        <f t="array" ref="E9:E18">TRANSPOSE(O12:X12)</f>
+        <f t="array" ref="E9:E18">TRANSPOSE(Q12:Z12)</f>
         <v>0.57345472525413244</v>
       </c>
       <c r="F9" s="104"/>
       <c r="G9" s="104"/>
       <c r="H9" s="104"/>
       <c r="I9" s="104"/>
-      <c r="J9" s="104" t="str">
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104" t="str">
         <f>Defaults!B5</f>
         <v>MEUR10</v>
       </c>
-      <c r="K9" s="100" t="str">
-        <f>$J$8</f>
+      <c r="M9" s="100" t="str">
+        <f>$L$8</f>
         <v>MEUR20</v>
       </c>
-      <c r="L9"/>
-      <c r="N9" s="21" t="s">
+      <c r="N9"/>
+      <c r="P9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
-      <c r="AF9" t="s">
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9" t="s">
         <v>80</v>
       </c>
-      <c r="AG9"/>
-      <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
       <c r="AK9"/>
@@ -6122,8 +6127,10 @@
       <c r="BA9"/>
       <c r="BB9"/>
       <c r="BC9"/>
-    </row>
-    <row r="10" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD9"/>
+      <c r="BE9"/>
+    </row>
+    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="104"/>
       <c r="C10" s="67" t="s">
         <v>78</v>
@@ -6136,141 +6143,143 @@
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
       <c r="I10" s="104"/>
-      <c r="J10" s="104" t="str">
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104" t="str">
         <f>Defaults!B6</f>
         <v>MEUR11</v>
       </c>
-      <c r="K10" s="104" t="str">
-        <f t="shared" ref="K10:K41" si="0">$J$8</f>
+      <c r="M10" s="104" t="str">
+        <f t="shared" ref="M10:M41" si="0">$L$8</f>
         <v>MEUR20</v>
       </c>
-      <c r="L10"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="142">
+      <c r="N10"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="142">
         <v>2010</v>
       </c>
-      <c r="P10" s="142">
+      <c r="R10" s="142">
         <v>2011</v>
       </c>
-      <c r="Q10" s="142">
+      <c r="S10" s="142">
         <v>2012</v>
       </c>
-      <c r="R10" s="142">
+      <c r="T10" s="142">
         <v>2013</v>
       </c>
-      <c r="S10" s="142">
+      <c r="U10" s="142">
         <v>2014</v>
       </c>
-      <c r="T10" s="142">
+      <c r="V10" s="142">
         <v>2015</v>
       </c>
-      <c r="U10" s="142">
+      <c r="W10" s="142">
         <v>2016</v>
       </c>
-      <c r="V10" s="142">
+      <c r="X10" s="142">
         <v>2017</v>
       </c>
-      <c r="W10" s="142">
+      <c r="Y10" s="142">
         <v>2018</v>
       </c>
-      <c r="X10" s="142">
+      <c r="Z10" s="142">
         <v>2019</v>
       </c>
-      <c r="Y10" s="142">
+      <c r="AA10" s="142">
         <v>2020</v>
       </c>
-      <c r="Z10" s="142">
+      <c r="AB10" s="142">
         <v>2021</v>
       </c>
-      <c r="AA10" s="142">
+      <c r="AC10" s="142">
         <v>2022</v>
       </c>
-      <c r="AB10" s="142">
+      <c r="AD10" s="142">
         <v>2023</v>
       </c>
-      <c r="AC10" s="142">
+      <c r="AE10" s="142">
         <v>2024</v>
       </c>
-      <c r="AD10" s="142">
+      <c r="AF10" s="142">
         <v>2025</v>
       </c>
-      <c r="AE10" s="142">
+      <c r="AG10" s="142">
         <v>2026</v>
       </c>
-      <c r="AF10" s="142">
+      <c r="AH10" s="142">
         <v>2027</v>
       </c>
-      <c r="AG10" s="142">
+      <c r="AI10" s="142">
         <v>2028</v>
       </c>
-      <c r="AH10" s="142">
+      <c r="AJ10" s="142">
         <v>2029</v>
       </c>
-      <c r="AI10" s="142">
+      <c r="AK10" s="142">
         <v>2030</v>
       </c>
-      <c r="AJ10" s="142">
+      <c r="AL10" s="142">
         <v>2031</v>
       </c>
-      <c r="AK10" s="142">
+      <c r="AM10" s="142">
         <v>2032</v>
       </c>
-      <c r="AL10" s="142">
+      <c r="AN10" s="142">
         <v>2033</v>
       </c>
-      <c r="AM10" s="142">
+      <c r="AO10" s="142">
         <v>2034</v>
       </c>
-      <c r="AN10" s="142">
+      <c r="AP10" s="142">
         <v>2035</v>
       </c>
-      <c r="AO10" s="142">
+      <c r="AQ10" s="142">
         <v>2036</v>
       </c>
-      <c r="AP10" s="142">
+      <c r="AR10" s="142">
         <v>2037</v>
       </c>
-      <c r="AQ10" s="142">
+      <c r="AS10" s="142">
         <v>2038</v>
       </c>
-      <c r="AR10" s="142">
+      <c r="AT10" s="142">
         <v>2039</v>
       </c>
-      <c r="AS10" s="142">
+      <c r="AU10" s="142">
         <v>2040</v>
       </c>
-      <c r="AT10" s="142">
+      <c r="AV10" s="142">
         <v>2041</v>
       </c>
-      <c r="AU10" s="142">
+      <c r="AW10" s="142">
         <v>2042</v>
       </c>
-      <c r="AV10" s="142">
+      <c r="AX10" s="142">
         <v>2043</v>
       </c>
-      <c r="AW10" s="142">
+      <c r="AY10" s="142">
         <v>2044</v>
       </c>
-      <c r="AX10" s="142">
+      <c r="AZ10" s="142">
         <v>2045</v>
       </c>
-      <c r="AY10" s="142">
+      <c r="BA10" s="142">
         <v>2046</v>
       </c>
-      <c r="AZ10" s="142">
+      <c r="BB10" s="142">
         <v>2047</v>
       </c>
-      <c r="BA10" s="142">
+      <c r="BC10" s="142">
         <v>2048</v>
       </c>
-      <c r="BB10" s="142">
+      <c r="BD10" s="142">
         <v>2049</v>
       </c>
-      <c r="BC10" s="143">
+      <c r="BE10" s="143">
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
       <c r="C11" s="67" t="s">
         <v>78</v>
@@ -6283,183 +6292,185 @@
       <c r="G11" s="104"/>
       <c r="H11" s="104"/>
       <c r="I11" s="104"/>
-      <c r="J11" s="104" t="str">
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104" t="str">
         <f>Defaults!B7</f>
         <v>MEUR12</v>
       </c>
-      <c r="K11" s="104" t="str">
+      <c r="M11" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L11"/>
-      <c r="N11" s="136" t="s">
+      <c r="N11"/>
+      <c r="P11" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="137">
+      <c r="Q11" s="137">
         <v>1</v>
       </c>
-      <c r="P11" s="138">
-        <f>O11*(1+P13)</f>
+      <c r="R11" s="138">
+        <f>Q11*(1+R13)</f>
         <v>1.246069500302329</v>
       </c>
-      <c r="Q11" s="138">
-        <f t="shared" ref="Q11:BC11" si="1">P11*(1+Q13)</f>
+      <c r="S11" s="138">
+        <f t="shared" ref="S11:BE11" si="1">R11*(1+S13)</f>
         <v>1.2815199604853424</v>
       </c>
-      <c r="R11" s="138">
+      <c r="T11" s="138">
         <f t="shared" si="1"/>
         <v>1.2868147403489156</v>
       </c>
-      <c r="S11" s="138">
+      <c r="U11" s="138">
         <f t="shared" si="1"/>
         <v>1.2696974737553699</v>
       </c>
-      <c r="T11" s="138">
+      <c r="V11" s="138">
         <f t="shared" si="1"/>
         <v>1.1578420079704261</v>
       </c>
-      <c r="U11" s="138">
+      <c r="W11" s="138">
         <f t="shared" si="1"/>
         <v>1.3272150619974525</v>
       </c>
-      <c r="V11" s="138">
+      <c r="X11" s="138">
         <f t="shared" si="1"/>
         <v>1.5425716929965085</v>
       </c>
-      <c r="W11" s="138">
+      <c r="Y11" s="138">
         <f t="shared" si="1"/>
         <v>1.7305253068535371</v>
       </c>
-      <c r="X11" s="138">
+      <c r="Z11" s="138">
         <f t="shared" si="1"/>
         <v>1.7265513148613738</v>
       </c>
-      <c r="Y11" s="138">
+      <c r="AA11" s="138">
         <f t="shared" si="1"/>
         <v>1.7438168280099875</v>
       </c>
-      <c r="Z11" s="138">
+      <c r="AB11" s="138">
         <f t="shared" si="1"/>
         <v>1.7786931645701873</v>
       </c>
-      <c r="AA11" s="138">
+      <c r="AC11" s="138">
         <f t="shared" si="1"/>
         <v>1.8142670278615911</v>
       </c>
-      <c r="AB11" s="138">
+      <c r="AD11" s="138">
         <f t="shared" si="1"/>
         <v>1.850552368418823</v>
       </c>
-      <c r="AC11" s="138">
+      <c r="AE11" s="138">
         <f t="shared" si="1"/>
         <v>1.8875634157871994</v>
       </c>
-      <c r="AD11" s="138">
+      <c r="AF11" s="138">
         <f t="shared" si="1"/>
         <v>1.9253146841029434</v>
       </c>
-      <c r="AE11" s="138">
+      <c r="AG11" s="138">
         <f t="shared" si="1"/>
         <v>1.9638209777850022</v>
       </c>
-      <c r="AF11" s="138">
+      <c r="AH11" s="138">
         <f t="shared" si="1"/>
         <v>2.0030973973407025</v>
       </c>
-      <c r="AG11" s="138">
+      <c r="AI11" s="138">
         <f t="shared" si="1"/>
         <v>2.0431593452875165</v>
       </c>
-      <c r="AH11" s="138">
+      <c r="AJ11" s="138">
         <f t="shared" si="1"/>
         <v>2.0840225321932668</v>
       </c>
-      <c r="AI11" s="138">
+      <c r="AK11" s="138">
         <f t="shared" si="1"/>
         <v>2.1257029828371321</v>
       </c>
-      <c r="AJ11" s="138">
+      <c r="AL11" s="138">
         <f t="shared" si="1"/>
         <v>2.1682170424938749</v>
       </c>
-      <c r="AK11" s="138">
+      <c r="AM11" s="138">
         <f t="shared" si="1"/>
         <v>2.2115813833437525</v>
       </c>
-      <c r="AL11" s="138">
+      <c r="AN11" s="138">
         <f t="shared" si="1"/>
         <v>2.2558130110106278</v>
       </c>
-      <c r="AM11" s="138">
+      <c r="AO11" s="138">
         <f t="shared" si="1"/>
         <v>2.3009292712308405</v>
       </c>
-      <c r="AN11" s="138">
+      <c r="AP11" s="138">
         <f t="shared" si="1"/>
         <v>2.3469478566554574</v>
       </c>
-      <c r="AO11" s="138">
+      <c r="AQ11" s="138">
         <f t="shared" si="1"/>
         <v>2.3938868137885665</v>
       </c>
-      <c r="AP11" s="138">
+      <c r="AR11" s="138">
         <f t="shared" si="1"/>
         <v>2.4417645500643377</v>
       </c>
-      <c r="AQ11" s="138">
+      <c r="AS11" s="138">
         <f t="shared" si="1"/>
         <v>2.4905998410656243</v>
       </c>
-      <c r="AR11" s="138">
+      <c r="AT11" s="138">
         <f t="shared" si="1"/>
         <v>2.5404118378869369</v>
       </c>
-      <c r="AS11" s="138">
+      <c r="AU11" s="138">
         <f t="shared" si="1"/>
         <v>2.5912200746446756</v>
       </c>
-      <c r="AT11" s="138">
+      <c r="AV11" s="138">
         <f t="shared" si="1"/>
         <v>2.6430444761375691</v>
       </c>
-      <c r="AU11" s="138">
+      <c r="AW11" s="138">
         <f t="shared" si="1"/>
         <v>2.6959053656603205</v>
       </c>
-      <c r="AV11" s="138">
+      <c r="AX11" s="138">
         <f t="shared" si="1"/>
         <v>2.7498234729735271</v>
       </c>
-      <c r="AW11" s="138">
+      <c r="AY11" s="138">
         <f t="shared" si="1"/>
         <v>2.8048199424329976</v>
       </c>
-      <c r="AX11" s="138">
+      <c r="AZ11" s="138">
         <f t="shared" si="1"/>
         <v>2.8609163412816576</v>
       </c>
-      <c r="AY11" s="138">
+      <c r="BA11" s="138">
         <f t="shared" si="1"/>
         <v>2.9181346681072906</v>
       </c>
-      <c r="AZ11" s="138">
+      <c r="BB11" s="138">
         <f t="shared" si="1"/>
         <v>2.9764973614694363</v>
       </c>
-      <c r="BA11" s="138">
+      <c r="BC11" s="138">
         <f t="shared" si="1"/>
         <v>3.036027308698825</v>
       </c>
-      <c r="BB11" s="138">
+      <c r="BD11" s="138">
         <f t="shared" si="1"/>
         <v>3.0967478548728016</v>
       </c>
-      <c r="BC11" s="144">
+      <c r="BE11" s="144">
         <f t="shared" si="1"/>
         <v>3.1586828119702575</v>
       </c>
     </row>
-    <row r="12" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
       <c r="C12" s="67" t="s">
         <v>78</v>
@@ -6472,184 +6483,186 @@
       <c r="G12" s="104"/>
       <c r="H12" s="104"/>
       <c r="I12" s="104"/>
-      <c r="J12" s="104" t="str">
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104" t="str">
         <f>Defaults!B8</f>
         <v>MEUR13</v>
       </c>
-      <c r="K12" s="104" t="str">
+      <c r="M12" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L12"/>
-      <c r="N12" s="136" t="s">
+      <c r="N12"/>
+      <c r="P12" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="139">
-        <f>O11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="Q12" s="139">
+        <f>Q11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.57345472525413244</v>
       </c>
-      <c r="P12" s="24">
-        <f>P11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="R12" s="24">
+        <f>R11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.71456444294342614</v>
       </c>
-      <c r="Q12" s="24">
-        <f>Q11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="S12" s="24">
+        <f>S11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.7348936768478086</v>
       </c>
-      <c r="R12" s="24">
-        <f>R11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="T12" s="24">
+        <f>T11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.73792999337975507</v>
       </c>
-      <c r="S12" s="24">
-        <f t="shared" ref="S12:Y12" si="2">R12*(1+S13)</f>
+      <c r="U12" s="24">
+        <f t="shared" ref="U12:AA12" si="2">T12*(1+U13)</f>
         <v>0.72811401596825154</v>
       </c>
-      <c r="T12" s="24">
+      <c r="V12" s="24">
         <f t="shared" si="2"/>
         <v>0.6639699705683737</v>
       </c>
-      <c r="U12" s="24">
+      <c r="W12" s="24">
         <f t="shared" si="2"/>
         <v>0.76109774873089542</v>
       </c>
-      <c r="V12" s="24">
+      <c r="X12" s="24">
         <f t="shared" si="2"/>
         <v>0.88459502639211474</v>
       </c>
-      <c r="W12" s="24">
+      <c r="Y12" s="24">
         <f t="shared" si="2"/>
         <v>0.99237791438701839</v>
       </c>
-      <c r="X12" s="24">
+      <c r="Z12" s="24">
         <f t="shared" si="2"/>
         <v>0.99009900990099031</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="AA12" s="24">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Z12" s="24">
-        <f t="shared" ref="Z12:BC12" si="3">Y12*(1+Z13)</f>
+      <c r="AB12" s="24">
+        <f t="shared" ref="AB12:BE12" si="3">AA12*(1+AB13)</f>
         <v>1.0200000000000002</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AC12" s="24">
         <f t="shared" si="3"/>
         <v>1.0404000000000002</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AD12" s="24">
         <f t="shared" si="3"/>
         <v>1.0612080000000002</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AE12" s="24">
         <f t="shared" si="3"/>
         <v>1.0824321600000002</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AF12" s="24">
         <f t="shared" si="3"/>
         <v>1.1040808032000002</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AG12" s="24">
         <f t="shared" si="3"/>
         <v>1.1261624192640003</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AH12" s="24">
         <f t="shared" si="3"/>
         <v>1.1486856676492803</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AI12" s="24">
         <f t="shared" si="3"/>
         <v>1.171659381002266</v>
       </c>
-      <c r="AH12" s="24">
+      <c r="AJ12" s="24">
         <f t="shared" si="3"/>
         <v>1.1950925686223113</v>
       </c>
-      <c r="AI12" s="24">
+      <c r="AK12" s="24">
         <f t="shared" si="3"/>
         <v>1.2189944199947575</v>
       </c>
-      <c r="AJ12" s="24">
+      <c r="AL12" s="24">
         <f t="shared" si="3"/>
         <v>1.2433743083946527</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AM12" s="24">
         <f t="shared" si="3"/>
         <v>1.2682417945625457</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AN12" s="24">
         <f t="shared" si="3"/>
         <v>1.2936066304537968</v>
       </c>
-      <c r="AM12" s="24">
+      <c r="AO12" s="24">
         <f t="shared" si="3"/>
         <v>1.3194787630628728</v>
       </c>
-      <c r="AN12" s="24">
+      <c r="AP12" s="24">
         <f t="shared" si="3"/>
         <v>1.3458683383241303</v>
       </c>
-      <c r="AO12" s="24">
+      <c r="AQ12" s="24">
         <f t="shared" si="3"/>
         <v>1.3727857050906129</v>
       </c>
-      <c r="AP12" s="24">
+      <c r="AR12" s="24">
         <f t="shared" si="3"/>
         <v>1.4002414191924253</v>
       </c>
-      <c r="AQ12" s="24">
+      <c r="AS12" s="24">
         <f t="shared" si="3"/>
         <v>1.4282462475762738</v>
       </c>
-      <c r="AR12" s="24">
+      <c r="AT12" s="24">
         <f t="shared" si="3"/>
         <v>1.4568111725277992</v>
       </c>
-      <c r="AS12" s="24">
+      <c r="AU12" s="24">
         <f t="shared" si="3"/>
         <v>1.4859473959783553</v>
       </c>
-      <c r="AT12" s="24">
+      <c r="AV12" s="24">
         <f t="shared" si="3"/>
         <v>1.5156663438979225</v>
       </c>
-      <c r="AU12" s="24">
+      <c r="AW12" s="24">
         <f t="shared" si="3"/>
         <v>1.5459796707758811</v>
       </c>
-      <c r="AV12" s="24">
+      <c r="AX12" s="24">
         <f t="shared" si="3"/>
         <v>1.5768992641913988</v>
       </c>
-      <c r="AW12" s="24">
+      <c r="AY12" s="24">
         <f t="shared" si="3"/>
         <v>1.6084372494752268</v>
       </c>
-      <c r="AX12" s="24">
+      <c r="AZ12" s="24">
         <f t="shared" si="3"/>
         <v>1.6406059944647313</v>
       </c>
-      <c r="AY12" s="24">
+      <c r="BA12" s="24">
         <f t="shared" si="3"/>
         <v>1.6734181143540259</v>
       </c>
-      <c r="AZ12" s="24">
+      <c r="BB12" s="24">
         <f t="shared" si="3"/>
         <v>1.7068864766411065</v>
       </c>
-      <c r="BA12" s="24">
+      <c r="BC12" s="24">
         <f t="shared" si="3"/>
         <v>1.7410242061739287</v>
       </c>
-      <c r="BB12" s="24">
+      <c r="BD12" s="24">
         <f t="shared" si="3"/>
         <v>1.7758446902974074</v>
       </c>
-      <c r="BC12" s="145">
+      <c r="BE12" s="145">
         <f t="shared" si="3"/>
         <v>1.8113615841033557</v>
       </c>
     </row>
-    <row r="13" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="104"/>
       <c r="C13" s="67" t="s">
         <v>78</v>
@@ -6662,57 +6675,53 @@
       <c r="G13" s="104"/>
       <c r="H13" s="104"/>
       <c r="I13" s="104"/>
-      <c r="J13" s="104" t="str">
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104" t="str">
         <f>Defaults!B9</f>
         <v>MEUR14</v>
       </c>
-      <c r="K13" s="104" t="str">
+      <c r="M13" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L13"/>
-      <c r="N13" s="135" t="s">
-        <v>996</v>
-      </c>
-      <c r="O13" s="140">
+      <c r="N13"/>
+      <c r="P13" s="135" t="s">
+        <v>993</v>
+      </c>
+      <c r="Q13" s="140">
         <v>0.13827220141517502</v>
       </c>
-      <c r="P13" s="122">
+      <c r="R13" s="122">
         <v>0.24606950030232899</v>
       </c>
-      <c r="Q13" s="122">
+      <c r="S13" s="122">
         <v>2.84498257716864E-2</v>
       </c>
-      <c r="R13" s="122">
+      <c r="T13" s="122">
         <v>4.1316405727836502E-3</v>
       </c>
-      <c r="S13" s="122">
+      <c r="U13" s="122">
         <v>-1.3302044231250001E-2</v>
       </c>
-      <c r="T13" s="122">
+      <c r="V13" s="122">
         <v>-8.8096155262962009E-2</v>
       </c>
-      <c r="U13" s="122">
+      <c r="W13" s="122">
         <v>0.146283390014428</v>
       </c>
-      <c r="V13" s="122">
+      <c r="X13" s="122">
         <v>0.16226204566646898</v>
       </c>
-      <c r="W13" s="122">
+      <c r="Y13" s="122">
         <v>0.12184432964144501</v>
       </c>
-      <c r="X13" s="122">
+      <c r="Z13" s="122">
         <v>-2.2964079036722801E-3</v>
       </c>
-      <c r="Y13" s="129">
-        <f>Z13/2</f>
+      <c r="AA13" s="129">
+        <f>AB13/2</f>
         <v>0.01</v>
-      </c>
-      <c r="Z13" s="129">
-        <v>0.02</v>
-      </c>
-      <c r="AA13" s="129">
-        <v>0.02</v>
       </c>
       <c r="AB13" s="129">
         <v>0.02</v>
@@ -6795,11 +6804,17 @@
       <c r="BB13" s="129">
         <v>0.02</v>
       </c>
-      <c r="BC13" s="146">
+      <c r="BC13" s="129">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="14" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD13" s="129">
+        <v>0.02</v>
+      </c>
+      <c r="BE13" s="146">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="104"/>
       <c r="C14" s="67" t="s">
         <v>78</v>
@@ -6812,185 +6827,187 @@
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
-      <c r="J14" s="104" t="str">
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104" t="str">
         <f>Defaults!B10</f>
         <v>MEUR15</v>
       </c>
-      <c r="K14" s="104" t="str">
+      <c r="M14" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L14"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="135" t="s">
-        <v>1000</v>
-      </c>
-      <c r="O14" s="141">
-        <f>O12*Rates!$C$8</f>
+      <c r="N14"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="135" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q14" s="141">
+        <f>Q12*Rates!$C$8</f>
         <v>0.60848803017778275</v>
       </c>
-      <c r="P14" s="25">
-        <f>P12*Rates!$C$9</f>
+      <c r="R14" s="25">
+        <f>R12*Rates!$C$9</f>
         <v>0.78867073038035063</v>
       </c>
-      <c r="Q14" s="25">
-        <f>Q12*Rates!$C$10</f>
+      <c r="S14" s="25">
+        <f>S12*Rates!$C$10</f>
         <v>0.74354092577871789</v>
       </c>
-      <c r="R14" s="25">
-        <f>R12*Rates!$C$11</f>
+      <c r="T14" s="25">
+        <f>T12*Rates!$C$11</f>
         <v>0.76840035268972751</v>
       </c>
-      <c r="S14" s="25">
-        <f>S12*Rates!$C$12</f>
+      <c r="U14" s="25">
+        <f>U12*Rates!$C$12</f>
         <v>0.75336136947195065</v>
       </c>
-      <c r="T14" s="25">
-        <f>T12*Rates!$C$13</f>
+      <c r="V14" s="25">
+        <f>V12*Rates!$C$13</f>
         <v>0.7788810401414068</v>
       </c>
-      <c r="U14" s="25">
-        <f>U12*Rates!$C$14</f>
+      <c r="W14" s="25">
+        <f>W12*Rates!$C$14</f>
         <v>1.3442762137334652</v>
       </c>
-      <c r="V14" s="25">
-        <f>V12*Rates!$C$15</f>
+      <c r="X14" s="25">
+        <f>X12*Rates!$C$15</f>
         <v>1.7485789886692933</v>
       </c>
-      <c r="W14" s="25">
-        <f>W12*Rates!$C$16</f>
+      <c r="Y14" s="25">
+        <f>Y12*Rates!$C$16</f>
         <v>1.9815223307363259</v>
       </c>
-      <c r="X14" s="25">
-        <f>X12*Rates!$C$17</f>
+      <c r="Z14" s="25">
+        <f>Z12*Rates!$C$17</f>
         <v>1.8749174917491753</v>
-      </c>
-      <c r="Y14" s="25">
-        <f>Y12*Rates!$C$18</f>
-        <v>1.9416250000000006</v>
-      </c>
-      <c r="Z14" s="25">
-        <f>Z12*Rates!$C$18</f>
-        <v>1.9804575000000006</v>
       </c>
       <c r="AA14" s="25">
         <f>AA12*Rates!$C$18</f>
-        <v>2.0200666500000004</v>
+        <v>1.9416250000000006</v>
       </c>
       <c r="AB14" s="25">
         <f>AB12*Rates!$C$18</f>
-        <v>2.0604679830000006</v>
+        <v>1.9804575000000006</v>
       </c>
       <c r="AC14" s="25">
         <f>AC12*Rates!$C$18</f>
-        <v>2.1016773426600004</v>
+        <v>2.0200666500000004</v>
       </c>
       <c r="AD14" s="25">
         <f>AD12*Rates!$C$18</f>
-        <v>2.1437108895132004</v>
+        <v>2.0604679830000006</v>
       </c>
       <c r="AE14" s="25">
         <f>AE12*Rates!$C$18</f>
-        <v>2.1865851073034648</v>
+        <v>2.1016773426600004</v>
       </c>
       <c r="AF14" s="25">
         <f>AF12*Rates!$C$18</f>
-        <v>2.2303168094495338</v>
+        <v>2.1437108895132004</v>
       </c>
       <c r="AG14" s="25">
         <f>AG12*Rates!$C$18</f>
-        <v>2.274923145638525</v>
+        <v>2.1865851073034648</v>
       </c>
       <c r="AH14" s="25">
         <f>AH12*Rates!$C$18</f>
-        <v>2.3204216085512952</v>
+        <v>2.2303168094495338</v>
       </c>
       <c r="AI14" s="25">
         <f>AI12*Rates!$C$18</f>
-        <v>2.3668300407223213</v>
+        <v>2.274923145638525</v>
       </c>
       <c r="AJ14" s="25">
         <f>AJ12*Rates!$C$18</f>
-        <v>2.4141666415367675</v>
+        <v>2.3204216085512952</v>
       </c>
       <c r="AK14" s="25">
         <f>AK12*Rates!$C$18</f>
-        <v>2.462449974367503</v>
+        <v>2.3668300407223213</v>
       </c>
       <c r="AL14" s="25">
         <f>AL12*Rates!$C$18</f>
-        <v>2.5116989738548532</v>
+        <v>2.4141666415367675</v>
       </c>
       <c r="AM14" s="25">
         <f>AM12*Rates!$C$18</f>
-        <v>2.5619329533319508</v>
+        <v>2.462449974367503</v>
       </c>
       <c r="AN14" s="25">
         <f>AN12*Rates!$C$18</f>
-        <v>2.61317161239859</v>
+        <v>2.5116989738548532</v>
       </c>
       <c r="AO14" s="25">
         <f>AO12*Rates!$C$18</f>
-        <v>2.6654350446465616</v>
+        <v>2.5619329533319508</v>
       </c>
       <c r="AP14" s="25">
         <f>AP12*Rates!$C$18</f>
-        <v>2.7187437455394932</v>
+        <v>2.61317161239859</v>
       </c>
       <c r="AQ14" s="25">
         <f>AQ12*Rates!$C$18</f>
-        <v>2.7731186204502829</v>
+        <v>2.6654350446465616</v>
       </c>
       <c r="AR14" s="25">
         <f>AR12*Rates!$C$18</f>
-        <v>2.8285809928592882</v>
+        <v>2.7187437455394932</v>
       </c>
       <c r="AS14" s="25">
         <f>AS12*Rates!$C$18</f>
-        <v>2.8851526127164746</v>
+        <v>2.7731186204502829</v>
       </c>
       <c r="AT14" s="25">
         <f>AT12*Rates!$C$18</f>
-        <v>2.942855664970804</v>
+        <v>2.8285809928592882</v>
       </c>
       <c r="AU14" s="25">
         <f>AU12*Rates!$C$18</f>
-        <v>3.0017127782702202</v>
+        <v>2.8851526127164746</v>
       </c>
       <c r="AV14" s="25">
         <f>AV12*Rates!$C$18</f>
-        <v>3.061747033835625</v>
+        <v>2.942855664970804</v>
       </c>
       <c r="AW14" s="25">
         <f>AW12*Rates!$C$18</f>
-        <v>3.1229819745123377</v>
+        <v>3.0017127782702202</v>
       </c>
       <c r="AX14" s="25">
         <f>AX12*Rates!$C$18</f>
-        <v>3.1854416140025843</v>
+        <v>3.061747033835625</v>
       </c>
       <c r="AY14" s="25">
         <f>AY12*Rates!$C$18</f>
-        <v>3.2491504462826359</v>
+        <v>3.1229819745123377</v>
       </c>
       <c r="AZ14" s="25">
         <f>AZ12*Rates!$C$18</f>
-        <v>3.3141334552082888</v>
+        <v>3.1854416140025843</v>
       </c>
       <c r="BA14" s="25">
         <f>BA12*Rates!$C$18</f>
-        <v>3.3804161243124544</v>
+        <v>3.2491504462826359</v>
       </c>
       <c r="BB14" s="25">
         <f>BB12*Rates!$C$18</f>
+        <v>3.3141334552082888</v>
+      </c>
+      <c r="BC14" s="25">
+        <f>BC12*Rates!$C$18</f>
+        <v>3.3804161243124544</v>
+      </c>
+      <c r="BD14" s="25">
+        <f>BD12*Rates!$C$18</f>
         <v>3.448024446798704</v>
       </c>
-      <c r="BC14" s="26">
-        <f>BC12*Rates!$C$18</f>
+      <c r="BE14" s="26">
+        <f>BE12*Rates!$C$18</f>
         <v>3.5169849357346781</v>
       </c>
     </row>
-    <row r="15" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
       <c r="C15" s="67" t="s">
         <v>78</v>
@@ -7003,185 +7020,187 @@
       <c r="G15" s="104"/>
       <c r="H15" s="104"/>
       <c r="I15" s="104"/>
-      <c r="J15" s="104" t="str">
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104" t="str">
         <f>Defaults!B11</f>
         <v>MEUR16</v>
       </c>
-      <c r="K15" s="104" t="str">
+      <c r="M15" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L15"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="135" t="s">
-        <v>999</v>
-      </c>
-      <c r="O15" s="141">
-        <f>HLOOKUP($O$8,$O$10:$BC$12,3,FALSE)/7.45*O12</f>
+      <c r="N15"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="135" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q15" s="141">
+        <f>HLOOKUP($Q$8,$Q$10:$BE$12,3,FALSE)/7.45*Q12</f>
         <v>7.697378862471578E-2</v>
       </c>
-      <c r="P15" s="25">
-        <f t="shared" ref="P15:BC15" si="4">HLOOKUP($O$8,$O$10:$BC$12,3,FALSE)/7.45*P12</f>
+      <c r="R15" s="25">
+        <f t="shared" ref="R15:BE15" si="4">HLOOKUP($Q$8,$Q$10:$BE$12,3,FALSE)/7.45*R12</f>
         <v>9.5914690327976684E-2</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="S15" s="25">
         <f t="shared" si="4"/>
         <v>9.8643446556752848E-2</v>
       </c>
-      <c r="R15" s="25">
+      <c r="T15" s="25">
         <f t="shared" si="4"/>
         <v>9.9051005822785934E-2</v>
       </c>
-      <c r="S15" s="25">
+      <c r="U15" s="25">
         <f t="shared" si="4"/>
         <v>9.7733424962181431E-2</v>
       </c>
-      <c r="T15" s="25">
+      <c r="V15" s="25">
         <f t="shared" si="4"/>
         <v>8.9123485982332065E-2</v>
       </c>
-      <c r="U15" s="25">
+      <c r="W15" s="25">
         <f t="shared" si="4"/>
         <v>0.10216077164173094</v>
       </c>
-      <c r="V15" s="25">
+      <c r="X15" s="25">
         <f t="shared" si="4"/>
         <v>0.11873758743518321</v>
       </c>
-      <c r="W15" s="25">
+      <c r="Y15" s="25">
         <f t="shared" si="4"/>
         <v>0.13320508917946558</v>
       </c>
-      <c r="X15" s="25">
+      <c r="Z15" s="25">
         <f t="shared" si="4"/>
         <v>0.13289919595986449</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="AA15" s="25">
         <f t="shared" si="4"/>
         <v>0.13422818791946314</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="AB15" s="25">
         <f t="shared" si="4"/>
         <v>0.13691275167785241</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AC15" s="25">
         <f t="shared" si="4"/>
         <v>0.13965100671140945</v>
       </c>
-      <c r="AB15" s="25">
+      <c r="AD15" s="25">
         <f t="shared" si="4"/>
         <v>0.14244402684563764</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AE15" s="25">
         <f t="shared" si="4"/>
         <v>0.14529290738255038</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AF15" s="25">
         <f t="shared" si="4"/>
         <v>0.14819876553020139</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AG15" s="25">
         <f t="shared" si="4"/>
         <v>0.15116274084080544</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AH15" s="25">
         <f t="shared" si="4"/>
         <v>0.15418599565762153</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AI15" s="25">
         <f t="shared" si="4"/>
         <v>0.15726971557077399</v>
       </c>
-      <c r="AH15" s="25">
+      <c r="AJ15" s="25">
         <f t="shared" si="4"/>
         <v>0.16041510988218946</v>
       </c>
-      <c r="AI15" s="25">
+      <c r="AK15" s="25">
         <f t="shared" si="4"/>
         <v>0.16362341207983327</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AL15" s="25">
         <f t="shared" si="4"/>
         <v>0.16689588032142993</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AM15" s="25">
         <f t="shared" si="4"/>
         <v>0.17023379792785853</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AN15" s="25">
         <f t="shared" si="4"/>
         <v>0.17363847388641571</v>
       </c>
-      <c r="AM15" s="25">
+      <c r="AO15" s="25">
         <f t="shared" si="4"/>
         <v>0.17711124336414405</v>
       </c>
-      <c r="AN15" s="25">
+      <c r="AP15" s="25">
         <f t="shared" si="4"/>
         <v>0.18065346823142692</v>
       </c>
-      <c r="AO15" s="25">
+      <c r="AQ15" s="25">
         <f t="shared" si="4"/>
         <v>0.18426653759605546</v>
       </c>
-      <c r="AP15" s="25">
+      <c r="AR15" s="25">
         <f t="shared" si="4"/>
         <v>0.18795186834797659</v>
       </c>
-      <c r="AQ15" s="25">
+      <c r="AS15" s="25">
         <f t="shared" si="4"/>
         <v>0.19171090571493613</v>
       </c>
-      <c r="AR15" s="25">
+      <c r="AT15" s="25">
         <f t="shared" si="4"/>
         <v>0.19554512382923483</v>
       </c>
-      <c r="AS15" s="25">
+      <c r="AU15" s="25">
         <f t="shared" si="4"/>
         <v>0.19945602630581954</v>
       </c>
-      <c r="AT15" s="25">
+      <c r="AV15" s="25">
         <f t="shared" si="4"/>
         <v>0.20344514683193596</v>
       </c>
-      <c r="AU15" s="25">
+      <c r="AW15" s="25">
         <f t="shared" si="4"/>
         <v>0.20751404976857468</v>
       </c>
-      <c r="AV15" s="25">
+      <c r="AX15" s="25">
         <f t="shared" si="4"/>
         <v>0.2116643307639462</v>
       </c>
-      <c r="AW15" s="25">
+      <c r="AY15" s="25">
         <f t="shared" si="4"/>
         <v>0.21589761737922511</v>
       </c>
-      <c r="AX15" s="25">
+      <c r="AZ15" s="25">
         <f t="shared" si="4"/>
         <v>0.22021556972680961</v>
       </c>
-      <c r="AY15" s="25">
+      <c r="BA15" s="25">
         <f t="shared" si="4"/>
         <v>0.22461988112134582</v>
       </c>
-      <c r="AZ15" s="25">
+      <c r="BB15" s="25">
         <f t="shared" si="4"/>
         <v>0.22911227874377274</v>
       </c>
-      <c r="BA15" s="25">
+      <c r="BC15" s="25">
         <f t="shared" si="4"/>
         <v>0.23369452431864821</v>
       </c>
-      <c r="BB15" s="25">
+      <c r="BD15" s="25">
         <f t="shared" si="4"/>
         <v>0.23836841480502119</v>
       </c>
-      <c r="BC15" s="26">
+      <c r="BE15" s="26">
         <f t="shared" si="4"/>
         <v>0.24313578310112163</v>
       </c>
     </row>
-    <row r="16" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="67" t="s">
         <v>78</v>
@@ -7194,184 +7213,186 @@
       <c r="G16" s="104"/>
       <c r="H16" s="104"/>
       <c r="I16" s="104"/>
-      <c r="J16" s="104" t="str">
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104" t="str">
         <f>Defaults!B12</f>
         <v>MEUR17</v>
       </c>
-      <c r="K16" s="104" t="str">
+      <c r="M16" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L16"/>
-      <c r="N16" s="135" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O16" s="141">
-        <f>XCHG_rates!C10*O12</f>
+      <c r="N16"/>
+      <c r="P16" s="135" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q16" s="141">
+        <f>XCHG_rates!C10*Q12</f>
         <v>7.1616599536136943E-2</v>
       </c>
-      <c r="P16" s="25">
-        <f>XCHG_rates!D10*P12</f>
+      <c r="R16" s="25">
+        <f>XCHG_rates!D10*R12</f>
         <v>9.1651640423700817E-2</v>
       </c>
-      <c r="Q16" s="25">
-        <f>XCHG_rates!E10*Q12</f>
+      <c r="S16" s="25">
+        <f>XCHG_rates!E10*S12</f>
         <v>9.8269499928457155E-2</v>
       </c>
-      <c r="R16" s="25">
-        <f>XCHG_rates!F10*R12</f>
+      <c r="T16" s="25">
+        <f>XCHG_rates!F10*T12</f>
         <v>9.465449029818214E-2</v>
       </c>
-      <c r="S16" s="25">
-        <f>XCHG_rates!G10*S12</f>
+      <c r="U16" s="25">
+        <f>XCHG_rates!G10*U12</f>
         <v>8.71979926336897E-2</v>
       </c>
-      <c r="T16" s="25">
-        <f>XCHG_rates!H10*T12</f>
+      <c r="V16" s="25">
+        <f>XCHG_rates!H10*V12</f>
         <v>7.4266036857875625E-2</v>
-      </c>
-      <c r="U16" s="25">
-        <f>XCHG_rates!$I$10*U12</f>
-        <v>8.1967729764408137E-2</v>
-      </c>
-      <c r="V16" s="25">
-        <f>XCHG_rates!$I$10*V12</f>
-        <v>9.526798127461733E-2</v>
       </c>
       <c r="W16" s="25">
         <f>XCHG_rates!$I$10*W12</f>
-        <v>0.10687584458931682</v>
+        <v>8.1967729764408137E-2</v>
       </c>
       <c r="X16" s="25">
         <f>XCHG_rates!$I$10*X12</f>
-        <v>0.10663041405509027</v>
+        <v>9.526798127461733E-2</v>
       </c>
       <c r="Y16" s="25">
         <f>XCHG_rates!$I$10*Y12</f>
-        <v>0.10769671819564118</v>
+        <v>0.10687584458931682</v>
       </c>
       <c r="Z16" s="25">
         <f>XCHG_rates!$I$10*Z12</f>
-        <v>0.10985065255955401</v>
+        <v>0.10663041405509027</v>
       </c>
       <c r="AA16" s="25">
         <f>XCHG_rates!$I$10*AA12</f>
-        <v>0.11204766561074508</v>
+        <v>0.10769671819564118</v>
       </c>
       <c r="AB16" s="25">
         <f>XCHG_rates!$I$10*AB12</f>
-        <v>0.11428861892295997</v>
+        <v>0.10985065255955401</v>
       </c>
       <c r="AC16" s="25">
         <f>XCHG_rates!$I$10*AC12</f>
-        <v>0.11657439130141918</v>
+        <v>0.11204766561074508</v>
       </c>
       <c r="AD16" s="25">
         <f>XCHG_rates!$I$10*AD12</f>
-        <v>0.11890587912744756</v>
+        <v>0.11428861892295997</v>
       </c>
       <c r="AE16" s="25">
         <f>XCHG_rates!$I$10*AE12</f>
-        <v>0.12128399670999652</v>
+        <v>0.11657439130141918</v>
       </c>
       <c r="AF16" s="25">
         <f>XCHG_rates!$I$10*AF12</f>
-        <v>0.12370967664419645</v>
+        <v>0.11890587912744756</v>
       </c>
       <c r="AG16" s="25">
         <f>XCHG_rates!$I$10*AG12</f>
-        <v>0.12618387017708038</v>
+        <v>0.12128399670999652</v>
       </c>
       <c r="AH16" s="25">
         <f>XCHG_rates!$I$10*AH12</f>
-        <v>0.128707547580622</v>
+        <v>0.12370967664419645</v>
       </c>
       <c r="AI16" s="25">
         <f>XCHG_rates!$I$10*AI12</f>
-        <v>0.13128169853223443</v>
+        <v>0.12618387017708038</v>
       </c>
       <c r="AJ16" s="25">
         <f>XCHG_rates!$I$10*AJ12</f>
-        <v>0.13390733250287912</v>
+        <v>0.128707547580622</v>
       </c>
       <c r="AK16" s="25">
         <f>XCHG_rates!$I$10*AK12</f>
-        <v>0.1365854791529367</v>
+        <v>0.13128169853223443</v>
       </c>
       <c r="AL16" s="25">
         <f>XCHG_rates!$I$10*AL12</f>
-        <v>0.13931718873599547</v>
+        <v>0.13390733250287912</v>
       </c>
       <c r="AM16" s="25">
         <f>XCHG_rates!$I$10*AM12</f>
-        <v>0.14210353251071536</v>
+        <v>0.1365854791529367</v>
       </c>
       <c r="AN16" s="25">
         <f>XCHG_rates!$I$10*AN12</f>
-        <v>0.14494560316092969</v>
+        <v>0.13931718873599547</v>
       </c>
       <c r="AO16" s="25">
         <f>XCHG_rates!$I$10*AO12</f>
-        <v>0.14784451522414829</v>
+        <v>0.14210353251071536</v>
       </c>
       <c r="AP16" s="25">
         <f>XCHG_rates!$I$10*AP12</f>
-        <v>0.15080140552863125</v>
+        <v>0.14494560316092969</v>
       </c>
       <c r="AQ16" s="25">
         <f>XCHG_rates!$I$10*AQ12</f>
-        <v>0.15381743363920389</v>
+        <v>0.14784451522414829</v>
       </c>
       <c r="AR16" s="25">
         <f>XCHG_rates!$I$10*AR12</f>
-        <v>0.15689378231198797</v>
+        <v>0.15080140552863125</v>
       </c>
       <c r="AS16" s="25">
         <f>XCHG_rates!$I$10*AS12</f>
-        <v>0.16003165795822774</v>
+        <v>0.15381743363920389</v>
       </c>
       <c r="AT16" s="25">
         <f>XCHG_rates!$I$10*AT12</f>
-        <v>0.16323229111739229</v>
+        <v>0.15689378231198797</v>
       </c>
       <c r="AU16" s="25">
         <f>XCHG_rates!$I$10*AU12</f>
-        <v>0.16649693693974016</v>
+        <v>0.16003165795822774</v>
       </c>
       <c r="AV16" s="25">
         <f>XCHG_rates!$I$10*AV12</f>
-        <v>0.16982687567853497</v>
+        <v>0.16323229111739229</v>
       </c>
       <c r="AW16" s="25">
         <f>XCHG_rates!$I$10*AW12</f>
-        <v>0.17322341319210566</v>
+        <v>0.16649693693974016</v>
       </c>
       <c r="AX16" s="25">
         <f>XCHG_rates!$I$10*AX12</f>
-        <v>0.17668788145594777</v>
+        <v>0.16982687567853497</v>
       </c>
       <c r="AY16" s="25">
         <f>XCHG_rates!$I$10*AY12</f>
-        <v>0.18022163908506672</v>
+        <v>0.17322341319210566</v>
       </c>
       <c r="AZ16" s="25">
         <f>XCHG_rates!$I$10*AZ12</f>
-        <v>0.18382607186676808</v>
+        <v>0.17668788145594777</v>
       </c>
       <c r="BA16" s="25">
         <f>XCHG_rates!$I$10*BA12</f>
-        <v>0.18750259330410343</v>
+        <v>0.18022163908506672</v>
       </c>
       <c r="BB16" s="25">
         <f>XCHG_rates!$I$10*BB12</f>
+        <v>0.18382607186676808</v>
+      </c>
+      <c r="BC16" s="25">
+        <f>XCHG_rates!$I$10*BC12</f>
+        <v>0.18750259330410343</v>
+      </c>
+      <c r="BD16" s="25">
+        <f>XCHG_rates!$I$10*BD12</f>
         <v>0.19125264517018553</v>
       </c>
-      <c r="BC16" s="26">
-        <f>XCHG_rates!$I$10*BC12</f>
+      <c r="BE16" s="26">
+        <f>XCHG_rates!$I$10*BE12</f>
         <v>0.19507769807358924</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="104"/>
       <c r="C17" s="67" t="s">
         <v>78</v>
@@ -7384,184 +7405,186 @@
       <c r="G17" s="104"/>
       <c r="H17" s="104"/>
       <c r="I17" s="104"/>
-      <c r="J17" s="104" t="str">
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104" t="str">
         <f>Defaults!B13</f>
         <v>MEUR18</v>
       </c>
-      <c r="K17" s="104" t="str">
+      <c r="M17" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L17"/>
-      <c r="N17" s="147" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O17" s="148">
-        <f>XCHG_rates!C9*O12</f>
+      <c r="N17"/>
+      <c r="P17" s="147" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q17" s="148">
+        <f>XCHG_rates!C9*Q12</f>
         <v>6.0102368152571709E-2</v>
       </c>
-      <c r="P17" s="27">
-        <f>XCHG_rates!D9*P12</f>
+      <c r="R17" s="27">
+        <f>XCHG_rates!D9*R12</f>
         <v>7.9101615425186927E-2</v>
       </c>
-      <c r="Q17" s="27">
-        <f>XCHG_rates!E9*Q12</f>
+      <c r="S17" s="27">
+        <f>XCHG_rates!E9*S12</f>
         <v>8.4419109835135911E-2</v>
       </c>
-      <c r="R17" s="27">
-        <f>XCHG_rates!F9*R12</f>
+      <c r="T17" s="27">
+        <f>XCHG_rates!F9*T12</f>
         <v>8.5315743679302045E-2</v>
       </c>
-      <c r="S17" s="27">
-        <f>XCHG_rates!G9*S12</f>
+      <c r="U17" s="27">
+        <f>XCHG_rates!G9*U12</f>
         <v>8.0040675398849209E-2</v>
       </c>
-      <c r="T17" s="27">
-        <f>XCHG_rates!H9*T12</f>
+      <c r="V17" s="27">
+        <f>XCHG_rates!H9*V12</f>
         <v>7.0965773558535908E-2</v>
-      </c>
-      <c r="U17" s="27">
-        <f>XCHG_rates!$I$9*U12</f>
-        <v>8.0365955897416741E-2</v>
-      </c>
-      <c r="V17" s="27">
-        <f>XCHG_rates!$I$9*V12</f>
-        <v>9.3406300303272807E-2</v>
       </c>
       <c r="W17" s="27">
         <f>XCHG_rates!$I$9*W12</f>
-        <v>0.10478732834801259</v>
+        <v>8.0365955897416741E-2</v>
       </c>
       <c r="X17" s="27">
         <f>XCHG_rates!$I$9*X12</f>
-        <v>0.10454669389898953</v>
+        <v>9.3406300303272807E-2</v>
       </c>
       <c r="Y17" s="27">
         <f>XCHG_rates!$I$9*Y12</f>
-        <v>0.10559216083797943</v>
+        <v>0.10478732834801259</v>
       </c>
       <c r="Z17" s="27">
         <f>XCHG_rates!$I$9*Z12</f>
-        <v>0.10770400405473901</v>
+        <v>0.10454669389898953</v>
       </c>
       <c r="AA17" s="27">
         <f>XCHG_rates!$I$9*AA12</f>
-        <v>0.10985808413583378</v>
+        <v>0.10559216083797943</v>
       </c>
       <c r="AB17" s="27">
         <f>XCHG_rates!$I$9*AB12</f>
-        <v>0.11205524581855046</v>
+        <v>0.10770400405473901</v>
       </c>
       <c r="AC17" s="27">
         <f>XCHG_rates!$I$9*AC12</f>
-        <v>0.11429635073492148</v>
+        <v>0.10985808413583378</v>
       </c>
       <c r="AD17" s="27">
         <f>XCHG_rates!$I$9*AD12</f>
-        <v>0.11658227774961991</v>
+        <v>0.11205524581855046</v>
       </c>
       <c r="AE17" s="27">
         <f>XCHG_rates!$I$9*AE12</f>
-        <v>0.11891392330461231</v>
+        <v>0.11429635073492148</v>
       </c>
       <c r="AF17" s="27">
         <f>XCHG_rates!$I$9*AF12</f>
-        <v>0.12129220177070454</v>
+        <v>0.11658227774961991</v>
       </c>
       <c r="AG17" s="27">
         <f>XCHG_rates!$I$9*AG12</f>
-        <v>0.12371804580611866</v>
+        <v>0.11891392330461231</v>
       </c>
       <c r="AH17" s="27">
         <f>XCHG_rates!$I$9*AH12</f>
-        <v>0.12619240672224102</v>
+        <v>0.12129220177070454</v>
       </c>
       <c r="AI17" s="27">
         <f>XCHG_rates!$I$9*AI12</f>
-        <v>0.12871625485668584</v>
+        <v>0.12371804580611866</v>
       </c>
       <c r="AJ17" s="27">
         <f>XCHG_rates!$I$9*AJ12</f>
-        <v>0.13129057995381957</v>
+        <v>0.12619240672224102</v>
       </c>
       <c r="AK17" s="27">
         <f>XCHG_rates!$I$9*AK12</f>
-        <v>0.13391639155289595</v>
+        <v>0.12871625485668584</v>
       </c>
       <c r="AL17" s="27">
         <f>XCHG_rates!$I$9*AL12</f>
-        <v>0.1365947193839539</v>
+        <v>0.13129057995381957</v>
       </c>
       <c r="AM17" s="27">
         <f>XCHG_rates!$I$9*AM12</f>
-        <v>0.13932661377163297</v>
+        <v>0.13391639155289595</v>
       </c>
       <c r="AN17" s="27">
         <f>XCHG_rates!$I$9*AN12</f>
-        <v>0.14211314604706565</v>
+        <v>0.1365947193839539</v>
       </c>
       <c r="AO17" s="27">
         <f>XCHG_rates!$I$9*AO12</f>
-        <v>0.14495540896800696</v>
+        <v>0.13932661377163297</v>
       </c>
       <c r="AP17" s="27">
         <f>XCHG_rates!$I$9*AP12</f>
-        <v>0.14785451714736711</v>
+        <v>0.14211314604706565</v>
       </c>
       <c r="AQ17" s="27">
         <f>XCHG_rates!$I$9*AQ12</f>
-        <v>0.15081160749031444</v>
+        <v>0.14495540896800696</v>
       </c>
       <c r="AR17" s="27">
         <f>XCHG_rates!$I$9*AR12</f>
-        <v>0.15382783964012073</v>
+        <v>0.14785451714736711</v>
       </c>
       <c r="AS17" s="27">
         <f>XCHG_rates!$I$9*AS12</f>
-        <v>0.15690439643292317</v>
+        <v>0.15081160749031444</v>
       </c>
       <c r="AT17" s="27">
         <f>XCHG_rates!$I$9*AT12</f>
-        <v>0.16004248436158164</v>
+        <v>0.15382783964012073</v>
       </c>
       <c r="AU17" s="27">
         <f>XCHG_rates!$I$9*AU12</f>
-        <v>0.16324333404881328</v>
+        <v>0.15690439643292317</v>
       </c>
       <c r="AV17" s="27">
         <f>XCHG_rates!$I$9*AV12</f>
-        <v>0.16650820072978956</v>
+        <v>0.16004248436158164</v>
       </c>
       <c r="AW17" s="27">
         <f>XCHG_rates!$I$9*AW12</f>
-        <v>0.16983836474438535</v>
+        <v>0.16324333404881328</v>
       </c>
       <c r="AX17" s="27">
         <f>XCHG_rates!$I$9*AX12</f>
-        <v>0.17323513203927304</v>
+        <v>0.16650820072978956</v>
       </c>
       <c r="AY17" s="27">
         <f>XCHG_rates!$I$9*AY12</f>
-        <v>0.17669983468005851</v>
+        <v>0.16983836474438535</v>
       </c>
       <c r="AZ17" s="27">
         <f>XCHG_rates!$I$9*AZ12</f>
-        <v>0.18023383137365967</v>
+        <v>0.17323513203927304</v>
       </c>
       <c r="BA17" s="27">
         <f>XCHG_rates!$I$9*BA12</f>
-        <v>0.18383850800113288</v>
+        <v>0.17669983468005851</v>
       </c>
       <c r="BB17" s="27">
         <f>XCHG_rates!$I$9*BB12</f>
+        <v>0.18023383137365967</v>
+      </c>
+      <c r="BC17" s="27">
+        <f>XCHG_rates!$I$9*BC12</f>
+        <v>0.18383850800113288</v>
+      </c>
+      <c r="BD17" s="27">
+        <f>XCHG_rates!$I$9*BD12</f>
         <v>0.18751527816115557</v>
       </c>
-      <c r="BC17" s="28">
-        <f>XCHG_rates!$I$9*BC12</f>
+      <c r="BE17" s="28">
+        <f>XCHG_rates!$I$9*BE12</f>
         <v>0.19126558372437868</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="104"/>
       <c r="C18" s="67" t="s">
         <v>78</v>
@@ -7574,18 +7597,18 @@
       <c r="G18" s="104"/>
       <c r="H18" s="104"/>
       <c r="I18" s="104"/>
-      <c r="J18" s="104" t="str">
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104" t="str">
         <f>Defaults!B14</f>
         <v>MEUR19</v>
       </c>
-      <c r="K18" s="104" t="str">
+      <c r="M18" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L18"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="N18"/>
+      <c r="P18" s="29"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -7596,8 +7619,8 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
@@ -7625,32 +7648,34 @@
       <c r="BA18"/>
       <c r="BB18"/>
       <c r="BC18"/>
-    </row>
-    <row r="19" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD18"/>
+      <c r="BE18"/>
+    </row>
+    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="99"/>
       <c r="C19" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="102" cm="1">
-        <f t="array" ref="E19:E29">TRANSPOSE(O15:Y15)</f>
+        <f t="array" ref="E19:E29">TRANSPOSE(Q15:AA15)</f>
         <v>7.697378862471578E-2</v>
       </c>
       <c r="F19" s="102"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99" t="s">
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="103" t="str">
+      <c r="M19" s="103" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L19"/>
-      <c r="N19" s="36"/>
-      <c r="O19"/>
-      <c r="P19"/>
+      <c r="N19"/>
+      <c r="P19" s="36"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -7690,8 +7715,10 @@
       <c r="BA19"/>
       <c r="BB19"/>
       <c r="BC19"/>
-    </row>
-    <row r="20" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD19"/>
+      <c r="BE19"/>
+    </row>
+    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="99"/>
       <c r="C20" s="67" t="s">
         <v>78</v>
@@ -7703,20 +7730,20 @@
       <c r="F20" s="102"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99" t="s">
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="104" t="str">
+      <c r="M20" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L20"/>
-      <c r="N20" s="37" t="s">
+      <c r="N20"/>
+      <c r="P20" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
       <c r="Q20" s="116"/>
       <c r="R20" s="116"/>
       <c r="S20" s="116"/>
@@ -7725,8 +7752,8 @@
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="116"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
@@ -7756,8 +7783,10 @@
       <c r="BA20"/>
       <c r="BB20"/>
       <c r="BC20"/>
-    </row>
-    <row r="21" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD20"/>
+      <c r="BE20"/>
+    </row>
+    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="99"/>
       <c r="C21" s="67" t="s">
         <v>78</v>
@@ -7769,27 +7798,27 @@
       <c r="F21" s="102"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99" t="s">
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="104" t="str">
+      <c r="M21" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L21"/>
-      <c r="N21" s="119">
+      <c r="N21"/>
+      <c r="P21" s="119">
         <v>44351</v>
       </c>
-      <c r="O21" s="128" t="s">
+      <c r="Q21" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="127" t="s">
-        <v>985</v>
-      </c>
-      <c r="Q21" s="54"/>
-      <c r="R21"/>
-      <c r="S21"/>
+      <c r="R21" s="127" t="s">
+        <v>982</v>
+      </c>
+      <c r="S21" s="54"/>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
@@ -7826,8 +7855,10 @@
       <c r="BA21"/>
       <c r="BB21"/>
       <c r="BC21"/>
-    </row>
-    <row r="22" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BD21"/>
+      <c r="BE21"/>
+    </row>
+    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99"/>
       <c r="C22" s="67" t="s">
         <v>78</v>
@@ -7839,21 +7870,21 @@
       <c r="F22" s="102"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99" t="s">
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="104" t="str">
+      <c r="M22" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L22"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+      <c r="N22"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22"/>
       <c r="T22" s="30"/>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
@@ -7889,9 +7920,11 @@
       <c r="AZ22" s="30"/>
       <c r="BA22" s="30"/>
       <c r="BB22" s="30"/>
-      <c r="BC22"/>
-    </row>
-    <row r="23" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22"/>
+    </row>
+    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="104"/>
       <c r="C23" s="105" t="s">
         <v>78</v>
@@ -7903,20 +7936,22 @@
       <c r="F23" s="106"/>
       <c r="G23" s="106"/>
       <c r="H23" s="106"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104" t="s">
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="104" t="str">
+      <c r="M23" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L23"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-    </row>
-    <row r="24" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="104"/>
       <c r="C24" s="105" t="s">
@@ -7929,18 +7964,20 @@
       <c r="F24" s="106"/>
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104" t="s">
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104" t="s">
         <v>946</v>
       </c>
-      <c r="K24" s="104" t="str">
+      <c r="M24" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L24"/>
-      <c r="N24" s="113"/>
-    </row>
-    <row r="25" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24"/>
+      <c r="P24" s="113"/>
+    </row>
+    <row r="25" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="104"/>
       <c r="C25" s="105" t="s">
@@ -7953,21 +7990,23 @@
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
       <c r="H25" s="106"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="107" t="s">
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="107" t="s">
         <v>944</v>
       </c>
-      <c r="K25" s="104" t="str">
+      <c r="M25" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L25"/>
-      <c r="R25" s="121" t="s">
-        <v>984</v>
-      </c>
-      <c r="S25" s="54"/>
-    </row>
-    <row r="26" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25"/>
+      <c r="T25" s="121" t="s">
+        <v>981</v>
+      </c>
+      <c r="U25" s="54"/>
+    </row>
+    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="104"/>
       <c r="C26" s="105" t="s">
         <v>78</v>
@@ -7979,23 +8018,25 @@
       <c r="F26" s="106"/>
       <c r="G26" s="106"/>
       <c r="H26" s="106"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="107" t="s">
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="107" t="s">
         <v>945</v>
       </c>
-      <c r="K26" s="104" t="str">
+      <c r="M26" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L26"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="121"/>
+      <c r="N26"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
       <c r="S26" s="54"/>
-    </row>
-    <row r="27" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T26" s="121"/>
+      <c r="U26" s="54"/>
+    </row>
+    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="104"/>
       <c r="C27" s="105" t="s">
         <v>78</v>
@@ -8007,23 +8048,25 @@
       <c r="F27" s="106"/>
       <c r="G27" s="106"/>
       <c r="H27" s="106"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="107" t="s">
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="107" t="s">
         <v>962</v>
       </c>
-      <c r="K27" s="104" t="str">
+      <c r="M27" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L27"/>
-      <c r="N27" s="20" t="s">
+      <c r="N27"/>
+      <c r="P27" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="62" t="s">
+      <c r="Q27" s="62" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B28" s="104"/>
       <c r="C28" s="105" t="s">
         <v>78</v>
@@ -8035,185 +8078,187 @@
       <c r="F28" s="106"/>
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="107" t="s">
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="107" t="s">
         <v>963</v>
       </c>
-      <c r="K28" s="104" t="str">
+      <c r="M28" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L28"/>
-      <c r="N28" s="56">
-        <f t="shared" ref="N28:BC28" si="5">N10</f>
+      <c r="N28"/>
+      <c r="P28" s="56">
+        <f t="shared" ref="P28:BE28" si="5">P10</f>
         <v>0</v>
       </c>
-      <c r="O28" s="56">
+      <c r="Q28" s="56">
         <f t="shared" si="5"/>
         <v>2010</v>
       </c>
-      <c r="P28" s="56">
+      <c r="R28" s="56">
         <f t="shared" si="5"/>
         <v>2011</v>
       </c>
-      <c r="Q28" s="56">
+      <c r="S28" s="56">
         <f t="shared" si="5"/>
         <v>2012</v>
       </c>
-      <c r="R28" s="56">
+      <c r="T28" s="56">
         <f t="shared" si="5"/>
         <v>2013</v>
       </c>
-      <c r="S28" s="56">
+      <c r="U28" s="56">
         <f t="shared" si="5"/>
         <v>2014</v>
       </c>
-      <c r="T28" s="56">
+      <c r="V28" s="56">
         <f t="shared" si="5"/>
         <v>2015</v>
       </c>
-      <c r="U28" s="56">
+      <c r="W28" s="56">
         <f t="shared" si="5"/>
         <v>2016</v>
       </c>
-      <c r="V28" s="56">
+      <c r="X28" s="56">
         <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="W28" s="56">
+      <c r="Y28" s="56">
         <f t="shared" si="5"/>
         <v>2018</v>
       </c>
-      <c r="X28" s="56">
+      <c r="Z28" s="56">
         <f t="shared" si="5"/>
         <v>2019</v>
       </c>
-      <c r="Y28" s="56">
+      <c r="AA28" s="56">
         <f t="shared" si="5"/>
         <v>2020</v>
       </c>
-      <c r="Z28" s="56">
+      <c r="AB28" s="56">
         <f t="shared" si="5"/>
         <v>2021</v>
       </c>
-      <c r="AA28" s="56">
+      <c r="AC28" s="56">
         <f t="shared" si="5"/>
         <v>2022</v>
       </c>
-      <c r="AB28" s="56">
+      <c r="AD28" s="56">
         <f t="shared" si="5"/>
         <v>2023</v>
       </c>
-      <c r="AC28" s="56">
+      <c r="AE28" s="56">
         <f t="shared" si="5"/>
         <v>2024</v>
       </c>
-      <c r="AD28" s="56">
+      <c r="AF28" s="56">
         <f t="shared" si="5"/>
         <v>2025</v>
       </c>
-      <c r="AE28" s="56">
+      <c r="AG28" s="56">
         <f t="shared" si="5"/>
         <v>2026</v>
       </c>
-      <c r="AF28" s="56">
+      <c r="AH28" s="56">
         <f t="shared" si="5"/>
         <v>2027</v>
       </c>
-      <c r="AG28" s="56">
+      <c r="AI28" s="56">
         <f t="shared" si="5"/>
         <v>2028</v>
       </c>
-      <c r="AH28" s="56">
+      <c r="AJ28" s="56">
         <f t="shared" si="5"/>
         <v>2029</v>
       </c>
-      <c r="AI28" s="56">
+      <c r="AK28" s="56">
         <f t="shared" si="5"/>
         <v>2030</v>
       </c>
-      <c r="AJ28" s="56">
+      <c r="AL28" s="56">
         <f t="shared" si="5"/>
         <v>2031</v>
       </c>
-      <c r="AK28" s="56">
+      <c r="AM28" s="56">
         <f t="shared" si="5"/>
         <v>2032</v>
       </c>
-      <c r="AL28" s="56">
+      <c r="AN28" s="56">
         <f t="shared" si="5"/>
         <v>2033</v>
       </c>
-      <c r="AM28" s="56">
+      <c r="AO28" s="56">
         <f t="shared" si="5"/>
         <v>2034</v>
       </c>
-      <c r="AN28" s="56">
+      <c r="AP28" s="56">
         <f t="shared" si="5"/>
         <v>2035</v>
       </c>
-      <c r="AO28" s="56">
+      <c r="AQ28" s="56">
         <f t="shared" si="5"/>
         <v>2036</v>
       </c>
-      <c r="AP28" s="56">
+      <c r="AR28" s="56">
         <f t="shared" si="5"/>
         <v>2037</v>
       </c>
-      <c r="AQ28" s="56">
+      <c r="AS28" s="56">
         <f t="shared" si="5"/>
         <v>2038</v>
       </c>
-      <c r="AR28" s="56">
+      <c r="AT28" s="56">
         <f t="shared" si="5"/>
         <v>2039</v>
       </c>
-      <c r="AS28" s="56">
+      <c r="AU28" s="56">
         <f t="shared" si="5"/>
         <v>2040</v>
       </c>
-      <c r="AT28" s="56">
+      <c r="AV28" s="56">
         <f t="shared" si="5"/>
         <v>2041</v>
       </c>
-      <c r="AU28" s="56">
+      <c r="AW28" s="56">
         <f t="shared" si="5"/>
         <v>2042</v>
       </c>
-      <c r="AV28" s="56">
+      <c r="AX28" s="56">
         <f t="shared" si="5"/>
         <v>2043</v>
       </c>
-      <c r="AW28" s="56">
+      <c r="AY28" s="56">
         <f t="shared" si="5"/>
         <v>2044</v>
       </c>
-      <c r="AX28" s="56">
+      <c r="AZ28" s="56">
         <f t="shared" si="5"/>
         <v>2045</v>
       </c>
-      <c r="AY28" s="56">
+      <c r="BA28" s="56">
         <f t="shared" si="5"/>
         <v>2046</v>
       </c>
-      <c r="AZ28" s="56">
+      <c r="BB28" s="56">
         <f t="shared" si="5"/>
         <v>2047</v>
       </c>
-      <c r="BA28" s="56">
+      <c r="BC28" s="56">
         <f t="shared" si="5"/>
         <v>2048</v>
       </c>
-      <c r="BB28" s="56">
+      <c r="BD28" s="56">
         <f t="shared" si="5"/>
         <v>2049</v>
       </c>
-      <c r="BC28" s="56">
+      <c r="BE28" s="56">
         <f t="shared" si="5"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:58" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="100"/>
       <c r="C29" s="101" t="s">
@@ -8226,188 +8271,190 @@
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
       <c r="H29" s="108"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="109" t="s">
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="109" t="s">
         <v>964</v>
       </c>
-      <c r="K29" s="100" t="str">
+      <c r="M29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L29" s="41"/>
-      <c r="N29" s="56" t="str">
-        <f t="shared" ref="N29:BC29" si="6">N11</f>
+      <c r="N29" s="41"/>
+      <c r="P29" s="56" t="str">
+        <f t="shared" ref="P29:BE29" si="6">P11</f>
         <v>PYF (BVT-Deflator)</v>
       </c>
-      <c r="O29" s="60">
+      <c r="Q29" s="60">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P29" s="60">
+      <c r="R29" s="60">
         <f t="shared" si="6"/>
         <v>1.246069500302329</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="S29" s="60">
         <f t="shared" si="6"/>
         <v>1.2815199604853424</v>
       </c>
-      <c r="R29" s="60">
+      <c r="T29" s="60">
         <f t="shared" si="6"/>
         <v>1.2868147403489156</v>
       </c>
-      <c r="S29" s="60">
+      <c r="U29" s="60">
         <f t="shared" si="6"/>
         <v>1.2696974737553699</v>
       </c>
-      <c r="T29" s="60">
+      <c r="V29" s="60">
         <f t="shared" si="6"/>
         <v>1.1578420079704261</v>
       </c>
-      <c r="U29" s="60">
+      <c r="W29" s="60">
         <f t="shared" si="6"/>
         <v>1.3272150619974525</v>
       </c>
-      <c r="V29" s="60">
+      <c r="X29" s="60">
         <f t="shared" si="6"/>
         <v>1.5425716929965085</v>
       </c>
-      <c r="W29" s="60">
+      <c r="Y29" s="60">
         <f t="shared" si="6"/>
         <v>1.7305253068535371</v>
       </c>
-      <c r="X29" s="60">
+      <c r="Z29" s="60">
         <f t="shared" si="6"/>
         <v>1.7265513148613738</v>
       </c>
-      <c r="Y29" s="60">
+      <c r="AA29" s="60">
         <f t="shared" si="6"/>
         <v>1.7438168280099875</v>
       </c>
-      <c r="Z29" s="60">
+      <c r="AB29" s="60">
         <f t="shared" si="6"/>
         <v>1.7786931645701873</v>
       </c>
-      <c r="AA29" s="60">
+      <c r="AC29" s="60">
         <f t="shared" si="6"/>
         <v>1.8142670278615911</v>
       </c>
-      <c r="AB29" s="60">
+      <c r="AD29" s="60">
         <f t="shared" si="6"/>
         <v>1.850552368418823</v>
       </c>
-      <c r="AC29" s="60">
+      <c r="AE29" s="60">
         <f t="shared" si="6"/>
         <v>1.8875634157871994</v>
       </c>
-      <c r="AD29" s="60">
+      <c r="AF29" s="60">
         <f t="shared" si="6"/>
         <v>1.9253146841029434</v>
       </c>
-      <c r="AE29" s="60">
+      <c r="AG29" s="60">
         <f t="shared" si="6"/>
         <v>1.9638209777850022</v>
       </c>
-      <c r="AF29" s="60">
+      <c r="AH29" s="60">
         <f t="shared" si="6"/>
         <v>2.0030973973407025</v>
       </c>
-      <c r="AG29" s="60">
+      <c r="AI29" s="60">
         <f t="shared" si="6"/>
         <v>2.0431593452875165</v>
       </c>
-      <c r="AH29" s="60">
+      <c r="AJ29" s="60">
         <f t="shared" si="6"/>
         <v>2.0840225321932668</v>
       </c>
-      <c r="AI29" s="60">
+      <c r="AK29" s="60">
         <f t="shared" si="6"/>
         <v>2.1257029828371321</v>
       </c>
-      <c r="AJ29" s="60">
+      <c r="AL29" s="60">
         <f t="shared" si="6"/>
         <v>2.1682170424938749</v>
       </c>
-      <c r="AK29" s="60">
+      <c r="AM29" s="60">
         <f t="shared" si="6"/>
         <v>2.2115813833437525</v>
       </c>
-      <c r="AL29" s="60">
+      <c r="AN29" s="60">
         <f t="shared" si="6"/>
         <v>2.2558130110106278</v>
       </c>
-      <c r="AM29" s="60">
+      <c r="AO29" s="60">
         <f t="shared" si="6"/>
         <v>2.3009292712308405</v>
       </c>
-      <c r="AN29" s="60">
+      <c r="AP29" s="60">
         <f t="shared" si="6"/>
         <v>2.3469478566554574</v>
       </c>
-      <c r="AO29" s="60">
+      <c r="AQ29" s="60">
         <f t="shared" si="6"/>
         <v>2.3938868137885665</v>
       </c>
-      <c r="AP29" s="60">
+      <c r="AR29" s="60">
         <f t="shared" si="6"/>
         <v>2.4417645500643377</v>
       </c>
-      <c r="AQ29" s="60">
+      <c r="AS29" s="60">
         <f t="shared" si="6"/>
         <v>2.4905998410656243</v>
       </c>
-      <c r="AR29" s="60">
+      <c r="AT29" s="60">
         <f t="shared" si="6"/>
         <v>2.5404118378869369</v>
       </c>
-      <c r="AS29" s="60">
+      <c r="AU29" s="60">
         <f t="shared" si="6"/>
         <v>2.5912200746446756</v>
       </c>
-      <c r="AT29" s="60">
+      <c r="AV29" s="60">
         <f t="shared" si="6"/>
         <v>2.6430444761375691</v>
       </c>
-      <c r="AU29" s="60">
+      <c r="AW29" s="60">
         <f t="shared" si="6"/>
         <v>2.6959053656603205</v>
       </c>
-      <c r="AV29" s="60">
+      <c r="AX29" s="60">
         <f t="shared" si="6"/>
         <v>2.7498234729735271</v>
       </c>
-      <c r="AW29" s="60">
+      <c r="AY29" s="60">
         <f t="shared" si="6"/>
         <v>2.8048199424329976</v>
       </c>
-      <c r="AX29" s="60">
+      <c r="AZ29" s="60">
         <f t="shared" si="6"/>
         <v>2.8609163412816576</v>
       </c>
-      <c r="AY29" s="60">
+      <c r="BA29" s="60">
         <f t="shared" si="6"/>
         <v>2.9181346681072906</v>
       </c>
-      <c r="AZ29" s="60">
+      <c r="BB29" s="60">
         <f t="shared" si="6"/>
         <v>2.9764973614694363</v>
       </c>
-      <c r="BA29" s="60">
+      <c r="BC29" s="60">
         <f t="shared" si="6"/>
         <v>3.036027308698825</v>
       </c>
-      <c r="BB29" s="60">
+      <c r="BD29" s="60">
         <f t="shared" si="6"/>
         <v>3.0967478548728016</v>
       </c>
-      <c r="BC29" s="60">
+      <c r="BE29" s="60">
         <f t="shared" si="6"/>
         <v>3.1586828119702575</v>
       </c>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
       <c r="BF29" s="56"/>
-    </row>
-    <row r="30" spans="1:58" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+    </row>
+    <row r="30" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="99"/>
       <c r="C30" s="67" t="s">
@@ -8415,194 +8462,196 @@
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="102" cm="1">
-        <f t="array" ref="E30:E35">TRANSPOSE(O17:T17)</f>
+        <f t="array" ref="E30:E35">TRANSPOSE(Q17:V17)</f>
         <v>6.0102368152571709E-2</v>
       </c>
       <c r="F30" s="102"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99" t="s">
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99" t="s">
         <v>938</v>
       </c>
-      <c r="K30" s="103" t="str">
+      <c r="M30" s="103" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L30" s="41"/>
-      <c r="N30" s="56" t="str">
-        <f t="shared" ref="N30:BC30" si="7">N12</f>
+      <c r="N30" s="41"/>
+      <c r="P30" s="56" t="str">
+        <f t="shared" ref="P30:BE30" si="7">P12</f>
         <v>BVT for price year</v>
       </c>
-      <c r="O30" s="60">
+      <c r="Q30" s="60">
         <f t="shared" si="7"/>
         <v>0.57345472525413244</v>
       </c>
-      <c r="P30" s="60">
+      <c r="R30" s="60">
         <f t="shared" si="7"/>
         <v>0.71456444294342614</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="S30" s="60">
         <f t="shared" si="7"/>
         <v>0.7348936768478086</v>
       </c>
-      <c r="R30" s="60">
+      <c r="T30" s="60">
         <f t="shared" si="7"/>
         <v>0.73792999337975507</v>
       </c>
-      <c r="S30" s="60">
+      <c r="U30" s="60">
         <f t="shared" si="7"/>
         <v>0.72811401596825154</v>
       </c>
-      <c r="T30" s="60">
+      <c r="V30" s="60">
         <f t="shared" si="7"/>
         <v>0.6639699705683737</v>
       </c>
-      <c r="U30" s="60">
+      <c r="W30" s="60">
         <f t="shared" si="7"/>
         <v>0.76109774873089542</v>
       </c>
-      <c r="V30" s="60">
+      <c r="X30" s="60">
         <f t="shared" si="7"/>
         <v>0.88459502639211474</v>
       </c>
-      <c r="W30" s="60">
+      <c r="Y30" s="60">
         <f t="shared" si="7"/>
         <v>0.99237791438701839</v>
       </c>
-      <c r="X30" s="60">
+      <c r="Z30" s="60">
         <f t="shared" si="7"/>
         <v>0.99009900990099031</v>
       </c>
-      <c r="Y30" s="60">
+      <c r="AA30" s="60">
         <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Z30" s="60">
+      <c r="AB30" s="60">
         <f t="shared" si="7"/>
         <v>1.0200000000000002</v>
       </c>
-      <c r="AA30" s="60">
+      <c r="AC30" s="60">
         <f t="shared" si="7"/>
         <v>1.0404000000000002</v>
       </c>
-      <c r="AB30" s="60">
+      <c r="AD30" s="60">
         <f t="shared" si="7"/>
         <v>1.0612080000000002</v>
       </c>
-      <c r="AC30" s="60">
+      <c r="AE30" s="60">
         <f t="shared" si="7"/>
         <v>1.0824321600000002</v>
       </c>
-      <c r="AD30" s="60">
+      <c r="AF30" s="60">
         <f t="shared" si="7"/>
         <v>1.1040808032000002</v>
       </c>
-      <c r="AE30" s="60">
+      <c r="AG30" s="60">
         <f t="shared" si="7"/>
         <v>1.1261624192640003</v>
       </c>
-      <c r="AF30" s="60">
+      <c r="AH30" s="60">
         <f t="shared" si="7"/>
         <v>1.1486856676492803</v>
       </c>
-      <c r="AG30" s="60">
+      <c r="AI30" s="60">
         <f t="shared" si="7"/>
         <v>1.171659381002266</v>
       </c>
-      <c r="AH30" s="60">
+      <c r="AJ30" s="60">
         <f t="shared" si="7"/>
         <v>1.1950925686223113</v>
       </c>
-      <c r="AI30" s="60">
+      <c r="AK30" s="60">
         <f t="shared" si="7"/>
         <v>1.2189944199947575</v>
       </c>
-      <c r="AJ30" s="60">
+      <c r="AL30" s="60">
         <f t="shared" si="7"/>
         <v>1.2433743083946527</v>
       </c>
-      <c r="AK30" s="60">
+      <c r="AM30" s="60">
         <f t="shared" si="7"/>
         <v>1.2682417945625457</v>
       </c>
-      <c r="AL30" s="60">
+      <c r="AN30" s="60">
         <f t="shared" si="7"/>
         <v>1.2936066304537968</v>
       </c>
-      <c r="AM30" s="60">
+      <c r="AO30" s="60">
         <f t="shared" si="7"/>
         <v>1.3194787630628728</v>
       </c>
-      <c r="AN30" s="60">
+      <c r="AP30" s="60">
         <f t="shared" si="7"/>
         <v>1.3458683383241303</v>
       </c>
-      <c r="AO30" s="60">
+      <c r="AQ30" s="60">
         <f t="shared" si="7"/>
         <v>1.3727857050906129</v>
       </c>
-      <c r="AP30" s="60">
+      <c r="AR30" s="60">
         <f t="shared" si="7"/>
         <v>1.4002414191924253</v>
       </c>
-      <c r="AQ30" s="60">
+      <c r="AS30" s="60">
         <f t="shared" si="7"/>
         <v>1.4282462475762738</v>
       </c>
-      <c r="AR30" s="60">
+      <c r="AT30" s="60">
         <f t="shared" si="7"/>
         <v>1.4568111725277992</v>
       </c>
-      <c r="AS30" s="60">
+      <c r="AU30" s="60">
         <f t="shared" si="7"/>
         <v>1.4859473959783553</v>
       </c>
-      <c r="AT30" s="60">
+      <c r="AV30" s="60">
         <f t="shared" si="7"/>
         <v>1.5156663438979225</v>
       </c>
-      <c r="AU30" s="60">
+      <c r="AW30" s="60">
         <f t="shared" si="7"/>
         <v>1.5459796707758811</v>
       </c>
-      <c r="AV30" s="60">
+      <c r="AX30" s="60">
         <f t="shared" si="7"/>
         <v>1.5768992641913988</v>
       </c>
-      <c r="AW30" s="60">
+      <c r="AY30" s="60">
         <f t="shared" si="7"/>
         <v>1.6084372494752268</v>
       </c>
-      <c r="AX30" s="60">
+      <c r="AZ30" s="60">
         <f t="shared" si="7"/>
         <v>1.6406059944647313</v>
       </c>
-      <c r="AY30" s="60">
+      <c r="BA30" s="60">
         <f t="shared" si="7"/>
         <v>1.6734181143540259</v>
       </c>
-      <c r="AZ30" s="60">
+      <c r="BB30" s="60">
         <f t="shared" si="7"/>
         <v>1.7068864766411065</v>
       </c>
-      <c r="BA30" s="60">
+      <c r="BC30" s="60">
         <f t="shared" si="7"/>
         <v>1.7410242061739287</v>
       </c>
-      <c r="BB30" s="60">
+      <c r="BD30" s="60">
         <f t="shared" si="7"/>
         <v>1.7758446902974074</v>
       </c>
-      <c r="BC30" s="60">
+      <c r="BE30" s="60">
         <f t="shared" si="7"/>
         <v>1.8113615841033557</v>
       </c>
-      <c r="BD30" s="56"/>
-      <c r="BE30" s="56"/>
       <c r="BF30" s="56"/>
-    </row>
-    <row r="31" spans="1:58" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+    </row>
+    <row r="31" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="104"/>
       <c r="C31" s="67" t="s">
@@ -8615,70 +8664,64 @@
       <c r="F31" s="106"/>
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="99" t="s">
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="99" t="s">
         <v>939</v>
       </c>
-      <c r="K31" s="104" t="str">
+      <c r="M31" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L31" s="41"/>
-      <c r="N31" s="56" t="str">
-        <f t="shared" ref="N31:BC31" si="8">N13</f>
+      <c r="N31" s="41"/>
+      <c r="P31" s="56" t="str">
+        <f t="shared" ref="P31:BE31" si="8">P13</f>
         <v>Deflator rates</v>
       </c>
-      <c r="O31" s="60">
+      <c r="Q31" s="60">
         <f t="shared" si="8"/>
         <v>0.13827220141517502</v>
       </c>
-      <c r="P31" s="60">
+      <c r="R31" s="60">
         <f t="shared" si="8"/>
         <v>0.24606950030232899</v>
       </c>
-      <c r="Q31" s="60">
+      <c r="S31" s="60">
         <f t="shared" si="8"/>
         <v>2.84498257716864E-2</v>
       </c>
-      <c r="R31" s="60">
+      <c r="T31" s="60">
         <f t="shared" si="8"/>
         <v>4.1316405727836502E-3</v>
       </c>
-      <c r="S31" s="60">
+      <c r="U31" s="60">
         <f t="shared" si="8"/>
         <v>-1.3302044231250001E-2</v>
       </c>
-      <c r="T31" s="60">
+      <c r="V31" s="60">
         <f t="shared" si="8"/>
         <v>-8.8096155262962009E-2</v>
       </c>
-      <c r="U31" s="60">
+      <c r="W31" s="60">
         <f t="shared" si="8"/>
         <v>0.146283390014428</v>
       </c>
-      <c r="V31" s="60">
+      <c r="X31" s="60">
         <f t="shared" si="8"/>
         <v>0.16226204566646898</v>
       </c>
-      <c r="W31" s="60">
+      <c r="Y31" s="60">
         <f t="shared" si="8"/>
         <v>0.12184432964144501</v>
       </c>
-      <c r="X31" s="60">
+      <c r="Z31" s="60">
         <f t="shared" si="8"/>
         <v>-2.2964079036722801E-3</v>
       </c>
-      <c r="Y31" s="60">
+      <c r="AA31" s="60">
         <f t="shared" si="8"/>
         <v>0.01</v>
-      </c>
-      <c r="Z31" s="60">
-        <f t="shared" si="8"/>
-        <v>0.02</v>
-      </c>
-      <c r="AA31" s="60">
-        <f t="shared" si="8"/>
-        <v>0.02</v>
       </c>
       <c r="AB31" s="60">
         <f t="shared" si="8"/>
@@ -8792,11 +8835,19 @@
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="BD31" s="56"/>
-      <c r="BE31" s="56"/>
+      <c r="BD31" s="60">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="BE31" s="60">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
       <c r="BF31" s="56"/>
-    </row>
-    <row r="32" spans="1:58" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+    </row>
+    <row r="32" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="104"/>
       <c r="C32" s="67" t="s">
@@ -8809,185 +8860,187 @@
       <c r="F32" s="106"/>
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="99" t="s">
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="99" t="s">
         <v>940</v>
       </c>
-      <c r="K32" s="104" t="str">
+      <c r="M32" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="N32" s="56" t="str">
-        <f t="shared" ref="N32:BC32" si="9">N14</f>
+      <c r="N32" s="41"/>
+      <c r="P32" s="56" t="str">
+        <f t="shared" ref="P32:BE32" si="9">P14</f>
         <v>AZN relative to BVT</v>
       </c>
-      <c r="O32" s="60">
+      <c r="Q32" s="60">
         <f t="shared" si="9"/>
         <v>0.60848803017778275</v>
       </c>
-      <c r="P32" s="60">
+      <c r="R32" s="60">
         <f t="shared" si="9"/>
         <v>0.78867073038035063</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="S32" s="60">
         <f t="shared" si="9"/>
         <v>0.74354092577871789</v>
       </c>
-      <c r="R32" s="60">
+      <c r="T32" s="60">
         <f t="shared" si="9"/>
         <v>0.76840035268972751</v>
       </c>
-      <c r="S32" s="60">
+      <c r="U32" s="60">
         <f t="shared" si="9"/>
         <v>0.75336136947195065</v>
       </c>
-      <c r="T32" s="60">
+      <c r="V32" s="60">
         <f t="shared" si="9"/>
         <v>0.7788810401414068</v>
       </c>
-      <c r="U32" s="60">
+      <c r="W32" s="60">
         <f t="shared" si="9"/>
         <v>1.3442762137334652</v>
       </c>
-      <c r="V32" s="60">
+      <c r="X32" s="60">
         <f t="shared" si="9"/>
         <v>1.7485789886692933</v>
       </c>
-      <c r="W32" s="60">
+      <c r="Y32" s="60">
         <f t="shared" si="9"/>
         <v>1.9815223307363259</v>
       </c>
-      <c r="X32" s="60">
+      <c r="Z32" s="60">
         <f t="shared" si="9"/>
         <v>1.8749174917491753</v>
       </c>
-      <c r="Y32" s="60">
+      <c r="AA32" s="60">
         <f t="shared" si="9"/>
         <v>1.9416250000000006</v>
       </c>
-      <c r="Z32" s="60">
+      <c r="AB32" s="60">
         <f t="shared" si="9"/>
         <v>1.9804575000000006</v>
       </c>
-      <c r="AA32" s="60">
+      <c r="AC32" s="60">
         <f t="shared" si="9"/>
         <v>2.0200666500000004</v>
       </c>
-      <c r="AB32" s="60">
+      <c r="AD32" s="60">
         <f t="shared" si="9"/>
         <v>2.0604679830000006</v>
       </c>
-      <c r="AC32" s="60">
+      <c r="AE32" s="60">
         <f t="shared" si="9"/>
         <v>2.1016773426600004</v>
       </c>
-      <c r="AD32" s="60">
+      <c r="AF32" s="60">
         <f t="shared" si="9"/>
         <v>2.1437108895132004</v>
       </c>
-      <c r="AE32" s="60">
+      <c r="AG32" s="60">
         <f t="shared" si="9"/>
         <v>2.1865851073034648</v>
       </c>
-      <c r="AF32" s="60">
+      <c r="AH32" s="60">
         <f t="shared" si="9"/>
         <v>2.2303168094495338</v>
       </c>
-      <c r="AG32" s="60">
+      <c r="AI32" s="60">
         <f t="shared" si="9"/>
         <v>2.274923145638525</v>
       </c>
-      <c r="AH32" s="60">
+      <c r="AJ32" s="60">
         <f t="shared" si="9"/>
         <v>2.3204216085512952</v>
       </c>
-      <c r="AI32" s="60">
+      <c r="AK32" s="60">
         <f t="shared" si="9"/>
         <v>2.3668300407223213</v>
       </c>
-      <c r="AJ32" s="60">
+      <c r="AL32" s="60">
         <f t="shared" si="9"/>
         <v>2.4141666415367675</v>
       </c>
-      <c r="AK32" s="60">
+      <c r="AM32" s="60">
         <f t="shared" si="9"/>
         <v>2.462449974367503</v>
       </c>
-      <c r="AL32" s="60">
+      <c r="AN32" s="60">
         <f t="shared" si="9"/>
         <v>2.5116989738548532</v>
       </c>
-      <c r="AM32" s="60">
+      <c r="AO32" s="60">
         <f t="shared" si="9"/>
         <v>2.5619329533319508</v>
       </c>
-      <c r="AN32" s="60">
+      <c r="AP32" s="60">
         <f t="shared" si="9"/>
         <v>2.61317161239859</v>
       </c>
-      <c r="AO32" s="60">
+      <c r="AQ32" s="60">
         <f t="shared" si="9"/>
         <v>2.6654350446465616</v>
       </c>
-      <c r="AP32" s="60">
+      <c r="AR32" s="60">
         <f t="shared" si="9"/>
         <v>2.7187437455394932</v>
       </c>
-      <c r="AQ32" s="60">
+      <c r="AS32" s="60">
         <f t="shared" si="9"/>
         <v>2.7731186204502829</v>
       </c>
-      <c r="AR32" s="60">
+      <c r="AT32" s="60">
         <f t="shared" si="9"/>
         <v>2.8285809928592882</v>
       </c>
-      <c r="AS32" s="60">
+      <c r="AU32" s="60">
         <f t="shared" si="9"/>
         <v>2.8851526127164746</v>
       </c>
-      <c r="AT32" s="60">
+      <c r="AV32" s="60">
         <f t="shared" si="9"/>
         <v>2.942855664970804</v>
       </c>
-      <c r="AU32" s="60">
+      <c r="AW32" s="60">
         <f t="shared" si="9"/>
         <v>3.0017127782702202</v>
       </c>
-      <c r="AV32" s="60">
+      <c r="AX32" s="60">
         <f t="shared" si="9"/>
         <v>3.061747033835625</v>
       </c>
-      <c r="AW32" s="60">
+      <c r="AY32" s="60">
         <f t="shared" si="9"/>
         <v>3.1229819745123377</v>
       </c>
-      <c r="AX32" s="60">
+      <c r="AZ32" s="60">
         <f t="shared" si="9"/>
         <v>3.1854416140025843</v>
       </c>
-      <c r="AY32" s="60">
+      <c r="BA32" s="60">
         <f t="shared" si="9"/>
         <v>3.2491504462826359</v>
       </c>
-      <c r="AZ32" s="60">
+      <c r="BB32" s="60">
         <f t="shared" si="9"/>
         <v>3.3141334552082888</v>
       </c>
-      <c r="BA32" s="60">
+      <c r="BC32" s="60">
         <f t="shared" si="9"/>
         <v>3.3804161243124544</v>
       </c>
-      <c r="BB32" s="60">
+      <c r="BD32" s="60">
         <f t="shared" si="9"/>
         <v>3.448024446798704</v>
       </c>
-      <c r="BC32" s="60">
+      <c r="BE32" s="60">
         <f t="shared" si="9"/>
         <v>3.5169849357346781</v>
       </c>
     </row>
-    <row r="33" spans="1:55" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="104"/>
       <c r="C33" s="67" t="s">
@@ -9000,17 +9053,17 @@
       <c r="F33" s="106"/>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="99" t="s">
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="99" t="s">
         <v>942</v>
       </c>
-      <c r="K33" s="104" t="str">
+      <c r="M33" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L33" s="41"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
+      <c r="N33" s="41"/>
       <c r="P33" s="56"/>
       <c r="Q33" s="56"/>
       <c r="R33" s="56"/>
@@ -9051,8 +9104,10 @@
       <c r="BA33" s="56"/>
       <c r="BB33" s="56"/>
       <c r="BC33" s="56"/>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B34" s="104"/>
       <c r="C34" s="67" t="s">
         <v>78</v>
@@ -9064,16 +9119,18 @@
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="99" t="s">
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="99" t="s">
         <v>943</v>
       </c>
-      <c r="K34" s="104" t="str">
+      <c r="M34" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B35" s="100"/>
       <c r="C35" s="101" t="s">
         <v>78</v>
@@ -9085,17 +9142,17 @@
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100" t="s">
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100" t="s">
         <v>941</v>
       </c>
-      <c r="K35" s="100" t="str">
+      <c r="M35" s="100" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N35" s="86"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
+      <c r="P35" s="86"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
@@ -9135,33 +9192,35 @@
       <c r="BA35" s="41"/>
       <c r="BB35" s="41"/>
       <c r="BC35" s="41"/>
-    </row>
-    <row r="36" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+    </row>
+    <row r="36" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B36" s="104"/>
       <c r="C36" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="105"/>
       <c r="E36" s="106" cm="1">
-        <f t="array" ref="E36:E41">TRANSPOSE(O16:T16)</f>
+        <f t="array" ref="E36:E41">TRANSPOSE(Q16:V16)</f>
         <v>7.1616599536136943E-2</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="99" t="s">
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="99" t="s">
         <v>818</v>
       </c>
-      <c r="K36" s="103" t="str">
+      <c r="M36" s="103" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N36" s="86" t="s">
-        <v>968</v>
-      </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
+      <c r="P36" s="86" t="s">
+        <v>965</v>
+      </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
@@ -9201,8 +9260,10 @@
       <c r="BA36" s="41"/>
       <c r="BB36" s="41"/>
       <c r="BC36" s="41"/>
-    </row>
-    <row r="37" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="BD36" s="41"/>
+      <c r="BE36" s="41"/>
+    </row>
+    <row r="37" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B37" s="104"/>
       <c r="C37" s="67" t="s">
         <v>78</v>
@@ -9214,23 +9275,23 @@
       <c r="F37" s="106"/>
       <c r="G37" s="106"/>
       <c r="H37" s="106"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="99" t="s">
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="99" t="s">
         <v>819</v>
       </c>
-      <c r="K37" s="104" t="str">
+      <c r="M37" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="116">
+      <c r="P37" s="20"/>
+      <c r="Q37" s="116">
         <v>6.25E-2</v>
       </c>
-      <c r="P37" t="s">
-        <v>969</v>
-      </c>
-      <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="s">
+        <v>966</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -9268,8 +9329,10 @@
       <c r="BA37"/>
       <c r="BB37"/>
       <c r="BC37"/>
-    </row>
-    <row r="38" spans="1:55" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="BD37"/>
+      <c r="BE37"/>
+    </row>
+    <row r="38" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B38" s="104"/>
       <c r="C38" s="67" t="s">
         <v>78</v>
@@ -9281,23 +9344,23 @@
       <c r="F38" s="106"/>
       <c r="G38" s="106"/>
       <c r="H38" s="106"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="99" t="s">
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="99" t="s">
         <v>820</v>
       </c>
-      <c r="K38" s="104" t="str">
+      <c r="M38" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="116">
+      <c r="P38" s="20"/>
+      <c r="Q38" s="116">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="P38" t="s">
-        <v>970</v>
-      </c>
-      <c r="Q38"/>
-      <c r="R38"/>
+      <c r="R38" t="s">
+        <v>967</v>
+      </c>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
@@ -9335,8 +9398,10 @@
       <c r="BA38"/>
       <c r="BB38"/>
       <c r="BC38"/>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD38"/>
+      <c r="BE38"/>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="104"/>
       <c r="C39" s="67" t="s">
@@ -9349,23 +9414,25 @@
       <c r="F39" s="106"/>
       <c r="G39" s="106"/>
       <c r="H39" s="106"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="99" t="s">
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="99" t="s">
         <v>821</v>
       </c>
-      <c r="K39" s="104" t="str">
+      <c r="M39" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="O39" s="118">
-        <f>O37-O38</f>
+      <c r="Q39" s="118">
+        <f>Q37-Q38</f>
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="P39" s="56" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="R39" s="56" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="104"/>
       <c r="C40" s="67" t="s">
@@ -9378,23 +9445,25 @@
       <c r="F40" s="106"/>
       <c r="G40" s="106"/>
       <c r="H40" s="106"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="99" t="s">
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="99" t="s">
         <v>822</v>
       </c>
-      <c r="K40" s="104" t="str">
+      <c r="M40" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="O40" s="118">
-        <f>O39+4%</f>
+      <c r="Q40" s="118">
+        <f>Q39+4%</f>
         <v>0.10850000000000001</v>
       </c>
-      <c r="P40" s="56" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="R40" s="56" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
       <c r="B41" s="104"/>
       <c r="C41" s="105" t="s">
@@ -9407,16 +9476,18 @@
       <c r="F41" s="106"/>
       <c r="G41" s="106"/>
       <c r="H41" s="106"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104" t="s">
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104" t="s">
         <v>817</v>
       </c>
-      <c r="K41" s="104" t="str">
+      <c r="M41" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="61"/>
       <c r="B42" s="110"/>
       <c r="C42" s="111"/>
@@ -9425,33 +9496,35 @@
       <c r="F42" s="112"/>
       <c r="G42" s="112"/>
       <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C45" s="58"/>
       <c r="E45" s="63"/>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46" s="58"/>
       <c r="E46" s="63"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -9459,8 +9532,10 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -9468,8 +9543,10 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -9477,8 +9554,10 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -9486,8 +9565,10 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -9495,8 +9576,10 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -9504,8 +9587,10 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -9513,6 +9598,8 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
@@ -9574,7 +9661,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="95" t="s">
@@ -9603,7 +9690,7 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="130" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="131"/>
@@ -9628,7 +9715,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="130" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="131"/>
@@ -9653,7 +9740,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="130" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="131"/>
@@ -9663,7 +9750,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="130" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="131"/>
@@ -9673,7 +9760,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="130" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="131"/>
@@ -9693,7 +9780,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="130" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="131"/>
@@ -9703,7 +9790,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="130" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="131"/>
@@ -9713,7 +9800,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="130" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="131"/>
@@ -9723,7 +9810,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="130" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="131"/>
@@ -9911,12 +9998,12 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="93" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -9944,12 +10031,12 @@
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -9964,10 +10051,10 @@
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="K6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="S6" s="42"/>
       <c r="T6" s="43"/>
@@ -10210,40 +10297,40 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>970</v>
+      </c>
+      <c r="C24" t="s">
+        <v>971</v>
+      </c>
+      <c r="D24" t="s">
+        <v>972</v>
+      </c>
+      <c r="E24" t="s">
         <v>973</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>974</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>975</v>
       </c>
-      <c r="E24" t="s">
-        <v>976</v>
-      </c>
-      <c r="F24" t="s">
-        <v>977</v>
-      </c>
-      <c r="G24" t="s">
-        <v>978</v>
-      </c>
       <c r="K24" t="s">
+        <v>970</v>
+      </c>
+      <c r="L24" t="s">
+        <v>971</v>
+      </c>
+      <c r="M24" t="s">
+        <v>972</v>
+      </c>
+      <c r="N24" t="s">
         <v>973</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>974</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>975</v>
-      </c>
-      <c r="N24" t="s">
-        <v>976</v>
-      </c>
-      <c r="O24" t="s">
-        <v>977</v>
-      </c>
-      <c r="P24" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -15852,7 +15939,7 @@
   <sheetData>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-AZ/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251032D-EB69-47F3-A6B4-B355B57B27ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -25,7 +19,7 @@
   <definedNames>
     <definedName name="VEDA2">'Import Settings'!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,12 +58,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,12 +82,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,14 +105,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -133,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1017">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3030,18 +3024,6 @@
     <t>MKr20</t>
   </si>
   <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>AZ1</t>
-  </si>
-  <si>
-    <t>AZ2</t>
-  </si>
-  <si>
-    <t>AZ3</t>
-  </si>
-  <si>
     <t>Socio economic discount rate is calculated based on the difference in interest rates set by the central banks of Azerbaijan and Denmark, with baseline assumption of Danish socio-economic discount rate is 4 %</t>
   </si>
   <si>
@@ -3178,12 +3160,30 @@
   </si>
   <si>
     <t>P1-5</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>DE2</t>
+  </si>
+  <si>
+    <t>DE3</t>
+  </si>
+  <si>
+    <t>DE4</t>
+  </si>
+  <si>
+    <t>DE5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
@@ -4029,27 +4029,27 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="5x indented GHG Textfiels" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="AggOrange_CRFReport-template" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="AggOrange9_CRFReport-template" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="CustomizationCells" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Euro" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="InputCells" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="1"/>
+    <cellStyle name="AggOrange_CRFReport-template" xfId="2"/>
+    <cellStyle name="AggOrange9_CRFReport-template" xfId="3"/>
+    <cellStyle name="CustomizationCells" xfId="4"/>
+    <cellStyle name="Euro" xfId="5"/>
+    <cellStyle name="InputCells" xfId="6"/>
     <cellStyle name="Link" xfId="20" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 10 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 10" xfId="7"/>
+    <cellStyle name="Normal 10 2" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal 4" xfId="11"/>
+    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="13"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14"/>
+    <cellStyle name="Normale_B2020" xfId="15"/>
     <cellStyle name="Procent" xfId="16" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Standaard_Blad1" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="17"/>
+    <cellStyle name="Standaard_Blad1" xfId="19"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4084,7 +4084,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,9 +4114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4154,9 +4154,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4189,26 +4189,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4241,26 +4224,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4433,27 +4399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A3:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -4464,7 +4430,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -4484,10 +4450,10 @@
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
-        <v>965</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>966</v>
+        <v>1012</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>55</v>
@@ -4516,13 +4482,13 @@
         <v>68</v>
       </c>
       <c r="R5" s="114" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="68" t="s">
-        <v>967</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>52</v>
@@ -4551,14 +4517,14 @@
         <v>70</v>
       </c>
       <c r="R6" s="114" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68" t="s">
-        <v>968</v>
+        <v>1014</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>53</v>
@@ -4578,13 +4544,15 @@
         <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
+      <c r="C8" s="68" t="s">
+        <v>1015</v>
+      </c>
       <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
@@ -4603,22 +4571,24 @@
         <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="68" t="s">
+        <v>1016</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="G9" s="33" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="R9" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4632,7 +4602,7 @@
         <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4640,13 +4610,13 @@
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
       <c r="G11" s="33" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="Q11" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="R11" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4657,7 +4627,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4665,7 +4635,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4673,7 +4643,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="114"/>
       <c r="C15" s="3"/>
@@ -4681,28 +4651,28 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="115"/>
       <c r="C18" s="115"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="115"/>
       <c r="C19" s="115"/>
@@ -4778,32 +4748,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -4814,7 +4784,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4823,43 +4793,43 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="71" t="str">
         <f ca="1">IF(VEDA2,"~DefaultYear",T(0))</f>
         <v>~DefaultYear</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="70">
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="I16" s="149" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="149" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="K16" s="89" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -4879,7 +4849,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>3</v>
       </c>
@@ -4899,7 +4869,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>4</v>
       </c>
@@ -4919,7 +4889,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>5</v>
       </c>
@@ -4939,7 +4909,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>5</v>
       </c>
@@ -4959,7 +4929,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>5</v>
       </c>
@@ -4979,7 +4949,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>5</v>
       </c>
@@ -4999,7 +4969,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>5</v>
       </c>
@@ -5019,7 +4989,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>5</v>
       </c>
@@ -5039,7 +5009,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>5</v>
       </c>
@@ -5440,41 +5410,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="13" width="8" customWidth="1"/>
-    <col min="17" max="17" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" customWidth="1"/>
-    <col min="21" max="21" width="8.08984375" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="7.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="str">
         <f ca="1">IF(VEDA2,"~TFM_MIG","~TFM_UPD")</f>
         <v>~TFM_MIG</v>
@@ -5495,16 +5465,20 @@
         <v>Year2</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>966</v>
+        <v>1012</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>967</v>
+        <v>1013</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>968</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+        <v>1014</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>1016</v>
+      </c>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
       <c r="M6" s="73"/>
@@ -5596,30 +5570,30 @@
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="11" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -5662,19 +5636,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>951</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -5682,12 +5656,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
@@ -5743,20 +5717,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="str">
         <f ca="1">"~Scenario:"&amp;REPLACE(REPLACE($F$1,FIND(".",$F$1),100,""),1,FIND("[",$F$1),"")</f>
         <v>~Scenario:</v>
@@ -5770,17 +5744,17 @@
       </c>
       <c r="F1" s="17" t="str">
         <f ca="1">CELL("filename",$E$1)</f>
-        <v>https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-AZ/[SysSettings.xlsx]Import Settings</v>
+        <v>C:\Users\hjs.MEDICOUH\Documents\GitHub\Bachelor_Git\TIMES-DE\[SysSettings.xlsx]Import Settings</v>
       </c>
       <c r="I1" s="66"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
@@ -5837,40 +5811,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A3:BF67"/>
+  <dimension ref="A3:BH67"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="56" customWidth="1"/>
-    <col min="6" max="8" width="8.36328125" style="56" customWidth="1"/>
-    <col min="9" max="13" width="9.08984375" style="56"/>
-    <col min="14" max="14" width="18.6328125" style="56" customWidth="1"/>
-    <col min="15" max="16384" width="9.08984375" style="56"/>
+    <col min="1" max="1" width="3.44140625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="56" customWidth="1"/>
+    <col min="6" max="10" width="8.33203125" style="56" customWidth="1"/>
+    <col min="11" max="15" width="9.109375" style="56"/>
+    <col min="16" max="16" width="18.6640625" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:55" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:57" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:55" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B5" s="94" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:55" ht="26" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:57" ht="27.6" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5884,26 +5858,30 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>966</v>
+        <v>1012</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>967</v>
+        <v>1013</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>968</v>
+        <v>1014</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6"/>
-      <c r="P6"/>
+      <c r="P6" s="20"/>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
@@ -5943,8 +5921,10 @@
       <c r="BA6"/>
       <c r="BB6"/>
       <c r="BC6"/>
-    </row>
-    <row r="7" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BD6"/>
+      <c r="BE6"/>
+    </row>
+    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="99"/>
       <c r="C7" s="99" t="s">
         <v>49</v>
@@ -5959,14 +5939,14 @@
       <c r="I7" s="99"/>
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
-      <c r="N7" s="20" t="s">
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="P7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="Q7" s="62" t="s">
         <v>936</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
@@ -6005,8 +5985,10 @@
       <c r="BA7"/>
       <c r="BB7"/>
       <c r="BC7"/>
-    </row>
-    <row r="8" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD7"/>
+      <c r="BE7"/>
+    </row>
+    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="100"/>
       <c r="C8" s="100" t="s">
         <v>35</v>
@@ -6015,26 +5997,26 @@
         <v>2010</v>
       </c>
       <c r="E8" s="117">
-        <f>O40</f>
+        <f>Q40</f>
         <v>0.10850000000000001</v>
       </c>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="100"/>
       <c r="I8" s="100"/>
-      <c r="J8" s="100" t="str">
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100" t="str">
         <f>Defaults!B4</f>
         <v>MEUR20</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="N8" s="35" t="s">
+      <c r="M8" s="100"/>
+      <c r="P8" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>2020</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
@@ -6073,55 +6055,57 @@
       <c r="BA8"/>
       <c r="BB8"/>
       <c r="BC8"/>
-    </row>
-    <row r="9" spans="2:55" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BD8"/>
+      <c r="BE8"/>
+    </row>
+    <row r="9" spans="2:57" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="104"/>
       <c r="C9" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="105"/>
       <c r="E9" s="134" cm="1">
-        <f t="array" ref="E9:E18">TRANSPOSE(O12:X12)</f>
+        <f t="array" ref="E9:E18">TRANSPOSE(Q12:Z12)</f>
         <v>0.57345472525413244</v>
       </c>
       <c r="F9" s="104"/>
       <c r="G9" s="104"/>
       <c r="H9" s="104"/>
       <c r="I9" s="104"/>
-      <c r="J9" s="104" t="str">
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104" t="str">
         <f>Defaults!B5</f>
         <v>MEUR10</v>
       </c>
-      <c r="K9" s="100" t="str">
-        <f>$J$8</f>
+      <c r="M9" s="100" t="str">
+        <f>$L$8</f>
         <v>MEUR20</v>
       </c>
-      <c r="L9"/>
-      <c r="N9" s="21" t="s">
+      <c r="N9"/>
+      <c r="P9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
-      <c r="AF9" t="s">
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9" t="s">
         <v>80</v>
       </c>
-      <c r="AG9"/>
-      <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
       <c r="AK9"/>
@@ -6143,8 +6127,10 @@
       <c r="BA9"/>
       <c r="BB9"/>
       <c r="BC9"/>
-    </row>
-    <row r="10" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD9"/>
+      <c r="BE9"/>
+    </row>
+    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="104"/>
       <c r="C10" s="67" t="s">
         <v>78</v>
@@ -6157,141 +6143,143 @@
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
       <c r="I10" s="104"/>
-      <c r="J10" s="104" t="str">
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104" t="str">
         <f>Defaults!B6</f>
         <v>MEUR11</v>
       </c>
-      <c r="K10" s="104" t="str">
-        <f t="shared" ref="K10:K41" si="0">$J$8</f>
+      <c r="M10" s="104" t="str">
+        <f t="shared" ref="M10:M41" si="0">$L$8</f>
         <v>MEUR20</v>
       </c>
-      <c r="L10"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="142">
+      <c r="N10"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="142">
         <v>2010</v>
       </c>
-      <c r="P10" s="142">
+      <c r="R10" s="142">
         <v>2011</v>
       </c>
-      <c r="Q10" s="142">
+      <c r="S10" s="142">
         <v>2012</v>
       </c>
-      <c r="R10" s="142">
+      <c r="T10" s="142">
         <v>2013</v>
       </c>
-      <c r="S10" s="142">
+      <c r="U10" s="142">
         <v>2014</v>
       </c>
-      <c r="T10" s="142">
+      <c r="V10" s="142">
         <v>2015</v>
       </c>
-      <c r="U10" s="142">
+      <c r="W10" s="142">
         <v>2016</v>
       </c>
-      <c r="V10" s="142">
+      <c r="X10" s="142">
         <v>2017</v>
       </c>
-      <c r="W10" s="142">
+      <c r="Y10" s="142">
         <v>2018</v>
       </c>
-      <c r="X10" s="142">
+      <c r="Z10" s="142">
         <v>2019</v>
       </c>
-      <c r="Y10" s="142">
+      <c r="AA10" s="142">
         <v>2020</v>
       </c>
-      <c r="Z10" s="142">
+      <c r="AB10" s="142">
         <v>2021</v>
       </c>
-      <c r="AA10" s="142">
+      <c r="AC10" s="142">
         <v>2022</v>
       </c>
-      <c r="AB10" s="142">
+      <c r="AD10" s="142">
         <v>2023</v>
       </c>
-      <c r="AC10" s="142">
+      <c r="AE10" s="142">
         <v>2024</v>
       </c>
-      <c r="AD10" s="142">
+      <c r="AF10" s="142">
         <v>2025</v>
       </c>
-      <c r="AE10" s="142">
+      <c r="AG10" s="142">
         <v>2026</v>
       </c>
-      <c r="AF10" s="142">
+      <c r="AH10" s="142">
         <v>2027</v>
       </c>
-      <c r="AG10" s="142">
+      <c r="AI10" s="142">
         <v>2028</v>
       </c>
-      <c r="AH10" s="142">
+      <c r="AJ10" s="142">
         <v>2029</v>
       </c>
-      <c r="AI10" s="142">
+      <c r="AK10" s="142">
         <v>2030</v>
       </c>
-      <c r="AJ10" s="142">
+      <c r="AL10" s="142">
         <v>2031</v>
       </c>
-      <c r="AK10" s="142">
+      <c r="AM10" s="142">
         <v>2032</v>
       </c>
-      <c r="AL10" s="142">
+      <c r="AN10" s="142">
         <v>2033</v>
       </c>
-      <c r="AM10" s="142">
+      <c r="AO10" s="142">
         <v>2034</v>
       </c>
-      <c r="AN10" s="142">
+      <c r="AP10" s="142">
         <v>2035</v>
       </c>
-      <c r="AO10" s="142">
+      <c r="AQ10" s="142">
         <v>2036</v>
       </c>
-      <c r="AP10" s="142">
+      <c r="AR10" s="142">
         <v>2037</v>
       </c>
-      <c r="AQ10" s="142">
+      <c r="AS10" s="142">
         <v>2038</v>
       </c>
-      <c r="AR10" s="142">
+      <c r="AT10" s="142">
         <v>2039</v>
       </c>
-      <c r="AS10" s="142">
+      <c r="AU10" s="142">
         <v>2040</v>
       </c>
-      <c r="AT10" s="142">
+      <c r="AV10" s="142">
         <v>2041</v>
       </c>
-      <c r="AU10" s="142">
+      <c r="AW10" s="142">
         <v>2042</v>
       </c>
-      <c r="AV10" s="142">
+      <c r="AX10" s="142">
         <v>2043</v>
       </c>
-      <c r="AW10" s="142">
+      <c r="AY10" s="142">
         <v>2044</v>
       </c>
-      <c r="AX10" s="142">
+      <c r="AZ10" s="142">
         <v>2045</v>
       </c>
-      <c r="AY10" s="142">
+      <c r="BA10" s="142">
         <v>2046</v>
       </c>
-      <c r="AZ10" s="142">
+      <c r="BB10" s="142">
         <v>2047</v>
       </c>
-      <c r="BA10" s="142">
+      <c r="BC10" s="142">
         <v>2048</v>
       </c>
-      <c r="BB10" s="142">
+      <c r="BD10" s="142">
         <v>2049</v>
       </c>
-      <c r="BC10" s="143">
+      <c r="BE10" s="143">
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="104"/>
       <c r="C11" s="67" t="s">
         <v>78</v>
@@ -6304,183 +6292,185 @@
       <c r="G11" s="104"/>
       <c r="H11" s="104"/>
       <c r="I11" s="104"/>
-      <c r="J11" s="104" t="str">
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104" t="str">
         <f>Defaults!B7</f>
         <v>MEUR12</v>
       </c>
-      <c r="K11" s="104" t="str">
+      <c r="M11" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L11"/>
-      <c r="N11" s="136" t="s">
+      <c r="N11"/>
+      <c r="P11" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="137">
+      <c r="Q11" s="137">
         <v>1</v>
       </c>
-      <c r="P11" s="138">
-        <f>O11*(1+P13)</f>
+      <c r="R11" s="138">
+        <f>Q11*(1+R13)</f>
         <v>1.246069500302329</v>
       </c>
-      <c r="Q11" s="138">
-        <f t="shared" ref="Q11:BC11" si="1">P11*(1+Q13)</f>
+      <c r="S11" s="138">
+        <f t="shared" ref="S11:BE11" si="1">R11*(1+S13)</f>
         <v>1.2815199604853424</v>
       </c>
-      <c r="R11" s="138">
+      <c r="T11" s="138">
         <f t="shared" si="1"/>
         <v>1.2868147403489156</v>
       </c>
-      <c r="S11" s="138">
+      <c r="U11" s="138">
         <f t="shared" si="1"/>
         <v>1.2696974737553699</v>
       </c>
-      <c r="T11" s="138">
+      <c r="V11" s="138">
         <f t="shared" si="1"/>
         <v>1.1578420079704261</v>
       </c>
-      <c r="U11" s="138">
+      <c r="W11" s="138">
         <f t="shared" si="1"/>
         <v>1.3272150619974525</v>
       </c>
-      <c r="V11" s="138">
+      <c r="X11" s="138">
         <f t="shared" si="1"/>
         <v>1.5425716929965085</v>
       </c>
-      <c r="W11" s="138">
+      <c r="Y11" s="138">
         <f t="shared" si="1"/>
         <v>1.7305253068535371</v>
       </c>
-      <c r="X11" s="138">
+      <c r="Z11" s="138">
         <f t="shared" si="1"/>
         <v>1.7265513148613738</v>
       </c>
-      <c r="Y11" s="138">
+      <c r="AA11" s="138">
         <f t="shared" si="1"/>
         <v>1.7438168280099875</v>
       </c>
-      <c r="Z11" s="138">
+      <c r="AB11" s="138">
         <f t="shared" si="1"/>
         <v>1.7786931645701873</v>
       </c>
-      <c r="AA11" s="138">
+      <c r="AC11" s="138">
         <f t="shared" si="1"/>
         <v>1.8142670278615911</v>
       </c>
-      <c r="AB11" s="138">
+      <c r="AD11" s="138">
         <f t="shared" si="1"/>
         <v>1.850552368418823</v>
       </c>
-      <c r="AC11" s="138">
+      <c r="AE11" s="138">
         <f t="shared" si="1"/>
         <v>1.8875634157871994</v>
       </c>
-      <c r="AD11" s="138">
+      <c r="AF11" s="138">
         <f t="shared" si="1"/>
         <v>1.9253146841029434</v>
       </c>
-      <c r="AE11" s="138">
+      <c r="AG11" s="138">
         <f t="shared" si="1"/>
         <v>1.9638209777850022</v>
       </c>
-      <c r="AF11" s="138">
+      <c r="AH11" s="138">
         <f t="shared" si="1"/>
         <v>2.0030973973407025</v>
       </c>
-      <c r="AG11" s="138">
+      <c r="AI11" s="138">
         <f t="shared" si="1"/>
         <v>2.0431593452875165</v>
       </c>
-      <c r="AH11" s="138">
+      <c r="AJ11" s="138">
         <f t="shared" si="1"/>
         <v>2.0840225321932668</v>
       </c>
-      <c r="AI11" s="138">
+      <c r="AK11" s="138">
         <f t="shared" si="1"/>
         <v>2.1257029828371321</v>
       </c>
-      <c r="AJ11" s="138">
+      <c r="AL11" s="138">
         <f t="shared" si="1"/>
         <v>2.1682170424938749</v>
       </c>
-      <c r="AK11" s="138">
+      <c r="AM11" s="138">
         <f t="shared" si="1"/>
         <v>2.2115813833437525</v>
       </c>
-      <c r="AL11" s="138">
+      <c r="AN11" s="138">
         <f t="shared" si="1"/>
         <v>2.2558130110106278</v>
       </c>
-      <c r="AM11" s="138">
+      <c r="AO11" s="138">
         <f t="shared" si="1"/>
         <v>2.3009292712308405</v>
       </c>
-      <c r="AN11" s="138">
+      <c r="AP11" s="138">
         <f t="shared" si="1"/>
         <v>2.3469478566554574</v>
       </c>
-      <c r="AO11" s="138">
+      <c r="AQ11" s="138">
         <f t="shared" si="1"/>
         <v>2.3938868137885665</v>
       </c>
-      <c r="AP11" s="138">
+      <c r="AR11" s="138">
         <f t="shared" si="1"/>
         <v>2.4417645500643377</v>
       </c>
-      <c r="AQ11" s="138">
+      <c r="AS11" s="138">
         <f t="shared" si="1"/>
         <v>2.4905998410656243</v>
       </c>
-      <c r="AR11" s="138">
+      <c r="AT11" s="138">
         <f t="shared" si="1"/>
         <v>2.5404118378869369</v>
       </c>
-      <c r="AS11" s="138">
+      <c r="AU11" s="138">
         <f t="shared" si="1"/>
         <v>2.5912200746446756</v>
       </c>
-      <c r="AT11" s="138">
+      <c r="AV11" s="138">
         <f t="shared" si="1"/>
         <v>2.6430444761375691</v>
       </c>
-      <c r="AU11" s="138">
+      <c r="AW11" s="138">
         <f t="shared" si="1"/>
         <v>2.6959053656603205</v>
       </c>
-      <c r="AV11" s="138">
+      <c r="AX11" s="138">
         <f t="shared" si="1"/>
         <v>2.7498234729735271</v>
       </c>
-      <c r="AW11" s="138">
+      <c r="AY11" s="138">
         <f t="shared" si="1"/>
         <v>2.8048199424329976</v>
       </c>
-      <c r="AX11" s="138">
+      <c r="AZ11" s="138">
         <f t="shared" si="1"/>
         <v>2.8609163412816576</v>
       </c>
-      <c r="AY11" s="138">
+      <c r="BA11" s="138">
         <f t="shared" si="1"/>
         <v>2.9181346681072906</v>
       </c>
-      <c r="AZ11" s="138">
+      <c r="BB11" s="138">
         <f t="shared" si="1"/>
         <v>2.9764973614694363</v>
       </c>
-      <c r="BA11" s="138">
+      <c r="BC11" s="138">
         <f t="shared" si="1"/>
         <v>3.036027308698825</v>
       </c>
-      <c r="BB11" s="138">
+      <c r="BD11" s="138">
         <f t="shared" si="1"/>
         <v>3.0967478548728016</v>
       </c>
-      <c r="BC11" s="144">
+      <c r="BE11" s="144">
         <f t="shared" si="1"/>
         <v>3.1586828119702575</v>
       </c>
     </row>
-    <row r="12" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="104"/>
       <c r="C12" s="67" t="s">
         <v>78</v>
@@ -6493,184 +6483,186 @@
       <c r="G12" s="104"/>
       <c r="H12" s="104"/>
       <c r="I12" s="104"/>
-      <c r="J12" s="104" t="str">
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104" t="str">
         <f>Defaults!B8</f>
         <v>MEUR13</v>
       </c>
-      <c r="K12" s="104" t="str">
+      <c r="M12" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L12"/>
-      <c r="N12" s="136" t="s">
+      <c r="N12"/>
+      <c r="P12" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="139">
-        <f>O11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="Q12" s="139">
+        <f>Q11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.57345472525413244</v>
       </c>
-      <c r="P12" s="24">
-        <f>P11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="R12" s="24">
+        <f>R11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.71456444294342614</v>
       </c>
-      <c r="Q12" s="24">
-        <f>Q11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="S12" s="24">
+        <f>S11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.7348936768478086</v>
       </c>
-      <c r="R12" s="24">
-        <f>R11/HLOOKUP($O$8,$O$10:$BC$11,2,FALSE)</f>
+      <c r="T12" s="24">
+        <f>T11/HLOOKUP($Q$8,$Q$10:$BE$11,2,FALSE)</f>
         <v>0.73792999337975507</v>
       </c>
-      <c r="S12" s="24">
-        <f t="shared" ref="S12:Y12" si="2">R12*(1+S13)</f>
+      <c r="U12" s="24">
+        <f t="shared" ref="U12:AA12" si="2">T12*(1+U13)</f>
         <v>0.72811401596825154</v>
       </c>
-      <c r="T12" s="24">
+      <c r="V12" s="24">
         <f t="shared" si="2"/>
         <v>0.6639699705683737</v>
       </c>
-      <c r="U12" s="24">
+      <c r="W12" s="24">
         <f t="shared" si="2"/>
         <v>0.76109774873089542</v>
       </c>
-      <c r="V12" s="24">
+      <c r="X12" s="24">
         <f t="shared" si="2"/>
         <v>0.88459502639211474</v>
       </c>
-      <c r="W12" s="24">
+      <c r="Y12" s="24">
         <f t="shared" si="2"/>
         <v>0.99237791438701839</v>
       </c>
-      <c r="X12" s="24">
+      <c r="Z12" s="24">
         <f t="shared" si="2"/>
         <v>0.99009900990099031</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="AA12" s="24">
         <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Z12" s="24">
-        <f t="shared" ref="Z12:BC12" si="3">Y12*(1+Z13)</f>
+      <c r="AB12" s="24">
+        <f t="shared" ref="AB12:BE12" si="3">AA12*(1+AB13)</f>
         <v>1.0200000000000002</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AC12" s="24">
         <f t="shared" si="3"/>
         <v>1.0404000000000002</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AD12" s="24">
         <f t="shared" si="3"/>
         <v>1.0612080000000002</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AE12" s="24">
         <f t="shared" si="3"/>
         <v>1.0824321600000002</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AF12" s="24">
         <f t="shared" si="3"/>
         <v>1.1040808032000002</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AG12" s="24">
         <f t="shared" si="3"/>
         <v>1.1261624192640003</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AH12" s="24">
         <f t="shared" si="3"/>
         <v>1.1486856676492803</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AI12" s="24">
         <f t="shared" si="3"/>
         <v>1.171659381002266</v>
       </c>
-      <c r="AH12" s="24">
+      <c r="AJ12" s="24">
         <f t="shared" si="3"/>
         <v>1.1950925686223113</v>
       </c>
-      <c r="AI12" s="24">
+      <c r="AK12" s="24">
         <f t="shared" si="3"/>
         <v>1.2189944199947575</v>
       </c>
-      <c r="AJ12" s="24">
+      <c r="AL12" s="24">
         <f t="shared" si="3"/>
         <v>1.2433743083946527</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AM12" s="24">
         <f t="shared" si="3"/>
         <v>1.2682417945625457</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AN12" s="24">
         <f t="shared" si="3"/>
         <v>1.2936066304537968</v>
       </c>
-      <c r="AM12" s="24">
+      <c r="AO12" s="24">
         <f t="shared" si="3"/>
         <v>1.3194787630628728</v>
       </c>
-      <c r="AN12" s="24">
+      <c r="AP12" s="24">
         <f t="shared" si="3"/>
         <v>1.3458683383241303</v>
       </c>
-      <c r="AO12" s="24">
+      <c r="AQ12" s="24">
         <f t="shared" si="3"/>
         <v>1.3727857050906129</v>
       </c>
-      <c r="AP12" s="24">
+      <c r="AR12" s="24">
         <f t="shared" si="3"/>
         <v>1.4002414191924253</v>
       </c>
-      <c r="AQ12" s="24">
+      <c r="AS12" s="24">
         <f t="shared" si="3"/>
         <v>1.4282462475762738</v>
       </c>
-      <c r="AR12" s="24">
+      <c r="AT12" s="24">
         <f t="shared" si="3"/>
         <v>1.4568111725277992</v>
       </c>
-      <c r="AS12" s="24">
+      <c r="AU12" s="24">
         <f t="shared" si="3"/>
         <v>1.4859473959783553</v>
       </c>
-      <c r="AT12" s="24">
+      <c r="AV12" s="24">
         <f t="shared" si="3"/>
         <v>1.5156663438979225</v>
       </c>
-      <c r="AU12" s="24">
+      <c r="AW12" s="24">
         <f t="shared" si="3"/>
         <v>1.5459796707758811</v>
       </c>
-      <c r="AV12" s="24">
+      <c r="AX12" s="24">
         <f t="shared" si="3"/>
         <v>1.5768992641913988</v>
       </c>
-      <c r="AW12" s="24">
+      <c r="AY12" s="24">
         <f t="shared" si="3"/>
         <v>1.6084372494752268</v>
       </c>
-      <c r="AX12" s="24">
+      <c r="AZ12" s="24">
         <f t="shared" si="3"/>
         <v>1.6406059944647313</v>
       </c>
-      <c r="AY12" s="24">
+      <c r="BA12" s="24">
         <f t="shared" si="3"/>
         <v>1.6734181143540259</v>
       </c>
-      <c r="AZ12" s="24">
+      <c r="BB12" s="24">
         <f t="shared" si="3"/>
         <v>1.7068864766411065</v>
       </c>
-      <c r="BA12" s="24">
+      <c r="BC12" s="24">
         <f t="shared" si="3"/>
         <v>1.7410242061739287</v>
       </c>
-      <c r="BB12" s="24">
+      <c r="BD12" s="24">
         <f t="shared" si="3"/>
         <v>1.7758446902974074</v>
       </c>
-      <c r="BC12" s="145">
+      <c r="BE12" s="145">
         <f t="shared" si="3"/>
         <v>1.8113615841033557</v>
       </c>
     </row>
-    <row r="13" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="104"/>
       <c r="C13" s="67" t="s">
         <v>78</v>
@@ -6683,57 +6675,53 @@
       <c r="G13" s="104"/>
       <c r="H13" s="104"/>
       <c r="I13" s="104"/>
-      <c r="J13" s="104" t="str">
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104" t="str">
         <f>Defaults!B9</f>
         <v>MEUR14</v>
       </c>
-      <c r="K13" s="104" t="str">
+      <c r="M13" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L13"/>
-      <c r="N13" s="135" t="s">
-        <v>997</v>
-      </c>
-      <c r="O13" s="140">
+      <c r="N13"/>
+      <c r="P13" s="135" t="s">
+        <v>993</v>
+      </c>
+      <c r="Q13" s="140">
         <v>0.13827220141517502</v>
       </c>
-      <c r="P13" s="122">
+      <c r="R13" s="122">
         <v>0.24606950030232899</v>
       </c>
-      <c r="Q13" s="122">
+      <c r="S13" s="122">
         <v>2.84498257716864E-2</v>
       </c>
-      <c r="R13" s="122">
+      <c r="T13" s="122">
         <v>4.1316405727836502E-3</v>
       </c>
-      <c r="S13" s="122">
+      <c r="U13" s="122">
         <v>-1.3302044231250001E-2</v>
       </c>
-      <c r="T13" s="122">
+      <c r="V13" s="122">
         <v>-8.8096155262962009E-2</v>
       </c>
-      <c r="U13" s="122">
+      <c r="W13" s="122">
         <v>0.146283390014428</v>
       </c>
-      <c r="V13" s="122">
+      <c r="X13" s="122">
         <v>0.16226204566646898</v>
       </c>
-      <c r="W13" s="122">
+      <c r="Y13" s="122">
         <v>0.12184432964144501</v>
       </c>
-      <c r="X13" s="122">
+      <c r="Z13" s="122">
         <v>-2.2964079036722801E-3</v>
       </c>
-      <c r="Y13" s="129">
-        <f>Z13/2</f>
+      <c r="AA13" s="129">
+        <f>AB13/2</f>
         <v>0.01</v>
-      </c>
-      <c r="Z13" s="129">
-        <v>0.02</v>
-      </c>
-      <c r="AA13" s="129">
-        <v>0.02</v>
       </c>
       <c r="AB13" s="129">
         <v>0.02</v>
@@ -6816,11 +6804,17 @@
       <c r="BB13" s="129">
         <v>0.02</v>
       </c>
-      <c r="BC13" s="146">
+      <c r="BC13" s="129">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="14" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD13" s="129">
+        <v>0.02</v>
+      </c>
+      <c r="BE13" s="146">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="104"/>
       <c r="C14" s="67" t="s">
         <v>78</v>
@@ -6833,185 +6827,187 @@
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
-      <c r="J14" s="104" t="str">
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104" t="str">
         <f>Defaults!B10</f>
         <v>MEUR15</v>
       </c>
-      <c r="K14" s="104" t="str">
+      <c r="M14" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L14"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="135" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O14" s="141">
-        <f>O12*Rates!$C$8</f>
+      <c r="N14"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="135" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q14" s="141">
+        <f>Q12*Rates!$C$8</f>
         <v>0.60848803017778275</v>
       </c>
-      <c r="P14" s="25">
-        <f>P12*Rates!$C$9</f>
+      <c r="R14" s="25">
+        <f>R12*Rates!$C$9</f>
         <v>0.78867073038035063</v>
       </c>
-      <c r="Q14" s="25">
-        <f>Q12*Rates!$C$10</f>
+      <c r="S14" s="25">
+        <f>S12*Rates!$C$10</f>
         <v>0.74354092577871789</v>
       </c>
-      <c r="R14" s="25">
-        <f>R12*Rates!$C$11</f>
+      <c r="T14" s="25">
+        <f>T12*Rates!$C$11</f>
         <v>0.76840035268972751</v>
       </c>
-      <c r="S14" s="25">
-        <f>S12*Rates!$C$12</f>
+      <c r="U14" s="25">
+        <f>U12*Rates!$C$12</f>
         <v>0.75336136947195065</v>
       </c>
-      <c r="T14" s="25">
-        <f>T12*Rates!$C$13</f>
+      <c r="V14" s="25">
+        <f>V12*Rates!$C$13</f>
         <v>0.7788810401414068</v>
       </c>
-      <c r="U14" s="25">
-        <f>U12*Rates!$C$14</f>
+      <c r="W14" s="25">
+        <f>W12*Rates!$C$14</f>
         <v>1.3442762137334652</v>
       </c>
-      <c r="V14" s="25">
-        <f>V12*Rates!$C$15</f>
+      <c r="X14" s="25">
+        <f>X12*Rates!$C$15</f>
         <v>1.7485789886692933</v>
       </c>
-      <c r="W14" s="25">
-        <f>W12*Rates!$C$16</f>
+      <c r="Y14" s="25">
+        <f>Y12*Rates!$C$16</f>
         <v>1.9815223307363259</v>
       </c>
-      <c r="X14" s="25">
-        <f>X12*Rates!$C$17</f>
+      <c r="Z14" s="25">
+        <f>Z12*Rates!$C$17</f>
         <v>1.8749174917491753</v>
-      </c>
-      <c r="Y14" s="25">
-        <f>Y12*Rates!$C$18</f>
-        <v>1.9416250000000006</v>
-      </c>
-      <c r="Z14" s="25">
-        <f>Z12*Rates!$C$18</f>
-        <v>1.9804575000000006</v>
       </c>
       <c r="AA14" s="25">
         <f>AA12*Rates!$C$18</f>
-        <v>2.0200666500000004</v>
+        <v>1.9416250000000006</v>
       </c>
       <c r="AB14" s="25">
         <f>AB12*Rates!$C$18</f>
-        <v>2.0604679830000006</v>
+        <v>1.9804575000000006</v>
       </c>
       <c r="AC14" s="25">
         <f>AC12*Rates!$C$18</f>
-        <v>2.1016773426600004</v>
+        <v>2.0200666500000004</v>
       </c>
       <c r="AD14" s="25">
         <f>AD12*Rates!$C$18</f>
-        <v>2.1437108895132004</v>
+        <v>2.0604679830000006</v>
       </c>
       <c r="AE14" s="25">
         <f>AE12*Rates!$C$18</f>
-        <v>2.1865851073034648</v>
+        <v>2.1016773426600004</v>
       </c>
       <c r="AF14" s="25">
         <f>AF12*Rates!$C$18</f>
-        <v>2.2303168094495338</v>
+        <v>2.1437108895132004</v>
       </c>
       <c r="AG14" s="25">
         <f>AG12*Rates!$C$18</f>
-        <v>2.274923145638525</v>
+        <v>2.1865851073034648</v>
       </c>
       <c r="AH14" s="25">
         <f>AH12*Rates!$C$18</f>
-        <v>2.3204216085512952</v>
+        <v>2.2303168094495338</v>
       </c>
       <c r="AI14" s="25">
         <f>AI12*Rates!$C$18</f>
-        <v>2.3668300407223213</v>
+        <v>2.274923145638525</v>
       </c>
       <c r="AJ14" s="25">
         <f>AJ12*Rates!$C$18</f>
-        <v>2.4141666415367675</v>
+        <v>2.3204216085512952</v>
       </c>
       <c r="AK14" s="25">
         <f>AK12*Rates!$C$18</f>
-        <v>2.462449974367503</v>
+        <v>2.3668300407223213</v>
       </c>
       <c r="AL14" s="25">
         <f>AL12*Rates!$C$18</f>
-        <v>2.5116989738548532</v>
+        <v>2.4141666415367675</v>
       </c>
       <c r="AM14" s="25">
         <f>AM12*Rates!$C$18</f>
-        <v>2.5619329533319508</v>
+        <v>2.462449974367503</v>
       </c>
       <c r="AN14" s="25">
         <f>AN12*Rates!$C$18</f>
-        <v>2.61317161239859</v>
+        <v>2.5116989738548532</v>
       </c>
       <c r="AO14" s="25">
         <f>AO12*Rates!$C$18</f>
-        <v>2.6654350446465616</v>
+        <v>2.5619329533319508</v>
       </c>
       <c r="AP14" s="25">
         <f>AP12*Rates!$C$18</f>
-        <v>2.7187437455394932</v>
+        <v>2.61317161239859</v>
       </c>
       <c r="AQ14" s="25">
         <f>AQ12*Rates!$C$18</f>
-        <v>2.7731186204502829</v>
+        <v>2.6654350446465616</v>
       </c>
       <c r="AR14" s="25">
         <f>AR12*Rates!$C$18</f>
-        <v>2.8285809928592882</v>
+        <v>2.7187437455394932</v>
       </c>
       <c r="AS14" s="25">
         <f>AS12*Rates!$C$18</f>
-        <v>2.8851526127164746</v>
+        <v>2.7731186204502829</v>
       </c>
       <c r="AT14" s="25">
         <f>AT12*Rates!$C$18</f>
-        <v>2.942855664970804</v>
+        <v>2.8285809928592882</v>
       </c>
       <c r="AU14" s="25">
         <f>AU12*Rates!$C$18</f>
-        <v>3.0017127782702202</v>
+        <v>2.8851526127164746</v>
       </c>
       <c r="AV14" s="25">
         <f>AV12*Rates!$C$18</f>
-        <v>3.061747033835625</v>
+        <v>2.942855664970804</v>
       </c>
       <c r="AW14" s="25">
         <f>AW12*Rates!$C$18</f>
-        <v>3.1229819745123377</v>
+        <v>3.0017127782702202</v>
       </c>
       <c r="AX14" s="25">
         <f>AX12*Rates!$C$18</f>
-        <v>3.1854416140025843</v>
+        <v>3.061747033835625</v>
       </c>
       <c r="AY14" s="25">
         <f>AY12*Rates!$C$18</f>
-        <v>3.2491504462826359</v>
+        <v>3.1229819745123377</v>
       </c>
       <c r="AZ14" s="25">
         <f>AZ12*Rates!$C$18</f>
-        <v>3.3141334552082888</v>
+        <v>3.1854416140025843</v>
       </c>
       <c r="BA14" s="25">
         <f>BA12*Rates!$C$18</f>
-        <v>3.3804161243124544</v>
+        <v>3.2491504462826359</v>
       </c>
       <c r="BB14" s="25">
         <f>BB12*Rates!$C$18</f>
+        <v>3.3141334552082888</v>
+      </c>
+      <c r="BC14" s="25">
+        <f>BC12*Rates!$C$18</f>
+        <v>3.3804161243124544</v>
+      </c>
+      <c r="BD14" s="25">
+        <f>BD12*Rates!$C$18</f>
         <v>3.448024446798704</v>
       </c>
-      <c r="BC14" s="26">
-        <f>BC12*Rates!$C$18</f>
+      <c r="BE14" s="26">
+        <f>BE12*Rates!$C$18</f>
         <v>3.5169849357346781</v>
       </c>
     </row>
-    <row r="15" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="104"/>
       <c r="C15" s="67" t="s">
         <v>78</v>
@@ -7024,185 +7020,187 @@
       <c r="G15" s="104"/>
       <c r="H15" s="104"/>
       <c r="I15" s="104"/>
-      <c r="J15" s="104" t="str">
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104" t="str">
         <f>Defaults!B11</f>
         <v>MEUR16</v>
       </c>
-      <c r="K15" s="104" t="str">
+      <c r="M15" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L15"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="135" t="s">
-        <v>1000</v>
-      </c>
-      <c r="O15" s="141">
-        <f>HLOOKUP($O$8,$O$10:$BC$12,3,FALSE)/7.45*O12</f>
+      <c r="N15"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="135" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q15" s="141">
+        <f>HLOOKUP($Q$8,$Q$10:$BE$12,3,FALSE)/7.45*Q12</f>
         <v>7.697378862471578E-2</v>
       </c>
-      <c r="P15" s="25">
-        <f t="shared" ref="P15:BC15" si="4">HLOOKUP($O$8,$O$10:$BC$12,3,FALSE)/7.45*P12</f>
+      <c r="R15" s="25">
+        <f t="shared" ref="R15:BE15" si="4">HLOOKUP($Q$8,$Q$10:$BE$12,3,FALSE)/7.45*R12</f>
         <v>9.5914690327976684E-2</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="S15" s="25">
         <f t="shared" si="4"/>
         <v>9.8643446556752848E-2</v>
       </c>
-      <c r="R15" s="25">
+      <c r="T15" s="25">
         <f t="shared" si="4"/>
         <v>9.9051005822785934E-2</v>
       </c>
-      <c r="S15" s="25">
+      <c r="U15" s="25">
         <f t="shared" si="4"/>
         <v>9.7733424962181431E-2</v>
       </c>
-      <c r="T15" s="25">
+      <c r="V15" s="25">
         <f t="shared" si="4"/>
         <v>8.9123485982332065E-2</v>
       </c>
-      <c r="U15" s="25">
+      <c r="W15" s="25">
         <f t="shared" si="4"/>
         <v>0.10216077164173094</v>
       </c>
-      <c r="V15" s="25">
+      <c r="X15" s="25">
         <f t="shared" si="4"/>
         <v>0.11873758743518321</v>
       </c>
-      <c r="W15" s="25">
+      <c r="Y15" s="25">
         <f t="shared" si="4"/>
         <v>0.13320508917946558</v>
       </c>
-      <c r="X15" s="25">
+      <c r="Z15" s="25">
         <f t="shared" si="4"/>
         <v>0.13289919595986449</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="AA15" s="25">
         <f t="shared" si="4"/>
         <v>0.13422818791946314</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="AB15" s="25">
         <f t="shared" si="4"/>
         <v>0.13691275167785241</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AC15" s="25">
         <f t="shared" si="4"/>
         <v>0.13965100671140945</v>
       </c>
-      <c r="AB15" s="25">
+      <c r="AD15" s="25">
         <f t="shared" si="4"/>
         <v>0.14244402684563764</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AE15" s="25">
         <f t="shared" si="4"/>
         <v>0.14529290738255038</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AF15" s="25">
         <f t="shared" si="4"/>
         <v>0.14819876553020139</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AG15" s="25">
         <f t="shared" si="4"/>
         <v>0.15116274084080544</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AH15" s="25">
         <f t="shared" si="4"/>
         <v>0.15418599565762153</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AI15" s="25">
         <f t="shared" si="4"/>
         <v>0.15726971557077399</v>
       </c>
-      <c r="AH15" s="25">
+      <c r="AJ15" s="25">
         <f t="shared" si="4"/>
         <v>0.16041510988218946</v>
       </c>
-      <c r="AI15" s="25">
+      <c r="AK15" s="25">
         <f t="shared" si="4"/>
         <v>0.16362341207983327</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AL15" s="25">
         <f t="shared" si="4"/>
         <v>0.16689588032142993</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AM15" s="25">
         <f t="shared" si="4"/>
         <v>0.17023379792785853</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AN15" s="25">
         <f t="shared" si="4"/>
         <v>0.17363847388641571</v>
       </c>
-      <c r="AM15" s="25">
+      <c r="AO15" s="25">
         <f t="shared" si="4"/>
         <v>0.17711124336414405</v>
       </c>
-      <c r="AN15" s="25">
+      <c r="AP15" s="25">
         <f t="shared" si="4"/>
         <v>0.18065346823142692</v>
       </c>
-      <c r="AO15" s="25">
+      <c r="AQ15" s="25">
         <f t="shared" si="4"/>
         <v>0.18426653759605546</v>
       </c>
-      <c r="AP15" s="25">
+      <c r="AR15" s="25">
         <f t="shared" si="4"/>
         <v>0.18795186834797659</v>
       </c>
-      <c r="AQ15" s="25">
+      <c r="AS15" s="25">
         <f t="shared" si="4"/>
         <v>0.19171090571493613</v>
       </c>
-      <c r="AR15" s="25">
+      <c r="AT15" s="25">
         <f t="shared" si="4"/>
         <v>0.19554512382923483</v>
       </c>
-      <c r="AS15" s="25">
+      <c r="AU15" s="25">
         <f t="shared" si="4"/>
         <v>0.19945602630581954</v>
       </c>
-      <c r="AT15" s="25">
+      <c r="AV15" s="25">
         <f t="shared" si="4"/>
         <v>0.20344514683193596</v>
       </c>
-      <c r="AU15" s="25">
+      <c r="AW15" s="25">
         <f t="shared" si="4"/>
         <v>0.20751404976857468</v>
       </c>
-      <c r="AV15" s="25">
+      <c r="AX15" s="25">
         <f t="shared" si="4"/>
         <v>0.2116643307639462</v>
       </c>
-      <c r="AW15" s="25">
+      <c r="AY15" s="25">
         <f t="shared" si="4"/>
         <v>0.21589761737922511</v>
       </c>
-      <c r="AX15" s="25">
+      <c r="AZ15" s="25">
         <f t="shared" si="4"/>
         <v>0.22021556972680961</v>
       </c>
-      <c r="AY15" s="25">
+      <c r="BA15" s="25">
         <f t="shared" si="4"/>
         <v>0.22461988112134582</v>
       </c>
-      <c r="AZ15" s="25">
+      <c r="BB15" s="25">
         <f t="shared" si="4"/>
         <v>0.22911227874377274</v>
       </c>
-      <c r="BA15" s="25">
+      <c r="BC15" s="25">
         <f t="shared" si="4"/>
         <v>0.23369452431864821</v>
       </c>
-      <c r="BB15" s="25">
+      <c r="BD15" s="25">
         <f t="shared" si="4"/>
         <v>0.23836841480502119</v>
       </c>
-      <c r="BC15" s="26">
+      <c r="BE15" s="26">
         <f t="shared" si="4"/>
         <v>0.24313578310112163</v>
       </c>
     </row>
-    <row r="16" spans="2:55" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="104"/>
       <c r="C16" s="67" t="s">
         <v>78</v>
@@ -7215,184 +7213,186 @@
       <c r="G16" s="104"/>
       <c r="H16" s="104"/>
       <c r="I16" s="104"/>
-      <c r="J16" s="104" t="str">
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104" t="str">
         <f>Defaults!B12</f>
         <v>MEUR17</v>
       </c>
-      <c r="K16" s="104" t="str">
+      <c r="M16" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L16"/>
-      <c r="N16" s="135" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O16" s="141">
-        <f>XCHG_rates!C10*O12</f>
+      <c r="N16"/>
+      <c r="P16" s="135" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q16" s="141">
+        <f>XCHG_rates!C10*Q12</f>
         <v>7.1616599536136943E-2</v>
       </c>
-      <c r="P16" s="25">
-        <f>XCHG_rates!D10*P12</f>
+      <c r="R16" s="25">
+        <f>XCHG_rates!D10*R12</f>
         <v>9.1651640423700817E-2</v>
       </c>
-      <c r="Q16" s="25">
-        <f>XCHG_rates!E10*Q12</f>
+      <c r="S16" s="25">
+        <f>XCHG_rates!E10*S12</f>
         <v>9.8269499928457155E-2</v>
       </c>
-      <c r="R16" s="25">
-        <f>XCHG_rates!F10*R12</f>
+      <c r="T16" s="25">
+        <f>XCHG_rates!F10*T12</f>
         <v>9.465449029818214E-2</v>
       </c>
-      <c r="S16" s="25">
-        <f>XCHG_rates!G10*S12</f>
+      <c r="U16" s="25">
+        <f>XCHG_rates!G10*U12</f>
         <v>8.71979926336897E-2</v>
       </c>
-      <c r="T16" s="25">
-        <f>XCHG_rates!H10*T12</f>
+      <c r="V16" s="25">
+        <f>XCHG_rates!H10*V12</f>
         <v>7.4266036857875625E-2</v>
-      </c>
-      <c r="U16" s="25">
-        <f>XCHG_rates!$I$10*U12</f>
-        <v>8.1967729764408137E-2</v>
-      </c>
-      <c r="V16" s="25">
-        <f>XCHG_rates!$I$10*V12</f>
-        <v>9.526798127461733E-2</v>
       </c>
       <c r="W16" s="25">
         <f>XCHG_rates!$I$10*W12</f>
-        <v>0.10687584458931682</v>
+        <v>8.1967729764408137E-2</v>
       </c>
       <c r="X16" s="25">
         <f>XCHG_rates!$I$10*X12</f>
-        <v>0.10663041405509027</v>
+        <v>9.526798127461733E-2</v>
       </c>
       <c r="Y16" s="25">
         <f>XCHG_rates!$I$10*Y12</f>
-        <v>0.10769671819564118</v>
+        <v>0.10687584458931682</v>
       </c>
       <c r="Z16" s="25">
         <f>XCHG_rates!$I$10*Z12</f>
-        <v>0.10985065255955401</v>
+        <v>0.10663041405509027</v>
       </c>
       <c r="AA16" s="25">
         <f>XCHG_rates!$I$10*AA12</f>
-        <v>0.11204766561074508</v>
+        <v>0.10769671819564118</v>
       </c>
       <c r="AB16" s="25">
         <f>XCHG_rates!$I$10*AB12</f>
-        <v>0.11428861892295997</v>
+        <v>0.10985065255955401</v>
       </c>
       <c r="AC16" s="25">
         <f>XCHG_rates!$I$10*AC12</f>
-        <v>0.11657439130141918</v>
+        <v>0.11204766561074508</v>
       </c>
       <c r="AD16" s="25">
         <f>XCHG_rates!$I$10*AD12</f>
-        <v>0.11890587912744756</v>
+        <v>0.11428861892295997</v>
       </c>
       <c r="AE16" s="25">
         <f>XCHG_rates!$I$10*AE12</f>
-        <v>0.12128399670999652</v>
+        <v>0.11657439130141918</v>
       </c>
       <c r="AF16" s="25">
         <f>XCHG_rates!$I$10*AF12</f>
-        <v>0.12370967664419645</v>
+        <v>0.11890587912744756</v>
       </c>
       <c r="AG16" s="25">
         <f>XCHG_rates!$I$10*AG12</f>
-        <v>0.12618387017708038</v>
+        <v>0.12128399670999652</v>
       </c>
       <c r="AH16" s="25">
         <f>XCHG_rates!$I$10*AH12</f>
-        <v>0.128707547580622</v>
+        <v>0.12370967664419645</v>
       </c>
       <c r="AI16" s="25">
         <f>XCHG_rates!$I$10*AI12</f>
-        <v>0.13128169853223443</v>
+        <v>0.12618387017708038</v>
       </c>
       <c r="AJ16" s="25">
         <f>XCHG_rates!$I$10*AJ12</f>
-        <v>0.13390733250287912</v>
+        <v>0.128707547580622</v>
       </c>
       <c r="AK16" s="25">
         <f>XCHG_rates!$I$10*AK12</f>
-        <v>0.1365854791529367</v>
+        <v>0.13128169853223443</v>
       </c>
       <c r="AL16" s="25">
         <f>XCHG_rates!$I$10*AL12</f>
-        <v>0.13931718873599547</v>
+        <v>0.13390733250287912</v>
       </c>
       <c r="AM16" s="25">
         <f>XCHG_rates!$I$10*AM12</f>
-        <v>0.14210353251071536</v>
+        <v>0.1365854791529367</v>
       </c>
       <c r="AN16" s="25">
         <f>XCHG_rates!$I$10*AN12</f>
-        <v>0.14494560316092969</v>
+        <v>0.13931718873599547</v>
       </c>
       <c r="AO16" s="25">
         <f>XCHG_rates!$I$10*AO12</f>
-        <v>0.14784451522414829</v>
+        <v>0.14210353251071536</v>
       </c>
       <c r="AP16" s="25">
         <f>XCHG_rates!$I$10*AP12</f>
-        <v>0.15080140552863125</v>
+        <v>0.14494560316092969</v>
       </c>
       <c r="AQ16" s="25">
         <f>XCHG_rates!$I$10*AQ12</f>
-        <v>0.15381743363920389</v>
+        <v>0.14784451522414829</v>
       </c>
       <c r="AR16" s="25">
         <f>XCHG_rates!$I$10*AR12</f>
-        <v>0.15689378231198797</v>
+        <v>0.15080140552863125</v>
       </c>
       <c r="AS16" s="25">
         <f>XCHG_rates!$I$10*AS12</f>
-        <v>0.16003165795822774</v>
+        <v>0.15381743363920389</v>
       </c>
       <c r="AT16" s="25">
         <f>XCHG_rates!$I$10*AT12</f>
-        <v>0.16323229111739229</v>
+        <v>0.15689378231198797</v>
       </c>
       <c r="AU16" s="25">
         <f>XCHG_rates!$I$10*AU12</f>
-        <v>0.16649693693974016</v>
+        <v>0.16003165795822774</v>
       </c>
       <c r="AV16" s="25">
         <f>XCHG_rates!$I$10*AV12</f>
-        <v>0.16982687567853497</v>
+        <v>0.16323229111739229</v>
       </c>
       <c r="AW16" s="25">
         <f>XCHG_rates!$I$10*AW12</f>
-        <v>0.17322341319210566</v>
+        <v>0.16649693693974016</v>
       </c>
       <c r="AX16" s="25">
         <f>XCHG_rates!$I$10*AX12</f>
-        <v>0.17668788145594777</v>
+        <v>0.16982687567853497</v>
       </c>
       <c r="AY16" s="25">
         <f>XCHG_rates!$I$10*AY12</f>
-        <v>0.18022163908506672</v>
+        <v>0.17322341319210566</v>
       </c>
       <c r="AZ16" s="25">
         <f>XCHG_rates!$I$10*AZ12</f>
-        <v>0.18382607186676808</v>
+        <v>0.17668788145594777</v>
       </c>
       <c r="BA16" s="25">
         <f>XCHG_rates!$I$10*BA12</f>
-        <v>0.18750259330410343</v>
+        <v>0.18022163908506672</v>
       </c>
       <c r="BB16" s="25">
         <f>XCHG_rates!$I$10*BB12</f>
+        <v>0.18382607186676808</v>
+      </c>
+      <c r="BC16" s="25">
+        <f>XCHG_rates!$I$10*BC12</f>
+        <v>0.18750259330410343</v>
+      </c>
+      <c r="BD16" s="25">
+        <f>XCHG_rates!$I$10*BD12</f>
         <v>0.19125264517018553</v>
       </c>
-      <c r="BC16" s="26">
-        <f>XCHG_rates!$I$10*BC12</f>
+      <c r="BE16" s="26">
+        <f>XCHG_rates!$I$10*BE12</f>
         <v>0.19507769807358924</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="104"/>
       <c r="C17" s="67" t="s">
         <v>78</v>
@@ -7405,184 +7405,186 @@
       <c r="G17" s="104"/>
       <c r="H17" s="104"/>
       <c r="I17" s="104"/>
-      <c r="J17" s="104" t="str">
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104" t="str">
         <f>Defaults!B13</f>
         <v>MEUR18</v>
       </c>
-      <c r="K17" s="104" t="str">
+      <c r="M17" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L17"/>
-      <c r="N17" s="147" t="s">
-        <v>1003</v>
-      </c>
-      <c r="O17" s="148">
-        <f>XCHG_rates!C9*O12</f>
+      <c r="N17"/>
+      <c r="P17" s="147" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q17" s="148">
+        <f>XCHG_rates!C9*Q12</f>
         <v>6.0102368152571709E-2</v>
       </c>
-      <c r="P17" s="27">
-        <f>XCHG_rates!D9*P12</f>
+      <c r="R17" s="27">
+        <f>XCHG_rates!D9*R12</f>
         <v>7.9101615425186927E-2</v>
       </c>
-      <c r="Q17" s="27">
-        <f>XCHG_rates!E9*Q12</f>
+      <c r="S17" s="27">
+        <f>XCHG_rates!E9*S12</f>
         <v>8.4419109835135911E-2</v>
       </c>
-      <c r="R17" s="27">
-        <f>XCHG_rates!F9*R12</f>
+      <c r="T17" s="27">
+        <f>XCHG_rates!F9*T12</f>
         <v>8.5315743679302045E-2</v>
       </c>
-      <c r="S17" s="27">
-        <f>XCHG_rates!G9*S12</f>
+      <c r="U17" s="27">
+        <f>XCHG_rates!G9*U12</f>
         <v>8.0040675398849209E-2</v>
       </c>
-      <c r="T17" s="27">
-        <f>XCHG_rates!H9*T12</f>
+      <c r="V17" s="27">
+        <f>XCHG_rates!H9*V12</f>
         <v>7.0965773558535908E-2</v>
-      </c>
-      <c r="U17" s="27">
-        <f>XCHG_rates!$I$9*U12</f>
-        <v>8.0365955897416741E-2</v>
-      </c>
-      <c r="V17" s="27">
-        <f>XCHG_rates!$I$9*V12</f>
-        <v>9.3406300303272807E-2</v>
       </c>
       <c r="W17" s="27">
         <f>XCHG_rates!$I$9*W12</f>
-        <v>0.10478732834801259</v>
+        <v>8.0365955897416741E-2</v>
       </c>
       <c r="X17" s="27">
         <f>XCHG_rates!$I$9*X12</f>
-        <v>0.10454669389898953</v>
+        <v>9.3406300303272807E-2</v>
       </c>
       <c r="Y17" s="27">
         <f>XCHG_rates!$I$9*Y12</f>
-        <v>0.10559216083797943</v>
+        <v>0.10478732834801259</v>
       </c>
       <c r="Z17" s="27">
         <f>XCHG_rates!$I$9*Z12</f>
-        <v>0.10770400405473901</v>
+        <v>0.10454669389898953</v>
       </c>
       <c r="AA17" s="27">
         <f>XCHG_rates!$I$9*AA12</f>
-        <v>0.10985808413583378</v>
+        <v>0.10559216083797943</v>
       </c>
       <c r="AB17" s="27">
         <f>XCHG_rates!$I$9*AB12</f>
-        <v>0.11205524581855046</v>
+        <v>0.10770400405473901</v>
       </c>
       <c r="AC17" s="27">
         <f>XCHG_rates!$I$9*AC12</f>
-        <v>0.11429635073492148</v>
+        <v>0.10985808413583378</v>
       </c>
       <c r="AD17" s="27">
         <f>XCHG_rates!$I$9*AD12</f>
-        <v>0.11658227774961991</v>
+        <v>0.11205524581855046</v>
       </c>
       <c r="AE17" s="27">
         <f>XCHG_rates!$I$9*AE12</f>
-        <v>0.11891392330461231</v>
+        <v>0.11429635073492148</v>
       </c>
       <c r="AF17" s="27">
         <f>XCHG_rates!$I$9*AF12</f>
-        <v>0.12129220177070454</v>
+        <v>0.11658227774961991</v>
       </c>
       <c r="AG17" s="27">
         <f>XCHG_rates!$I$9*AG12</f>
-        <v>0.12371804580611866</v>
+        <v>0.11891392330461231</v>
       </c>
       <c r="AH17" s="27">
         <f>XCHG_rates!$I$9*AH12</f>
-        <v>0.12619240672224102</v>
+        <v>0.12129220177070454</v>
       </c>
       <c r="AI17" s="27">
         <f>XCHG_rates!$I$9*AI12</f>
-        <v>0.12871625485668584</v>
+        <v>0.12371804580611866</v>
       </c>
       <c r="AJ17" s="27">
         <f>XCHG_rates!$I$9*AJ12</f>
-        <v>0.13129057995381957</v>
+        <v>0.12619240672224102</v>
       </c>
       <c r="AK17" s="27">
         <f>XCHG_rates!$I$9*AK12</f>
-        <v>0.13391639155289595</v>
+        <v>0.12871625485668584</v>
       </c>
       <c r="AL17" s="27">
         <f>XCHG_rates!$I$9*AL12</f>
-        <v>0.1365947193839539</v>
+        <v>0.13129057995381957</v>
       </c>
       <c r="AM17" s="27">
         <f>XCHG_rates!$I$9*AM12</f>
-        <v>0.13932661377163297</v>
+        <v>0.13391639155289595</v>
       </c>
       <c r="AN17" s="27">
         <f>XCHG_rates!$I$9*AN12</f>
-        <v>0.14211314604706565</v>
+        <v>0.1365947193839539</v>
       </c>
       <c r="AO17" s="27">
         <f>XCHG_rates!$I$9*AO12</f>
-        <v>0.14495540896800696</v>
+        <v>0.13932661377163297</v>
       </c>
       <c r="AP17" s="27">
         <f>XCHG_rates!$I$9*AP12</f>
-        <v>0.14785451714736711</v>
+        <v>0.14211314604706565</v>
       </c>
       <c r="AQ17" s="27">
         <f>XCHG_rates!$I$9*AQ12</f>
-        <v>0.15081160749031444</v>
+        <v>0.14495540896800696</v>
       </c>
       <c r="AR17" s="27">
         <f>XCHG_rates!$I$9*AR12</f>
-        <v>0.15382783964012073</v>
+        <v>0.14785451714736711</v>
       </c>
       <c r="AS17" s="27">
         <f>XCHG_rates!$I$9*AS12</f>
-        <v>0.15690439643292317</v>
+        <v>0.15081160749031444</v>
       </c>
       <c r="AT17" s="27">
         <f>XCHG_rates!$I$9*AT12</f>
-        <v>0.16004248436158164</v>
+        <v>0.15382783964012073</v>
       </c>
       <c r="AU17" s="27">
         <f>XCHG_rates!$I$9*AU12</f>
-        <v>0.16324333404881328</v>
+        <v>0.15690439643292317</v>
       </c>
       <c r="AV17" s="27">
         <f>XCHG_rates!$I$9*AV12</f>
-        <v>0.16650820072978956</v>
+        <v>0.16004248436158164</v>
       </c>
       <c r="AW17" s="27">
         <f>XCHG_rates!$I$9*AW12</f>
-        <v>0.16983836474438535</v>
+        <v>0.16324333404881328</v>
       </c>
       <c r="AX17" s="27">
         <f>XCHG_rates!$I$9*AX12</f>
-        <v>0.17323513203927304</v>
+        <v>0.16650820072978956</v>
       </c>
       <c r="AY17" s="27">
         <f>XCHG_rates!$I$9*AY12</f>
-        <v>0.17669983468005851</v>
+        <v>0.16983836474438535</v>
       </c>
       <c r="AZ17" s="27">
         <f>XCHG_rates!$I$9*AZ12</f>
-        <v>0.18023383137365967</v>
+        <v>0.17323513203927304</v>
       </c>
       <c r="BA17" s="27">
         <f>XCHG_rates!$I$9*BA12</f>
-        <v>0.18383850800113288</v>
+        <v>0.17669983468005851</v>
       </c>
       <c r="BB17" s="27">
         <f>XCHG_rates!$I$9*BB12</f>
+        <v>0.18023383137365967</v>
+      </c>
+      <c r="BC17" s="27">
+        <f>XCHG_rates!$I$9*BC12</f>
+        <v>0.18383850800113288</v>
+      </c>
+      <c r="BD17" s="27">
+        <f>XCHG_rates!$I$9*BD12</f>
         <v>0.18751527816115557</v>
       </c>
-      <c r="BC17" s="28">
-        <f>XCHG_rates!$I$9*BC12</f>
+      <c r="BE17" s="28">
+        <f>XCHG_rates!$I$9*BE12</f>
         <v>0.19126558372437868</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="104"/>
       <c r="C18" s="67" t="s">
         <v>78</v>
@@ -7595,18 +7597,18 @@
       <c r="G18" s="104"/>
       <c r="H18" s="104"/>
       <c r="I18" s="104"/>
-      <c r="J18" s="104" t="str">
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104" t="str">
         <f>Defaults!B14</f>
         <v>MEUR19</v>
       </c>
-      <c r="K18" s="104" t="str">
+      <c r="M18" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L18"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="N18"/>
+      <c r="P18" s="29"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -7617,8 +7619,8 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
@@ -7646,32 +7648,34 @@
       <c r="BA18"/>
       <c r="BB18"/>
       <c r="BC18"/>
-    </row>
-    <row r="19" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD18"/>
+      <c r="BE18"/>
+    </row>
+    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="99"/>
       <c r="C19" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="102" cm="1">
-        <f t="array" ref="E19:E29">TRANSPOSE(O15:Y15)</f>
+        <f t="array" ref="E19:E29">TRANSPOSE(Q15:AA15)</f>
         <v>7.697378862471578E-2</v>
       </c>
       <c r="F19" s="102"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99" t="s">
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="103" t="str">
+      <c r="M19" s="103" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L19"/>
-      <c r="N19" s="36"/>
-      <c r="O19"/>
-      <c r="P19"/>
+      <c r="N19"/>
+      <c r="P19" s="36"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -7711,8 +7715,10 @@
       <c r="BA19"/>
       <c r="BB19"/>
       <c r="BC19"/>
-    </row>
-    <row r="20" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD19"/>
+      <c r="BE19"/>
+    </row>
+    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="99"/>
       <c r="C20" s="67" t="s">
         <v>78</v>
@@ -7724,20 +7730,20 @@
       <c r="F20" s="102"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99" t="s">
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="104" t="str">
+      <c r="M20" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L20"/>
-      <c r="N20" s="37" t="s">
+      <c r="N20"/>
+      <c r="P20" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
       <c r="Q20" s="116"/>
       <c r="R20" s="116"/>
       <c r="S20" s="116"/>
@@ -7746,8 +7752,8 @@
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="116"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
@@ -7777,8 +7783,10 @@
       <c r="BA20"/>
       <c r="BB20"/>
       <c r="BC20"/>
-    </row>
-    <row r="21" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD20"/>
+      <c r="BE20"/>
+    </row>
+    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="99"/>
       <c r="C21" s="67" t="s">
         <v>78</v>
@@ -7790,27 +7798,27 @@
       <c r="F21" s="102"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99" t="s">
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="104" t="str">
+      <c r="M21" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L21"/>
-      <c r="N21" s="119">
+      <c r="N21"/>
+      <c r="P21" s="119">
         <v>44351</v>
       </c>
-      <c r="O21" s="128" t="s">
+      <c r="Q21" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="127" t="s">
-        <v>986</v>
-      </c>
-      <c r="Q21" s="54"/>
-      <c r="R21"/>
-      <c r="S21"/>
+      <c r="R21" s="127" t="s">
+        <v>982</v>
+      </c>
+      <c r="S21" s="54"/>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
@@ -7847,8 +7855,10 @@
       <c r="BA21"/>
       <c r="BB21"/>
       <c r="BC21"/>
-    </row>
-    <row r="22" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BD21"/>
+      <c r="BE21"/>
+    </row>
+    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="99"/>
       <c r="C22" s="67" t="s">
         <v>78</v>
@@ -7860,21 +7870,21 @@
       <c r="F22" s="102"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99" t="s">
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="104" t="str">
+      <c r="M22" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L22"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
+      <c r="N22"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22"/>
       <c r="T22" s="30"/>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
@@ -7910,9 +7920,11 @@
       <c r="AZ22" s="30"/>
       <c r="BA22" s="30"/>
       <c r="BB22" s="30"/>
-      <c r="BC22"/>
-    </row>
-    <row r="23" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22"/>
+    </row>
+    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="104"/>
       <c r="C23" s="105" t="s">
         <v>78</v>
@@ -7924,20 +7936,22 @@
       <c r="F23" s="106"/>
       <c r="G23" s="106"/>
       <c r="H23" s="106"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104" t="s">
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="104" t="str">
+      <c r="M23" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L23"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-    </row>
-    <row r="24" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="104"/>
       <c r="C24" s="105" t="s">
@@ -7950,18 +7964,20 @@
       <c r="F24" s="106"/>
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104" t="s">
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104" t="s">
         <v>946</v>
       </c>
-      <c r="K24" s="104" t="str">
+      <c r="M24" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L24"/>
-      <c r="N24" s="113"/>
-    </row>
-    <row r="25" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N24"/>
+      <c r="P24" s="113"/>
+    </row>
+    <row r="25" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="104"/>
       <c r="C25" s="105" t="s">
@@ -7974,21 +7990,23 @@
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
       <c r="H25" s="106"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="107" t="s">
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="107" t="s">
         <v>944</v>
       </c>
-      <c r="K25" s="104" t="str">
+      <c r="M25" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L25"/>
-      <c r="R25" s="121" t="s">
-        <v>985</v>
-      </c>
-      <c r="S25" s="54"/>
-    </row>
-    <row r="26" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N25"/>
+      <c r="T25" s="121" t="s">
+        <v>981</v>
+      </c>
+      <c r="U25" s="54"/>
+    </row>
+    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="104"/>
       <c r="C26" s="105" t="s">
         <v>78</v>
@@ -8000,23 +8018,25 @@
       <c r="F26" s="106"/>
       <c r="G26" s="106"/>
       <c r="H26" s="106"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="107" t="s">
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="107" t="s">
         <v>945</v>
       </c>
-      <c r="K26" s="104" t="str">
+      <c r="M26" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L26"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="121"/>
+      <c r="N26"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
       <c r="S26" s="54"/>
-    </row>
-    <row r="27" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="T26" s="121"/>
+      <c r="U26" s="54"/>
+    </row>
+    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="104"/>
       <c r="C27" s="105" t="s">
         <v>78</v>
@@ -8028,23 +8048,25 @@
       <c r="F27" s="106"/>
       <c r="G27" s="106"/>
       <c r="H27" s="106"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="107" t="s">
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="107" t="s">
         <v>962</v>
       </c>
-      <c r="K27" s="104" t="str">
+      <c r="M27" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L27"/>
-      <c r="N27" s="20" t="s">
+      <c r="N27"/>
+      <c r="P27" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="62" t="s">
+      <c r="Q27" s="62" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B28" s="104"/>
       <c r="C28" s="105" t="s">
         <v>78</v>
@@ -8056,185 +8078,187 @@
       <c r="F28" s="106"/>
       <c r="G28" s="106"/>
       <c r="H28" s="106"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="107" t="s">
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="107" t="s">
         <v>963</v>
       </c>
-      <c r="K28" s="104" t="str">
+      <c r="M28" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L28"/>
-      <c r="N28" s="56">
-        <f t="shared" ref="N28:BC28" si="5">N10</f>
+      <c r="N28"/>
+      <c r="P28" s="56">
+        <f t="shared" ref="P28:BE28" si="5">P10</f>
         <v>0</v>
       </c>
-      <c r="O28" s="56">
+      <c r="Q28" s="56">
         <f t="shared" si="5"/>
         <v>2010</v>
       </c>
-      <c r="P28" s="56">
+      <c r="R28" s="56">
         <f t="shared" si="5"/>
         <v>2011</v>
       </c>
-      <c r="Q28" s="56">
+      <c r="S28" s="56">
         <f t="shared" si="5"/>
         <v>2012</v>
       </c>
-      <c r="R28" s="56">
+      <c r="T28" s="56">
         <f t="shared" si="5"/>
         <v>2013</v>
       </c>
-      <c r="S28" s="56">
+      <c r="U28" s="56">
         <f t="shared" si="5"/>
         <v>2014</v>
       </c>
-      <c r="T28" s="56">
+      <c r="V28" s="56">
         <f t="shared" si="5"/>
         <v>2015</v>
       </c>
-      <c r="U28" s="56">
+      <c r="W28" s="56">
         <f t="shared" si="5"/>
         <v>2016</v>
       </c>
-      <c r="V28" s="56">
+      <c r="X28" s="56">
         <f t="shared" si="5"/>
         <v>2017</v>
       </c>
-      <c r="W28" s="56">
+      <c r="Y28" s="56">
         <f t="shared" si="5"/>
         <v>2018</v>
       </c>
-      <c r="X28" s="56">
+      <c r="Z28" s="56">
         <f t="shared" si="5"/>
         <v>2019</v>
       </c>
-      <c r="Y28" s="56">
+      <c r="AA28" s="56">
         <f t="shared" si="5"/>
         <v>2020</v>
       </c>
-      <c r="Z28" s="56">
+      <c r="AB28" s="56">
         <f t="shared" si="5"/>
         <v>2021</v>
       </c>
-      <c r="AA28" s="56">
+      <c r="AC28" s="56">
         <f t="shared" si="5"/>
         <v>2022</v>
       </c>
-      <c r="AB28" s="56">
+      <c r="AD28" s="56">
         <f t="shared" si="5"/>
         <v>2023</v>
       </c>
-      <c r="AC28" s="56">
+      <c r="AE28" s="56">
         <f t="shared" si="5"/>
         <v>2024</v>
       </c>
-      <c r="AD28" s="56">
+      <c r="AF28" s="56">
         <f t="shared" si="5"/>
         <v>2025</v>
       </c>
-      <c r="AE28" s="56">
+      <c r="AG28" s="56">
         <f t="shared" si="5"/>
         <v>2026</v>
       </c>
-      <c r="AF28" s="56">
+      <c r="AH28" s="56">
         <f t="shared" si="5"/>
         <v>2027</v>
       </c>
-      <c r="AG28" s="56">
+      <c r="AI28" s="56">
         <f t="shared" si="5"/>
         <v>2028</v>
       </c>
-      <c r="AH28" s="56">
+      <c r="AJ28" s="56">
         <f t="shared" si="5"/>
         <v>2029</v>
       </c>
-      <c r="AI28" s="56">
+      <c r="AK28" s="56">
         <f t="shared" si="5"/>
         <v>2030</v>
       </c>
-      <c r="AJ28" s="56">
+      <c r="AL28" s="56">
         <f t="shared" si="5"/>
         <v>2031</v>
       </c>
-      <c r="AK28" s="56">
+      <c r="AM28" s="56">
         <f t="shared" si="5"/>
         <v>2032</v>
       </c>
-      <c r="AL28" s="56">
+      <c r="AN28" s="56">
         <f t="shared" si="5"/>
         <v>2033</v>
       </c>
-      <c r="AM28" s="56">
+      <c r="AO28" s="56">
         <f t="shared" si="5"/>
         <v>2034</v>
       </c>
-      <c r="AN28" s="56">
+      <c r="AP28" s="56">
         <f t="shared" si="5"/>
         <v>2035</v>
       </c>
-      <c r="AO28" s="56">
+      <c r="AQ28" s="56">
         <f t="shared" si="5"/>
         <v>2036</v>
       </c>
-      <c r="AP28" s="56">
+      <c r="AR28" s="56">
         <f t="shared" si="5"/>
         <v>2037</v>
       </c>
-      <c r="AQ28" s="56">
+      <c r="AS28" s="56">
         <f t="shared" si="5"/>
         <v>2038</v>
       </c>
-      <c r="AR28" s="56">
+      <c r="AT28" s="56">
         <f t="shared" si="5"/>
         <v>2039</v>
       </c>
-      <c r="AS28" s="56">
+      <c r="AU28" s="56">
         <f t="shared" si="5"/>
         <v>2040</v>
       </c>
-      <c r="AT28" s="56">
+      <c r="AV28" s="56">
         <f t="shared" si="5"/>
         <v>2041</v>
       </c>
-      <c r="AU28" s="56">
+      <c r="AW28" s="56">
         <f t="shared" si="5"/>
         <v>2042</v>
       </c>
-      <c r="AV28" s="56">
+      <c r="AX28" s="56">
         <f t="shared" si="5"/>
         <v>2043</v>
       </c>
-      <c r="AW28" s="56">
+      <c r="AY28" s="56">
         <f t="shared" si="5"/>
         <v>2044</v>
       </c>
-      <c r="AX28" s="56">
+      <c r="AZ28" s="56">
         <f t="shared" si="5"/>
         <v>2045</v>
       </c>
-      <c r="AY28" s="56">
+      <c r="BA28" s="56">
         <f t="shared" si="5"/>
         <v>2046</v>
       </c>
-      <c r="AZ28" s="56">
+      <c r="BB28" s="56">
         <f t="shared" si="5"/>
         <v>2047</v>
       </c>
-      <c r="BA28" s="56">
+      <c r="BC28" s="56">
         <f t="shared" si="5"/>
         <v>2048</v>
       </c>
-      <c r="BB28" s="56">
+      <c r="BD28" s="56">
         <f t="shared" si="5"/>
         <v>2049</v>
       </c>
-      <c r="BC28" s="56">
+      <c r="BE28" s="56">
         <f t="shared" si="5"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:58" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="100"/>
       <c r="C29" s="101" t="s">
@@ -8247,188 +8271,190 @@
       <c r="F29" s="108"/>
       <c r="G29" s="108"/>
       <c r="H29" s="108"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="109" t="s">
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="109" t="s">
         <v>964</v>
       </c>
-      <c r="K29" s="100" t="str">
+      <c r="M29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L29" s="41"/>
-      <c r="N29" s="56" t="str">
-        <f t="shared" ref="N29:BC29" si="6">N11</f>
+      <c r="N29" s="41"/>
+      <c r="P29" s="56" t="str">
+        <f t="shared" ref="P29:BE29" si="6">P11</f>
         <v>PYF (BVT-Deflator)</v>
       </c>
-      <c r="O29" s="60">
+      <c r="Q29" s="60">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P29" s="60">
+      <c r="R29" s="60">
         <f t="shared" si="6"/>
         <v>1.246069500302329</v>
       </c>
-      <c r="Q29" s="60">
+      <c r="S29" s="60">
         <f t="shared" si="6"/>
         <v>1.2815199604853424</v>
       </c>
-      <c r="R29" s="60">
+      <c r="T29" s="60">
         <f t="shared" si="6"/>
         <v>1.2868147403489156</v>
       </c>
-      <c r="S29" s="60">
+      <c r="U29" s="60">
         <f t="shared" si="6"/>
         <v>1.2696974737553699</v>
       </c>
-      <c r="T29" s="60">
+      <c r="V29" s="60">
         <f t="shared" si="6"/>
         <v>1.1578420079704261</v>
       </c>
-      <c r="U29" s="60">
+      <c r="W29" s="60">
         <f t="shared" si="6"/>
         <v>1.3272150619974525</v>
       </c>
-      <c r="V29" s="60">
+      <c r="X29" s="60">
         <f t="shared" si="6"/>
         <v>1.5425716929965085</v>
       </c>
-      <c r="W29" s="60">
+      <c r="Y29" s="60">
         <f t="shared" si="6"/>
         <v>1.7305253068535371</v>
       </c>
-      <c r="X29" s="60">
+      <c r="Z29" s="60">
         <f t="shared" si="6"/>
         <v>1.7265513148613738</v>
       </c>
-      <c r="Y29" s="60">
+      <c r="AA29" s="60">
         <f t="shared" si="6"/>
         <v>1.7438168280099875</v>
       </c>
-      <c r="Z29" s="60">
+      <c r="AB29" s="60">
         <f t="shared" si="6"/>
         <v>1.7786931645701873</v>
       </c>
-      <c r="AA29" s="60">
+      <c r="AC29" s="60">
         <f t="shared" si="6"/>
         <v>1.8142670278615911</v>
       </c>
-      <c r="AB29" s="60">
+      <c r="AD29" s="60">
         <f t="shared" si="6"/>
         <v>1.850552368418823</v>
       </c>
-      <c r="AC29" s="60">
+      <c r="AE29" s="60">
         <f t="shared" si="6"/>
         <v>1.8875634157871994</v>
       </c>
-      <c r="AD29" s="60">
+      <c r="AF29" s="60">
         <f t="shared" si="6"/>
         <v>1.9253146841029434</v>
       </c>
-      <c r="AE29" s="60">
+      <c r="AG29" s="60">
         <f t="shared" si="6"/>
         <v>1.9638209777850022</v>
       </c>
-      <c r="AF29" s="60">
+      <c r="AH29" s="60">
         <f t="shared" si="6"/>
         <v>2.0030973973407025</v>
       </c>
-      <c r="AG29" s="60">
+      <c r="AI29" s="60">
         <f t="shared" si="6"/>
         <v>2.0431593452875165</v>
       </c>
-      <c r="AH29" s="60">
+      <c r="AJ29" s="60">
         <f t="shared" si="6"/>
         <v>2.0840225321932668</v>
       </c>
-      <c r="AI29" s="60">
+      <c r="AK29" s="60">
         <f t="shared" si="6"/>
         <v>2.1257029828371321</v>
       </c>
-      <c r="AJ29" s="60">
+      <c r="AL29" s="60">
         <f t="shared" si="6"/>
         <v>2.1682170424938749</v>
       </c>
-      <c r="AK29" s="60">
+      <c r="AM29" s="60">
         <f t="shared" si="6"/>
         <v>2.2115813833437525</v>
       </c>
-      <c r="AL29" s="60">
+      <c r="AN29" s="60">
         <f t="shared" si="6"/>
         <v>2.2558130110106278</v>
       </c>
-      <c r="AM29" s="60">
+      <c r="AO29" s="60">
         <f t="shared" si="6"/>
         <v>2.3009292712308405</v>
       </c>
-      <c r="AN29" s="60">
+      <c r="AP29" s="60">
         <f t="shared" si="6"/>
         <v>2.3469478566554574</v>
       </c>
-      <c r="AO29" s="60">
+      <c r="AQ29" s="60">
         <f t="shared" si="6"/>
         <v>2.3938868137885665</v>
       </c>
-      <c r="AP29" s="60">
+      <c r="AR29" s="60">
         <f t="shared" si="6"/>
         <v>2.4417645500643377</v>
       </c>
-      <c r="AQ29" s="60">
+      <c r="AS29" s="60">
         <f t="shared" si="6"/>
         <v>2.4905998410656243</v>
       </c>
-      <c r="AR29" s="60">
+      <c r="AT29" s="60">
         <f t="shared" si="6"/>
         <v>2.5404118378869369</v>
       </c>
-      <c r="AS29" s="60">
+      <c r="AU29" s="60">
         <f t="shared" si="6"/>
         <v>2.5912200746446756</v>
       </c>
-      <c r="AT29" s="60">
+      <c r="AV29" s="60">
         <f t="shared" si="6"/>
         <v>2.6430444761375691</v>
       </c>
-      <c r="AU29" s="60">
+      <c r="AW29" s="60">
         <f t="shared" si="6"/>
         <v>2.6959053656603205</v>
       </c>
-      <c r="AV29" s="60">
+      <c r="AX29" s="60">
         <f t="shared" si="6"/>
         <v>2.7498234729735271</v>
       </c>
-      <c r="AW29" s="60">
+      <c r="AY29" s="60">
         <f t="shared" si="6"/>
         <v>2.8048199424329976</v>
       </c>
-      <c r="AX29" s="60">
+      <c r="AZ29" s="60">
         <f t="shared" si="6"/>
         <v>2.8609163412816576</v>
       </c>
-      <c r="AY29" s="60">
+      <c r="BA29" s="60">
         <f t="shared" si="6"/>
         <v>2.9181346681072906</v>
       </c>
-      <c r="AZ29" s="60">
+      <c r="BB29" s="60">
         <f t="shared" si="6"/>
         <v>2.9764973614694363</v>
       </c>
-      <c r="BA29" s="60">
+      <c r="BC29" s="60">
         <f t="shared" si="6"/>
         <v>3.036027308698825</v>
       </c>
-      <c r="BB29" s="60">
+      <c r="BD29" s="60">
         <f t="shared" si="6"/>
         <v>3.0967478548728016</v>
       </c>
-      <c r="BC29" s="60">
+      <c r="BE29" s="60">
         <f t="shared" si="6"/>
         <v>3.1586828119702575</v>
       </c>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
       <c r="BF29" s="56"/>
-    </row>
-    <row r="30" spans="1:58" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+    </row>
+    <row r="30" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="99"/>
       <c r="C30" s="67" t="s">
@@ -8436,194 +8462,196 @@
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="102" cm="1">
-        <f t="array" ref="E30:E35">TRANSPOSE(O17:T17)</f>
+        <f t="array" ref="E30:E35">TRANSPOSE(Q17:V17)</f>
         <v>6.0102368152571709E-2</v>
       </c>
       <c r="F30" s="102"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99" t="s">
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99" t="s">
         <v>938</v>
       </c>
-      <c r="K30" s="103" t="str">
+      <c r="M30" s="103" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L30" s="41"/>
-      <c r="N30" s="56" t="str">
-        <f t="shared" ref="N30:BC30" si="7">N12</f>
+      <c r="N30" s="41"/>
+      <c r="P30" s="56" t="str">
+        <f t="shared" ref="P30:BE30" si="7">P12</f>
         <v>BVT for price year</v>
       </c>
-      <c r="O30" s="60">
+      <c r="Q30" s="60">
         <f t="shared" si="7"/>
         <v>0.57345472525413244</v>
       </c>
-      <c r="P30" s="60">
+      <c r="R30" s="60">
         <f t="shared" si="7"/>
         <v>0.71456444294342614</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="S30" s="60">
         <f t="shared" si="7"/>
         <v>0.7348936768478086</v>
       </c>
-      <c r="R30" s="60">
+      <c r="T30" s="60">
         <f t="shared" si="7"/>
         <v>0.73792999337975507</v>
       </c>
-      <c r="S30" s="60">
+      <c r="U30" s="60">
         <f t="shared" si="7"/>
         <v>0.72811401596825154</v>
       </c>
-      <c r="T30" s="60">
+      <c r="V30" s="60">
         <f t="shared" si="7"/>
         <v>0.6639699705683737</v>
       </c>
-      <c r="U30" s="60">
+      <c r="W30" s="60">
         <f t="shared" si="7"/>
         <v>0.76109774873089542</v>
       </c>
-      <c r="V30" s="60">
+      <c r="X30" s="60">
         <f t="shared" si="7"/>
         <v>0.88459502639211474</v>
       </c>
-      <c r="W30" s="60">
+      <c r="Y30" s="60">
         <f t="shared" si="7"/>
         <v>0.99237791438701839</v>
       </c>
-      <c r="X30" s="60">
+      <c r="Z30" s="60">
         <f t="shared" si="7"/>
         <v>0.99009900990099031</v>
       </c>
-      <c r="Y30" s="60">
+      <c r="AA30" s="60">
         <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Z30" s="60">
+      <c r="AB30" s="60">
         <f t="shared" si="7"/>
         <v>1.0200000000000002</v>
       </c>
-      <c r="AA30" s="60">
+      <c r="AC30" s="60">
         <f t="shared" si="7"/>
         <v>1.0404000000000002</v>
       </c>
-      <c r="AB30" s="60">
+      <c r="AD30" s="60">
         <f t="shared" si="7"/>
         <v>1.0612080000000002</v>
       </c>
-      <c r="AC30" s="60">
+      <c r="AE30" s="60">
         <f t="shared" si="7"/>
         <v>1.0824321600000002</v>
       </c>
-      <c r="AD30" s="60">
+      <c r="AF30" s="60">
         <f t="shared" si="7"/>
         <v>1.1040808032000002</v>
       </c>
-      <c r="AE30" s="60">
+      <c r="AG30" s="60">
         <f t="shared" si="7"/>
         <v>1.1261624192640003</v>
       </c>
-      <c r="AF30" s="60">
+      <c r="AH30" s="60">
         <f t="shared" si="7"/>
         <v>1.1486856676492803</v>
       </c>
-      <c r="AG30" s="60">
+      <c r="AI30" s="60">
         <f t="shared" si="7"/>
         <v>1.171659381002266</v>
       </c>
-      <c r="AH30" s="60">
+      <c r="AJ30" s="60">
         <f t="shared" si="7"/>
         <v>1.1950925686223113</v>
       </c>
-      <c r="AI30" s="60">
+      <c r="AK30" s="60">
         <f t="shared" si="7"/>
         <v>1.2189944199947575</v>
       </c>
-      <c r="AJ30" s="60">
+      <c r="AL30" s="60">
         <f t="shared" si="7"/>
         <v>1.2433743083946527</v>
       </c>
-      <c r="AK30" s="60">
+      <c r="AM30" s="60">
         <f t="shared" si="7"/>
         <v>1.2682417945625457</v>
       </c>
-      <c r="AL30" s="60">
+      <c r="AN30" s="60">
         <f t="shared" si="7"/>
         <v>1.2936066304537968</v>
       </c>
-      <c r="AM30" s="60">
+      <c r="AO30" s="60">
         <f t="shared" si="7"/>
         <v>1.3194787630628728</v>
       </c>
-      <c r="AN30" s="60">
+      <c r="AP30" s="60">
         <f t="shared" si="7"/>
         <v>1.3458683383241303</v>
       </c>
-      <c r="AO30" s="60">
+      <c r="AQ30" s="60">
         <f t="shared" si="7"/>
         <v>1.3727857050906129</v>
       </c>
-      <c r="AP30" s="60">
+      <c r="AR30" s="60">
         <f t="shared" si="7"/>
         <v>1.4002414191924253</v>
       </c>
-      <c r="AQ30" s="60">
+      <c r="AS30" s="60">
         <f t="shared" si="7"/>
         <v>1.4282462475762738</v>
       </c>
-      <c r="AR30" s="60">
+      <c r="AT30" s="60">
         <f t="shared" si="7"/>
         <v>1.4568111725277992</v>
       </c>
-      <c r="AS30" s="60">
+      <c r="AU30" s="60">
         <f t="shared" si="7"/>
         <v>1.4859473959783553</v>
       </c>
-      <c r="AT30" s="60">
+      <c r="AV30" s="60">
         <f t="shared" si="7"/>
         <v>1.5156663438979225</v>
       </c>
-      <c r="AU30" s="60">
+      <c r="AW30" s="60">
         <f t="shared" si="7"/>
         <v>1.5459796707758811</v>
       </c>
-      <c r="AV30" s="60">
+      <c r="AX30" s="60">
         <f t="shared" si="7"/>
         <v>1.5768992641913988</v>
       </c>
-      <c r="AW30" s="60">
+      <c r="AY30" s="60">
         <f t="shared" si="7"/>
         <v>1.6084372494752268</v>
       </c>
-      <c r="AX30" s="60">
+      <c r="AZ30" s="60">
         <f t="shared" si="7"/>
         <v>1.6406059944647313</v>
       </c>
-      <c r="AY30" s="60">
+      <c r="BA30" s="60">
         <f t="shared" si="7"/>
         <v>1.6734181143540259</v>
       </c>
-      <c r="AZ30" s="60">
+      <c r="BB30" s="60">
         <f t="shared" si="7"/>
         <v>1.7068864766411065</v>
       </c>
-      <c r="BA30" s="60">
+      <c r="BC30" s="60">
         <f t="shared" si="7"/>
         <v>1.7410242061739287</v>
       </c>
-      <c r="BB30" s="60">
+      <c r="BD30" s="60">
         <f t="shared" si="7"/>
         <v>1.7758446902974074</v>
       </c>
-      <c r="BC30" s="60">
+      <c r="BE30" s="60">
         <f t="shared" si="7"/>
         <v>1.8113615841033557</v>
       </c>
-      <c r="BD30" s="56"/>
-      <c r="BE30" s="56"/>
       <c r="BF30" s="56"/>
-    </row>
-    <row r="31" spans="1:58" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+    </row>
+    <row r="31" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="104"/>
       <c r="C31" s="67" t="s">
@@ -8636,70 +8664,64 @@
       <c r="F31" s="106"/>
       <c r="G31" s="106"/>
       <c r="H31" s="106"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="99" t="s">
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="99" t="s">
         <v>939</v>
       </c>
-      <c r="K31" s="104" t="str">
+      <c r="M31" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L31" s="41"/>
-      <c r="N31" s="56" t="str">
-        <f t="shared" ref="N31:BC31" si="8">N13</f>
+      <c r="N31" s="41"/>
+      <c r="P31" s="56" t="str">
+        <f t="shared" ref="P31:BE31" si="8">P13</f>
         <v>Deflator rates</v>
       </c>
-      <c r="O31" s="60">
+      <c r="Q31" s="60">
         <f t="shared" si="8"/>
         <v>0.13827220141517502</v>
       </c>
-      <c r="P31" s="60">
+      <c r="R31" s="60">
         <f t="shared" si="8"/>
         <v>0.24606950030232899</v>
       </c>
-      <c r="Q31" s="60">
+      <c r="S31" s="60">
         <f t="shared" si="8"/>
         <v>2.84498257716864E-2</v>
       </c>
-      <c r="R31" s="60">
+      <c r="T31" s="60">
         <f t="shared" si="8"/>
         <v>4.1316405727836502E-3</v>
       </c>
-      <c r="S31" s="60">
+      <c r="U31" s="60">
         <f t="shared" si="8"/>
         <v>-1.3302044231250001E-2</v>
       </c>
-      <c r="T31" s="60">
+      <c r="V31" s="60">
         <f t="shared" si="8"/>
         <v>-8.8096155262962009E-2</v>
       </c>
-      <c r="U31" s="60">
+      <c r="W31" s="60">
         <f t="shared" si="8"/>
         <v>0.146283390014428</v>
       </c>
-      <c r="V31" s="60">
+      <c r="X31" s="60">
         <f t="shared" si="8"/>
         <v>0.16226204566646898</v>
       </c>
-      <c r="W31" s="60">
+      <c r="Y31" s="60">
         <f t="shared" si="8"/>
         <v>0.12184432964144501</v>
       </c>
-      <c r="X31" s="60">
+      <c r="Z31" s="60">
         <f t="shared" si="8"/>
         <v>-2.2964079036722801E-3</v>
       </c>
-      <c r="Y31" s="60">
+      <c r="AA31" s="60">
         <f t="shared" si="8"/>
         <v>0.01</v>
-      </c>
-      <c r="Z31" s="60">
-        <f t="shared" si="8"/>
-        <v>0.02</v>
-      </c>
-      <c r="AA31" s="60">
-        <f t="shared" si="8"/>
-        <v>0.02</v>
       </c>
       <c r="AB31" s="60">
         <f t="shared" si="8"/>
@@ -8813,11 +8835,19 @@
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="BD31" s="56"/>
-      <c r="BE31" s="56"/>
+      <c r="BD31" s="60">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="BE31" s="60">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
       <c r="BF31" s="56"/>
-    </row>
-    <row r="32" spans="1:58" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+    </row>
+    <row r="32" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="104"/>
       <c r="C32" s="67" t="s">
@@ -8830,185 +8860,187 @@
       <c r="F32" s="106"/>
       <c r="G32" s="106"/>
       <c r="H32" s="106"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="99" t="s">
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="99" t="s">
         <v>940</v>
       </c>
-      <c r="K32" s="104" t="str">
+      <c r="M32" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L32" s="41"/>
-      <c r="N32" s="56" t="str">
-        <f t="shared" ref="N32:BC32" si="9">N14</f>
+      <c r="N32" s="41"/>
+      <c r="P32" s="56" t="str">
+        <f t="shared" ref="P32:BE32" si="9">P14</f>
         <v>AZN relative to BVT</v>
       </c>
-      <c r="O32" s="60">
+      <c r="Q32" s="60">
         <f t="shared" si="9"/>
         <v>0.60848803017778275</v>
       </c>
-      <c r="P32" s="60">
+      <c r="R32" s="60">
         <f t="shared" si="9"/>
         <v>0.78867073038035063</v>
       </c>
-      <c r="Q32" s="60">
+      <c r="S32" s="60">
         <f t="shared" si="9"/>
         <v>0.74354092577871789</v>
       </c>
-      <c r="R32" s="60">
+      <c r="T32" s="60">
         <f t="shared" si="9"/>
         <v>0.76840035268972751</v>
       </c>
-      <c r="S32" s="60">
+      <c r="U32" s="60">
         <f t="shared" si="9"/>
         <v>0.75336136947195065</v>
       </c>
-      <c r="T32" s="60">
+      <c r="V32" s="60">
         <f t="shared" si="9"/>
         <v>0.7788810401414068</v>
       </c>
-      <c r="U32" s="60">
+      <c r="W32" s="60">
         <f t="shared" si="9"/>
         <v>1.3442762137334652</v>
       </c>
-      <c r="V32" s="60">
+      <c r="X32" s="60">
         <f t="shared" si="9"/>
         <v>1.7485789886692933</v>
       </c>
-      <c r="W32" s="60">
+      <c r="Y32" s="60">
         <f t="shared" si="9"/>
         <v>1.9815223307363259</v>
       </c>
-      <c r="X32" s="60">
+      <c r="Z32" s="60">
         <f t="shared" si="9"/>
         <v>1.8749174917491753</v>
       </c>
-      <c r="Y32" s="60">
+      <c r="AA32" s="60">
         <f t="shared" si="9"/>
         <v>1.9416250000000006</v>
       </c>
-      <c r="Z32" s="60">
+      <c r="AB32" s="60">
         <f t="shared" si="9"/>
         <v>1.9804575000000006</v>
       </c>
-      <c r="AA32" s="60">
+      <c r="AC32" s="60">
         <f t="shared" si="9"/>
         <v>2.0200666500000004</v>
       </c>
-      <c r="AB32" s="60">
+      <c r="AD32" s="60">
         <f t="shared" si="9"/>
         <v>2.0604679830000006</v>
       </c>
-      <c r="AC32" s="60">
+      <c r="AE32" s="60">
         <f t="shared" si="9"/>
         <v>2.1016773426600004</v>
       </c>
-      <c r="AD32" s="60">
+      <c r="AF32" s="60">
         <f t="shared" si="9"/>
         <v>2.1437108895132004</v>
       </c>
-      <c r="AE32" s="60">
+      <c r="AG32" s="60">
         <f t="shared" si="9"/>
         <v>2.1865851073034648</v>
       </c>
-      <c r="AF32" s="60">
+      <c r="AH32" s="60">
         <f t="shared" si="9"/>
         <v>2.2303168094495338</v>
       </c>
-      <c r="AG32" s="60">
+      <c r="AI32" s="60">
         <f t="shared" si="9"/>
         <v>2.274923145638525</v>
       </c>
-      <c r="AH32" s="60">
+      <c r="AJ32" s="60">
         <f t="shared" si="9"/>
         <v>2.3204216085512952</v>
       </c>
-      <c r="AI32" s="60">
+      <c r="AK32" s="60">
         <f t="shared" si="9"/>
         <v>2.3668300407223213</v>
       </c>
-      <c r="AJ32" s="60">
+      <c r="AL32" s="60">
         <f t="shared" si="9"/>
         <v>2.4141666415367675</v>
       </c>
-      <c r="AK32" s="60">
+      <c r="AM32" s="60">
         <f t="shared" si="9"/>
         <v>2.462449974367503</v>
       </c>
-      <c r="AL32" s="60">
+      <c r="AN32" s="60">
         <f t="shared" si="9"/>
         <v>2.5116989738548532</v>
       </c>
-      <c r="AM32" s="60">
+      <c r="AO32" s="60">
         <f t="shared" si="9"/>
         <v>2.5619329533319508</v>
       </c>
-      <c r="AN32" s="60">
+      <c r="AP32" s="60">
         <f t="shared" si="9"/>
         <v>2.61317161239859</v>
       </c>
-      <c r="AO32" s="60">
+      <c r="AQ32" s="60">
         <f t="shared" si="9"/>
         <v>2.6654350446465616</v>
       </c>
-      <c r="AP32" s="60">
+      <c r="AR32" s="60">
         <f t="shared" si="9"/>
         <v>2.7187437455394932</v>
       </c>
-      <c r="AQ32" s="60">
+      <c r="AS32" s="60">
         <f t="shared" si="9"/>
         <v>2.7731186204502829</v>
       </c>
-      <c r="AR32" s="60">
+      <c r="AT32" s="60">
         <f t="shared" si="9"/>
         <v>2.8285809928592882</v>
       </c>
-      <c r="AS32" s="60">
+      <c r="AU32" s="60">
         <f t="shared" si="9"/>
         <v>2.8851526127164746</v>
       </c>
-      <c r="AT32" s="60">
+      <c r="AV32" s="60">
         <f t="shared" si="9"/>
         <v>2.942855664970804</v>
       </c>
-      <c r="AU32" s="60">
+      <c r="AW32" s="60">
         <f t="shared" si="9"/>
         <v>3.0017127782702202</v>
       </c>
-      <c r="AV32" s="60">
+      <c r="AX32" s="60">
         <f t="shared" si="9"/>
         <v>3.061747033835625</v>
       </c>
-      <c r="AW32" s="60">
+      <c r="AY32" s="60">
         <f t="shared" si="9"/>
         <v>3.1229819745123377</v>
       </c>
-      <c r="AX32" s="60">
+      <c r="AZ32" s="60">
         <f t="shared" si="9"/>
         <v>3.1854416140025843</v>
       </c>
-      <c r="AY32" s="60">
+      <c r="BA32" s="60">
         <f t="shared" si="9"/>
         <v>3.2491504462826359</v>
       </c>
-      <c r="AZ32" s="60">
+      <c r="BB32" s="60">
         <f t="shared" si="9"/>
         <v>3.3141334552082888</v>
       </c>
-      <c r="BA32" s="60">
+      <c r="BC32" s="60">
         <f t="shared" si="9"/>
         <v>3.3804161243124544</v>
       </c>
-      <c r="BB32" s="60">
+      <c r="BD32" s="60">
         <f t="shared" si="9"/>
         <v>3.448024446798704</v>
       </c>
-      <c r="BC32" s="60">
+      <c r="BE32" s="60">
         <f t="shared" si="9"/>
         <v>3.5169849357346781</v>
       </c>
     </row>
-    <row r="33" spans="1:55" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
       <c r="B33" s="104"/>
       <c r="C33" s="67" t="s">
@@ -9021,17 +9053,17 @@
       <c r="F33" s="106"/>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="99" t="s">
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="99" t="s">
         <v>942</v>
       </c>
-      <c r="K33" s="104" t="str">
+      <c r="M33" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="L33" s="41"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
+      <c r="N33" s="41"/>
       <c r="P33" s="56"/>
       <c r="Q33" s="56"/>
       <c r="R33" s="56"/>
@@ -9072,8 +9104,10 @@
       <c r="BA33" s="56"/>
       <c r="BB33" s="56"/>
       <c r="BC33" s="56"/>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B34" s="104"/>
       <c r="C34" s="67" t="s">
         <v>78</v>
@@ -9085,16 +9119,18 @@
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="99" t="s">
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="99" t="s">
         <v>943</v>
       </c>
-      <c r="K34" s="104" t="str">
+      <c r="M34" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="35" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B35" s="100"/>
       <c r="C35" s="101" t="s">
         <v>78</v>
@@ -9106,17 +9142,17 @@
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100" t="s">
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100" t="s">
         <v>941</v>
       </c>
-      <c r="K35" s="100" t="str">
+      <c r="M35" s="100" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N35" s="86"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
+      <c r="P35" s="86"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
@@ -9156,33 +9192,35 @@
       <c r="BA35" s="41"/>
       <c r="BB35" s="41"/>
       <c r="BC35" s="41"/>
-    </row>
-    <row r="36" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+    </row>
+    <row r="36" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B36" s="104"/>
       <c r="C36" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="105"/>
       <c r="E36" s="106" cm="1">
-        <f t="array" ref="E36:E41">TRANSPOSE(O16:T16)</f>
+        <f t="array" ref="E36:E41">TRANSPOSE(Q16:V16)</f>
         <v>7.1616599536136943E-2</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="99" t="s">
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="99" t="s">
         <v>818</v>
       </c>
-      <c r="K36" s="103" t="str">
+      <c r="M36" s="103" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N36" s="86" t="s">
-        <v>969</v>
-      </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
+      <c r="P36" s="86" t="s">
+        <v>965</v>
+      </c>
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
@@ -9222,8 +9260,10 @@
       <c r="BA36" s="41"/>
       <c r="BB36" s="41"/>
       <c r="BC36" s="41"/>
-    </row>
-    <row r="37" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="BD36" s="41"/>
+      <c r="BE36" s="41"/>
+    </row>
+    <row r="37" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B37" s="104"/>
       <c r="C37" s="67" t="s">
         <v>78</v>
@@ -9235,23 +9275,23 @@
       <c r="F37" s="106"/>
       <c r="G37" s="106"/>
       <c r="H37" s="106"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="99" t="s">
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="99" t="s">
         <v>819</v>
       </c>
-      <c r="K37" s="104" t="str">
+      <c r="M37" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="116">
+      <c r="P37" s="20"/>
+      <c r="Q37" s="116">
         <v>6.25E-2</v>
       </c>
-      <c r="P37" t="s">
-        <v>970</v>
-      </c>
-      <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="s">
+        <v>966</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -9289,8 +9329,10 @@
       <c r="BA37"/>
       <c r="BB37"/>
       <c r="BC37"/>
-    </row>
-    <row r="38" spans="1:55" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="BD37"/>
+      <c r="BE37"/>
+    </row>
+    <row r="38" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B38" s="104"/>
       <c r="C38" s="67" t="s">
         <v>78</v>
@@ -9302,23 +9344,23 @@
       <c r="F38" s="106"/>
       <c r="G38" s="106"/>
       <c r="H38" s="106"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="99" t="s">
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="99" t="s">
         <v>820</v>
       </c>
-      <c r="K38" s="104" t="str">
+      <c r="M38" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="116">
+      <c r="P38" s="20"/>
+      <c r="Q38" s="116">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="P38" t="s">
-        <v>971</v>
-      </c>
-      <c r="Q38"/>
-      <c r="R38"/>
+      <c r="R38" t="s">
+        <v>967</v>
+      </c>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
@@ -9356,8 +9398,10 @@
       <c r="BA38"/>
       <c r="BB38"/>
       <c r="BC38"/>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD38"/>
+      <c r="BE38"/>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="104"/>
       <c r="C39" s="67" t="s">
@@ -9370,23 +9414,25 @@
       <c r="F39" s="106"/>
       <c r="G39" s="106"/>
       <c r="H39" s="106"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="99" t="s">
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="99" t="s">
         <v>821</v>
       </c>
-      <c r="K39" s="104" t="str">
+      <c r="M39" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="O39" s="118">
-        <f>O37-O38</f>
+      <c r="Q39" s="118">
+        <f>Q37-Q38</f>
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="P39" s="56" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="R39" s="56" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="104"/>
       <c r="C40" s="67" t="s">
@@ -9399,23 +9445,25 @@
       <c r="F40" s="106"/>
       <c r="G40" s="106"/>
       <c r="H40" s="106"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="99" t="s">
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="99" t="s">
         <v>822</v>
       </c>
-      <c r="K40" s="104" t="str">
+      <c r="M40" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="O40" s="118">
-        <f>O39+4%</f>
+      <c r="Q40" s="118">
+        <f>Q39+4%</f>
         <v>0.10850000000000001</v>
       </c>
-      <c r="P40" s="56" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="R40" s="56" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
       <c r="B41" s="104"/>
       <c r="C41" s="105" t="s">
@@ -9428,16 +9476,18 @@
       <c r="F41" s="106"/>
       <c r="G41" s="106"/>
       <c r="H41" s="106"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="104" t="s">
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104" t="s">
         <v>817</v>
       </c>
-      <c r="K41" s="104" t="str">
+      <c r="M41" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="61"/>
       <c r="B42" s="110"/>
       <c r="C42" s="111"/>
@@ -9446,33 +9496,35 @@
       <c r="F42" s="112"/>
       <c r="G42" s="112"/>
       <c r="H42" s="112"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="C45" s="58"/>
       <c r="E45" s="63"/>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46" s="58"/>
       <c r="E46" s="63"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -9480,8 +9532,10 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -9489,8 +9543,10 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -9498,8 +9554,10 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -9507,8 +9565,10 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -9516,8 +9576,10 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -9525,8 +9587,10 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -9534,6 +9598,8 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
@@ -9544,22 +9610,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
@@ -9570,7 +9636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>38</v>
       </c>
@@ -9593,9 +9659,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="95" t="s">
@@ -9622,9 +9688,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="130" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="131"/>
@@ -9647,9 +9713,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="130" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="131"/>
@@ -9672,9 +9738,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="130" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="131"/>
@@ -9682,9 +9748,9 @@
       <c r="F7" s="133"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="130" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="131"/>
@@ -9692,9 +9758,9 @@
       <c r="F8" s="133"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="130" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="131"/>
@@ -9702,7 +9768,7 @@
       <c r="F9" s="133"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="130" t="s">
         <v>937</v>
       </c>
@@ -9712,9 +9778,9 @@
       <c r="F10" s="133"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="130" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="131"/>
@@ -9722,9 +9788,9 @@
       <c r="F11" s="133"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="130" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="131"/>
@@ -9732,9 +9798,9 @@
       <c r="F12" s="133"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="130" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="131"/>
@@ -9742,9 +9808,9 @@
       <c r="F13" s="133"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="130" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="131"/>
@@ -9932,12 +9998,12 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="93" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -9954,26 +10020,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D82B70-5F11-4295-9715-416BB83E3B58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -9983,12 +10049,12 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="K6" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="S6" s="42"/>
       <c r="T6" s="43"/>
@@ -9999,7 +10065,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S7" s="41"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -10009,7 +10075,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2010</v>
       </c>
@@ -10034,7 +10100,7 @@
       <c r="Y8" s="125"/>
       <c r="Z8" s="125"/>
     </row>
-    <row r="9" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2011</v>
       </c>
@@ -10059,7 +10125,7 @@
       <c r="Y9" s="125"/>
       <c r="Z9" s="125"/>
     </row>
-    <row r="10" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2012</v>
       </c>
@@ -10084,7 +10150,7 @@
       <c r="Y10" s="126"/>
       <c r="Z10" s="126"/>
     </row>
-    <row r="11" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2013</v>
       </c>
@@ -10108,7 +10174,7 @@
       <c r="Y11" s="125"/>
       <c r="Z11" s="125"/>
     </row>
-    <row r="12" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2014</v>
       </c>
@@ -10133,7 +10199,7 @@
       <c r="Y12" s="47"/>
       <c r="Z12" s="47"/>
     </row>
-    <row r="13" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2015</v>
       </c>
@@ -10149,7 +10215,7 @@
         <v>1.0675083333333333</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2016</v>
       </c>
@@ -10165,7 +10231,7 @@
         <v>1.6065250000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2017</v>
       </c>
@@ -10181,7 +10247,7 @@
         <v>1.7234916666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2018</v>
       </c>
@@ -10197,7 +10263,7 @@
         <v>1.701225</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2019</v>
       </c>
@@ -10213,7 +10279,7 @@
         <v>1.7024999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -10231,40 +10297,40 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>970</v>
+      </c>
+      <c r="C24" t="s">
+        <v>971</v>
+      </c>
+      <c r="D24" t="s">
+        <v>972</v>
+      </c>
+      <c r="E24" t="s">
+        <v>973</v>
+      </c>
+      <c r="F24" t="s">
         <v>974</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>975</v>
       </c>
-      <c r="D24" t="s">
-        <v>976</v>
-      </c>
-      <c r="E24" t="s">
-        <v>977</v>
-      </c>
-      <c r="F24" t="s">
-        <v>978</v>
-      </c>
-      <c r="G24" t="s">
-        <v>979</v>
-      </c>
       <c r="K24" t="s">
+        <v>970</v>
+      </c>
+      <c r="L24" t="s">
+        <v>971</v>
+      </c>
+      <c r="M24" t="s">
+        <v>972</v>
+      </c>
+      <c r="N24" t="s">
+        <v>973</v>
+      </c>
+      <c r="O24" t="s">
         <v>974</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>975</v>
-      </c>
-      <c r="M24" t="s">
-        <v>976</v>
-      </c>
-      <c r="N24" t="s">
-        <v>977</v>
-      </c>
-      <c r="O24" t="s">
-        <v>978</v>
-      </c>
-      <c r="P24" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -15859,24 +15925,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
         <v>88</v>
       </c>
@@ -15887,7 +15953,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31"/>
       <c r="C6" s="44">
         <v>2010</v>
@@ -15911,7 +15977,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>89</v>
@@ -15945,7 +16011,7 @@
         <v>0.78615548740460983</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
         <v>90</v>
@@ -15979,7 +16045,7 @@
         <v>0.80182435242407102</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>91</v>
@@ -16046,7 +16112,7 @@
         <v>0.10769671819564115</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
         <v>93</v>
@@ -16080,7 +16146,7 @@
         <v>0.13431460128400069</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="50"/>
@@ -16096,7 +16162,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="152" t="s">
         <v>95</v>
       </c>
@@ -16154,7 +16220,7 @@
       <c r="AU15" s="151"/>
       <c r="AV15" s="151"/>
     </row>
-    <row r="16" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>101</v>
       </c>
@@ -20102,21 +20168,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -20339,24 +20390,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0421F0-51EF-4FEE-8D79-C499B8BD686A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20373,4 +20422,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -4751,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -5817,7 +5817,7 @@
   </sheetPr>
   <dimension ref="A3:BH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_31A306DE2502BA89D448CBC84AD8505E52231842" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -19,7 +25,7 @@
   <definedNames>
     <definedName name="VEDA2">'Import Settings'!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +65,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -82,12 +89,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,14 +112,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -3183,7 +3190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
@@ -4029,27 +4036,27 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="5x indented GHG Textfiels" xfId="1"/>
-    <cellStyle name="AggOrange_CRFReport-template" xfId="2"/>
-    <cellStyle name="AggOrange9_CRFReport-template" xfId="3"/>
-    <cellStyle name="CustomizationCells" xfId="4"/>
-    <cellStyle name="Euro" xfId="5"/>
-    <cellStyle name="InputCells" xfId="6"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="AggOrange_CRFReport-template" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="AggOrange9_CRFReport-template" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="CustomizationCells" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Euro" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="InputCells" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Link" xfId="20" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="7"/>
-    <cellStyle name="Normal 10 2" xfId="8"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="13"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 10 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Procent" xfId="16" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="17"/>
-    <cellStyle name="Standaard_Blad1" xfId="19"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="18"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Standaard_Blad1" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4084,7 +4091,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,9 +4121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4154,9 +4161,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4189,9 +4196,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4224,9 +4248,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4399,27 +4440,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A3:R39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -4430,7 +4471,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -4627,7 +4668,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4635,7 +4676,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4643,7 +4684,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="114"/>
       <c r="C15" s="3"/>
@@ -4651,28 +4692,28 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="115"/>
       <c r="C18" s="115"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="115"/>
       <c r="C19" s="115"/>
@@ -4748,22 +4789,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
@@ -4773,7 +4814,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -4793,7 +4834,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="71" t="str">
         <f ca="1">IF(VEDA2,"~DefaultYear",T(0))</f>
         <v>~DefaultYear</v>
@@ -4804,7 +4845,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
@@ -5410,41 +5451,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:X28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
     <col min="6" max="13" width="8" customWidth="1"/>
-    <col min="17" max="17" width="21.44140625" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="17" max="17" width="21.453125" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" customWidth="1"/>
+    <col min="21" max="21" width="8.08984375" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="str">
         <f ca="1">IF(VEDA2,"~TFM_MIG","~TFM_UPD")</f>
         <v>~TFM_MIG</v>
@@ -5570,30 +5611,30 @@
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -5636,19 +5677,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>951</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -5656,12 +5697,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="26" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
@@ -5717,20 +5758,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="str">
         <f ca="1">"~Scenario:"&amp;REPLACE(REPLACE($F$1,FIND(".",$F$1),100,""),1,FIND("[",$F$1),"")</f>
         <v>~Scenario:</v>
@@ -5744,17 +5785,17 @@
       </c>
       <c r="F1" s="17" t="str">
         <f ca="1">CELL("filename",$E$1)</f>
-        <v>C:\Users\hjs.MEDICOUH\Documents\GitHub\Bachelor_Git\TIMES-DE\[SysSettings.xlsx]Import Settings</v>
+        <v>https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/[SysSettings.xlsx]Import Settings</v>
       </c>
       <c r="I1" s="66"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
@@ -5811,40 +5852,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A3:BH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="56" customWidth="1"/>
-    <col min="6" max="10" width="8.33203125" style="56" customWidth="1"/>
-    <col min="11" max="15" width="9.109375" style="56"/>
-    <col min="16" max="16" width="18.6640625" style="56" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="56"/>
+    <col min="1" max="1" width="3.453125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="56" customWidth="1"/>
+    <col min="6" max="10" width="8.36328125" style="56" customWidth="1"/>
+    <col min="11" max="15" width="9.08984375" style="56"/>
+    <col min="16" max="16" width="18.6328125" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="9.08984375" style="56"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:57" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:57" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="94" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:57" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:57" ht="26" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5924,7 +5965,7 @@
       <c r="BD6"/>
       <c r="BE6"/>
     </row>
-    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="99"/>
       <c r="C7" s="99" t="s">
         <v>49</v>
@@ -5988,7 +6029,7 @@
       <c r="BD7"/>
       <c r="BE7"/>
     </row>
-    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="100"/>
       <c r="C8" s="100" t="s">
         <v>35</v>
@@ -6130,7 +6171,7 @@
       <c r="BD9"/>
       <c r="BE9"/>
     </row>
-    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="104"/>
       <c r="C10" s="67" t="s">
         <v>78</v>
@@ -7237,7 +7278,7 @@
       </c>
       <c r="S16" s="25">
         <f>XCHG_rates!E10*S12</f>
-        <v>9.8269499928457155E-2</v>
+        <v>9.8269499928457141E-2</v>
       </c>
       <c r="T16" s="25">
         <f>XCHG_rates!F10*T12</f>
@@ -7249,7 +7290,7 @@
       </c>
       <c r="V16" s="25">
         <f>XCHG_rates!H10*V12</f>
-        <v>7.4266036857875625E-2</v>
+        <v>7.4266036857875611E-2</v>
       </c>
       <c r="W16" s="25">
         <f>XCHG_rates!$I$10*W12</f>
@@ -7421,170 +7462,170 @@
       </c>
       <c r="Q17" s="148">
         <f>XCHG_rates!C9*Q12</f>
-        <v>6.0102368152571709E-2</v>
+        <v>6.010236815257171E-6</v>
       </c>
       <c r="R17" s="27">
         <f>XCHG_rates!D9*R12</f>
-        <v>7.9101615425186927E-2</v>
+        <v>7.910161542518693E-6</v>
       </c>
       <c r="S17" s="27">
         <f>XCHG_rates!E9*S12</f>
-        <v>8.4419109835135911E-2</v>
+        <v>8.441910983513591E-6</v>
       </c>
       <c r="T17" s="27">
         <f>XCHG_rates!F9*T12</f>
-        <v>8.5315743679302045E-2</v>
+        <v>8.5315743679302044E-6</v>
       </c>
       <c r="U17" s="27">
         <f>XCHG_rates!G9*U12</f>
-        <v>8.0040675398849209E-2</v>
+        <v>8.004067539884921E-6</v>
       </c>
       <c r="V17" s="27">
         <f>XCHG_rates!H9*V12</f>
-        <v>7.0965773558535908E-2</v>
+        <v>7.0965773558535916E-6</v>
       </c>
       <c r="W17" s="27">
         <f>XCHG_rates!$I$9*W12</f>
-        <v>8.0365955897416741E-2</v>
+        <v>8.0365955897416733E-6</v>
       </c>
       <c r="X17" s="27">
         <f>XCHG_rates!$I$9*X12</f>
-        <v>9.3406300303272807E-2</v>
+        <v>9.3406300303272798E-6</v>
       </c>
       <c r="Y17" s="27">
         <f>XCHG_rates!$I$9*Y12</f>
-        <v>0.10478732834801259</v>
+        <v>1.0478732834801259E-5</v>
       </c>
       <c r="Z17" s="27">
         <f>XCHG_rates!$I$9*Z12</f>
-        <v>0.10454669389898953</v>
+        <v>1.0454669389898953E-5</v>
       </c>
       <c r="AA17" s="27">
         <f>XCHG_rates!$I$9*AA12</f>
-        <v>0.10559216083797943</v>
+        <v>1.0559216083797941E-5</v>
       </c>
       <c r="AB17" s="27">
         <f>XCHG_rates!$I$9*AB12</f>
-        <v>0.10770400405473901</v>
+        <v>1.07704004054739E-5</v>
       </c>
       <c r="AC17" s="27">
         <f>XCHG_rates!$I$9*AC12</f>
-        <v>0.10985808413583378</v>
+        <v>1.0985808413583379E-5</v>
       </c>
       <c r="AD17" s="27">
         <f>XCHG_rates!$I$9*AD12</f>
-        <v>0.11205524581855046</v>
+        <v>1.1205524581855045E-5</v>
       </c>
       <c r="AE17" s="27">
         <f>XCHG_rates!$I$9*AE12</f>
-        <v>0.11429635073492148</v>
+        <v>1.1429635073492147E-5</v>
       </c>
       <c r="AF17" s="27">
         <f>XCHG_rates!$I$9*AF12</f>
-        <v>0.11658227774961991</v>
+        <v>1.165822777496199E-5</v>
       </c>
       <c r="AG17" s="27">
         <f>XCHG_rates!$I$9*AG12</f>
-        <v>0.11891392330461231</v>
+        <v>1.189139233046123E-5</v>
       </c>
       <c r="AH17" s="27">
         <f>XCHG_rates!$I$9*AH12</f>
-        <v>0.12129220177070454</v>
+        <v>1.2129220177070454E-5</v>
       </c>
       <c r="AI17" s="27">
         <f>XCHG_rates!$I$9*AI12</f>
-        <v>0.12371804580611866</v>
+        <v>1.2371804580611864E-5</v>
       </c>
       <c r="AJ17" s="27">
         <f>XCHG_rates!$I$9*AJ12</f>
-        <v>0.12619240672224102</v>
+        <v>1.2619240672224102E-5</v>
       </c>
       <c r="AK17" s="27">
         <f>XCHG_rates!$I$9*AK12</f>
-        <v>0.12871625485668584</v>
+        <v>1.2871625485668584E-5</v>
       </c>
       <c r="AL17" s="27">
         <f>XCHG_rates!$I$9*AL12</f>
-        <v>0.13129057995381957</v>
+        <v>1.3129057995381956E-5</v>
       </c>
       <c r="AM17" s="27">
         <f>XCHG_rates!$I$9*AM12</f>
-        <v>0.13391639155289595</v>
+        <v>1.3391639155289595E-5</v>
       </c>
       <c r="AN17" s="27">
         <f>XCHG_rates!$I$9*AN12</f>
-        <v>0.1365947193839539</v>
+        <v>1.3659471938395387E-5</v>
       </c>
       <c r="AO17" s="27">
         <f>XCHG_rates!$I$9*AO12</f>
-        <v>0.13932661377163297</v>
+        <v>1.3932661377163297E-5</v>
       </c>
       <c r="AP17" s="27">
         <f>XCHG_rates!$I$9*AP12</f>
-        <v>0.14211314604706565</v>
+        <v>1.4211314604706564E-5</v>
       </c>
       <c r="AQ17" s="27">
         <f>XCHG_rates!$I$9*AQ12</f>
-        <v>0.14495540896800696</v>
+        <v>1.4495540896800695E-5</v>
       </c>
       <c r="AR17" s="27">
         <f>XCHG_rates!$I$9*AR12</f>
-        <v>0.14785451714736711</v>
+        <v>1.478545171473671E-5</v>
       </c>
       <c r="AS17" s="27">
         <f>XCHG_rates!$I$9*AS12</f>
-        <v>0.15081160749031444</v>
+        <v>1.5081160749031445E-5</v>
       </c>
       <c r="AT17" s="27">
         <f>XCHG_rates!$I$9*AT12</f>
-        <v>0.15382783964012073</v>
+        <v>1.5382783964012071E-5</v>
       </c>
       <c r="AU17" s="27">
         <f>XCHG_rates!$I$9*AU12</f>
-        <v>0.15690439643292317</v>
+        <v>1.5690439643292316E-5</v>
       </c>
       <c r="AV17" s="27">
         <f>XCHG_rates!$I$9*AV12</f>
-        <v>0.16004248436158164</v>
+        <v>1.6004248436158162E-5</v>
       </c>
       <c r="AW17" s="27">
         <f>XCHG_rates!$I$9*AW12</f>
-        <v>0.16324333404881328</v>
+        <v>1.6324333404881328E-5</v>
       </c>
       <c r="AX17" s="27">
         <f>XCHG_rates!$I$9*AX12</f>
-        <v>0.16650820072978956</v>
+        <v>1.6650820072978954E-5</v>
       </c>
       <c r="AY17" s="27">
         <f>XCHG_rates!$I$9*AY12</f>
-        <v>0.16983836474438535</v>
+        <v>1.6983836474438533E-5</v>
       </c>
       <c r="AZ17" s="27">
         <f>XCHG_rates!$I$9*AZ12</f>
-        <v>0.17323513203927304</v>
+        <v>1.7323513203927305E-5</v>
       </c>
       <c r="BA17" s="27">
         <f>XCHG_rates!$I$9*BA12</f>
-        <v>0.17669983468005851</v>
+        <v>1.7669983468005848E-5</v>
       </c>
       <c r="BB17" s="27">
         <f>XCHG_rates!$I$9*BB12</f>
-        <v>0.18023383137365967</v>
+        <v>1.8023383137365967E-5</v>
       </c>
       <c r="BC17" s="27">
         <f>XCHG_rates!$I$9*BC12</f>
-        <v>0.18383850800113288</v>
+        <v>1.8383850800113287E-5</v>
       </c>
       <c r="BD17" s="27">
         <f>XCHG_rates!$I$9*BD12</f>
-        <v>0.18751527816115557</v>
+        <v>1.8751527816115556E-5</v>
       </c>
       <c r="BE17" s="28">
         <f>XCHG_rates!$I$9*BE12</f>
-        <v>0.19126558372437868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.9126558372437869E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="104"/>
       <c r="C18" s="67" t="s">
         <v>78</v>
@@ -7651,7 +7692,7 @@
       <c r="BD18"/>
       <c r="BE18"/>
     </row>
-    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="99"/>
       <c r="C19" s="67" t="s">
         <v>78</v>
@@ -7718,7 +7759,7 @@
       <c r="BD19"/>
       <c r="BE19"/>
     </row>
-    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="99"/>
       <c r="C20" s="67" t="s">
         <v>78</v>
@@ -7786,7 +7827,7 @@
       <c r="BD20"/>
       <c r="BE20"/>
     </row>
-    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="99"/>
       <c r="C21" s="67" t="s">
         <v>78</v>
@@ -7858,7 +7899,7 @@
       <c r="BD21"/>
       <c r="BE21"/>
     </row>
-    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="99"/>
       <c r="C22" s="67" t="s">
         <v>78</v>
@@ -7924,7 +7965,7 @@
       <c r="BD22" s="30"/>
       <c r="BE22"/>
     </row>
-    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="104"/>
       <c r="C23" s="105" t="s">
         <v>78</v>
@@ -8006,7 +8047,7 @@
       </c>
       <c r="U25" s="54"/>
     </row>
-    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="104"/>
       <c r="C26" s="105" t="s">
         <v>78</v>
@@ -8036,7 +8077,7 @@
       <c r="T26" s="121"/>
       <c r="U26" s="54"/>
     </row>
-    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="104"/>
       <c r="C27" s="105" t="s">
         <v>78</v>
@@ -8463,7 +8504,7 @@
       <c r="D30" s="99"/>
       <c r="E30" s="102" cm="1">
         <f t="array" ref="E30:E35">TRANSPOSE(Q17:V17)</f>
-        <v>6.0102368152571709E-2</v>
+        <v>6.010236815257171E-6</v>
       </c>
       <c r="F30" s="102"/>
       <c r="G30" s="102"/>
@@ -8659,7 +8700,7 @@
       </c>
       <c r="D31" s="105"/>
       <c r="E31" s="106">
-        <v>7.9101615425186927E-2</v>
+        <v>7.910161542518693E-6</v>
       </c>
       <c r="F31" s="106"/>
       <c r="G31" s="106"/>
@@ -8855,7 +8896,7 @@
       </c>
       <c r="D32" s="105"/>
       <c r="E32" s="106">
-        <v>8.4419109835135911E-2</v>
+        <v>8.441910983513591E-6</v>
       </c>
       <c r="F32" s="106"/>
       <c r="G32" s="106"/>
@@ -9048,7 +9089,7 @@
       </c>
       <c r="D33" s="105"/>
       <c r="E33" s="106">
-        <v>8.5315743679302045E-2</v>
+        <v>8.5315743679302044E-6</v>
       </c>
       <c r="F33" s="106"/>
       <c r="G33" s="106"/>
@@ -9114,7 +9155,7 @@
       </c>
       <c r="D34" s="105"/>
       <c r="E34" s="106">
-        <v>8.0040675398849209E-2</v>
+        <v>8.004067539884921E-6</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
@@ -9130,14 +9171,14 @@
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B35" s="100"/>
       <c r="C35" s="101" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="108">
-        <v>7.0965773558535908E-2</v>
+        <v>7.0965773558535916E-6</v>
       </c>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
@@ -9195,7 +9236,7 @@
       <c r="BD35" s="41"/>
       <c r="BE35" s="41"/>
     </row>
-    <row r="36" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B36" s="104"/>
       <c r="C36" s="67" t="s">
         <v>78</v>
@@ -9263,7 +9304,7 @@
       <c r="BD36" s="41"/>
       <c r="BE36" s="41"/>
     </row>
-    <row r="37" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B37" s="104"/>
       <c r="C37" s="67" t="s">
         <v>78</v>
@@ -9332,14 +9373,14 @@
       <c r="BD37"/>
       <c r="BE37"/>
     </row>
-    <row r="38" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B38" s="104"/>
       <c r="C38" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="105"/>
       <c r="E38" s="106">
-        <v>9.8269499928457155E-2</v>
+        <v>9.8269499928457141E-2</v>
       </c>
       <c r="F38" s="106"/>
       <c r="G38" s="106"/>
@@ -9471,7 +9512,7 @@
       </c>
       <c r="D41" s="105"/>
       <c r="E41" s="106">
-        <v>7.4266036857875625E-2</v>
+        <v>7.4266036857875611E-2</v>
       </c>
       <c r="F41" s="106"/>
       <c r="G41" s="106"/>
@@ -9610,22 +9651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
@@ -9636,7 +9677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>38</v>
       </c>
@@ -9659,7 +9700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="87" t="s">
         <v>983</v>
       </c>
@@ -9688,7 +9729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="130" t="s">
         <v>984</v>
       </c>
@@ -9713,7 +9754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="130" t="s">
         <v>985</v>
       </c>
@@ -9738,7 +9779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="130" t="s">
         <v>986</v>
       </c>
@@ -9748,7 +9789,7 @@
       <c r="F7" s="133"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="130" t="s">
         <v>987</v>
       </c>
@@ -9758,7 +9799,7 @@
       <c r="F8" s="133"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="130" t="s">
         <v>988</v>
       </c>
@@ -9768,7 +9809,7 @@
       <c r="F9" s="133"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="130" t="s">
         <v>937</v>
       </c>
@@ -9778,7 +9819,7 @@
       <c r="F10" s="133"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="130" t="s">
         <v>989</v>
       </c>
@@ -9788,7 +9829,7 @@
       <c r="F11" s="133"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="130" t="s">
         <v>990</v>
       </c>
@@ -9798,7 +9839,7 @@
       <c r="F12" s="133"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="130" t="s">
         <v>991</v>
       </c>
@@ -9808,7 +9849,7 @@
       <c r="F13" s="133"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="130" t="s">
         <v>992</v>
       </c>
@@ -10020,14 +10061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -10049,7 +10090,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>977</v>
       </c>
@@ -10065,7 +10106,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="S7" s="41"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -10075,7 +10116,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2010</v>
       </c>
@@ -10100,7 +10141,7 @@
       <c r="Y8" s="125"/>
       <c r="Z8" s="125"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2011</v>
       </c>
@@ -10125,7 +10166,7 @@
       <c r="Y9" s="125"/>
       <c r="Z9" s="125"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2012</v>
       </c>
@@ -10174,7 +10215,7 @@
       <c r="Y11" s="125"/>
       <c r="Z11" s="125"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2014</v>
       </c>
@@ -15925,16 +15966,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:AV54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -15942,7 +15983,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>88</v>
       </c>
@@ -15953,7 +15994,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31"/>
       <c r="C6" s="44">
         <v>2010</v>
@@ -15977,64 +16018,64 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="47">
         <f>$A$23/C23</f>
-        <v>0.78047379442164166</v>
+        <v>7.8047379442164165E-5</v>
       </c>
       <c r="D7" s="47">
         <f>$A$23/J23</f>
-        <v>0.82470825945321846</v>
+        <v>8.2470825945321841E-4</v>
       </c>
       <c r="E7" s="47">
         <f>$A$23/Q23</f>
-        <v>0.85497854003864504</v>
+        <v>8.5497854003864504E-4</v>
       </c>
       <c r="F7" s="47">
         <f>$A$23/X23</f>
-        <v>0.8621804543690994</v>
+        <v>8.6218045436909946E-4</v>
       </c>
       <c r="G7" s="47">
         <f>$A$23/AE23</f>
-        <v>0.81944913351448623</v>
+        <v>8.1944913351448618E-5</v>
       </c>
       <c r="H7" s="47">
         <f>$A$23/AL23</f>
-        <v>0.79718180289042173</v>
+        <v>7.9718180289042184E-5</v>
       </c>
       <c r="I7" s="47">
         <f>$A$23/AS23</f>
-        <v>0.78615548740460983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.8615548740460981E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="47">
         <f>C38/$A$38*C7</f>
-        <v>0.92999462253555665</v>
+        <v>0.92999462253555654</v>
       </c>
       <c r="D8" s="47">
         <f>J37/$A$38*D7</f>
-        <v>0.95555399777328776</v>
+        <v>9.5555399777328773</v>
       </c>
       <c r="E8" s="47">
         <f>Q37/$A$38*E7</f>
-        <v>0.99525230416716537</v>
+        <v>9.9525230416716539</v>
       </c>
       <c r="F8" s="47">
         <f>X37/$A$38*F7</f>
-        <v>0.95655558908479543</v>
+        <v>9.5655558908479552</v>
       </c>
       <c r="G8" s="47">
         <f>AE36/$A$38*G7</f>
-        <v>0.89272509448248505</v>
+        <v>0.89272509448248494</v>
       </c>
       <c r="H8" s="47">
         <f>AL35/$A$38*H7</f>
@@ -16045,38 +16086,38 @@
         <v>0.80182435242407102</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="49">
         <f>$A$25/C25</f>
-        <v>0.10480752098770608</v>
+        <v>1.0480752098770608E-5</v>
       </c>
       <c r="D9" s="49">
         <f>$A$25/J24</f>
-        <v>0.11069906459290418</v>
+        <v>1.1069906459290419E-5</v>
       </c>
       <c r="E9" s="49">
         <f>$A$25/Q24</f>
-        <v>0.11487254890698771</v>
+        <v>1.148725489069877E-5</v>
       </c>
       <c r="F9" s="49">
         <f>$A$25/X24</f>
-        <v>0.11561495595070179</v>
+        <v>1.1561495595070179E-5</v>
       </c>
       <c r="G9" s="49">
         <f>$A$25/AE24</f>
-        <v>0.10992876615952862</v>
+        <v>1.0992876615952863E-5</v>
       </c>
       <c r="H9" s="49">
         <f>$A$25/AL24</f>
-        <v>0.10688099869605182</v>
+        <v>1.0688099869605182E-5</v>
       </c>
       <c r="I9" s="49">
         <f>$A$25/AS24</f>
-        <v>0.1055921608379794</v>
+        <v>1.0559216083797939E-5</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -16085,7 +16126,7 @@
       </c>
       <c r="C10" s="47">
         <f>C38/$A$38*C9</f>
-        <v>0.12488623143596786</v>
+        <v>0.12488623143596785</v>
       </c>
       <c r="D10" s="47">
         <f>J37/$A$38*D9</f>
@@ -16093,7 +16134,7 @@
       </c>
       <c r="E10" s="47">
         <f>Q37/$A$38*E9</f>
-        <v>0.13371934338851046</v>
+        <v>0.13371934338851044</v>
       </c>
       <c r="F10" s="47">
         <f>X37/$A$38*F9</f>
@@ -16105,14 +16146,14 @@
       </c>
       <c r="H10" s="47">
         <f>AL35/$A$38*H9</f>
-        <v>0.11185149954041171</v>
+        <v>0.11185149954041169</v>
       </c>
       <c r="I10" s="47">
         <f>AS35/$A$38*I9</f>
         <v>0.10769671819564115</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
         <v>93</v>
@@ -16123,15 +16164,15 @@
       </c>
       <c r="D11" s="47">
         <f>J23/$A$23*D9</f>
-        <v>0.13422815077212596</v>
+        <v>1.3422815077212597E-2</v>
       </c>
       <c r="E11" s="47">
         <f>Q23/$A$23*E9</f>
-        <v>0.13435723065259098</v>
+        <v>1.3435723065259093E-2</v>
       </c>
       <c r="F11" s="47">
         <f>X23/$A$23*F9</f>
-        <v>0.13409600665942148</v>
+        <v>1.3409600665942146E-2</v>
       </c>
       <c r="G11" s="47">
         <f>AE23/$A$23*G9</f>
@@ -16143,10 +16184,10 @@
       </c>
       <c r="I11" s="47">
         <f>AS23/$A$23*I9</f>
-        <v>0.13431460128400069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.13431460128400066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="50"/>
@@ -16162,7 +16203,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
         <v>95</v>
       </c>
@@ -16220,7 +16261,7 @@
       <c r="AU15" s="151"/>
       <c r="AV15" s="151"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>101</v>
       </c>
@@ -20126,11 +20167,11 @@
       </c>
       <c r="C50">
         <f>C38/A38</f>
-        <v>1.1915770000000001</v>
+        <v>11915.77</v>
       </c>
       <c r="D50">
         <f>C50*C7</f>
-        <v>0.92999462253555665</v>
+        <v>0.92999462253555654</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -4084,7 +4084,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4752,7 +4752,7 @@
   <dimension ref="B3:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -20168,6 +20168,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -20390,22 +20405,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0421F0-51EF-4FEE-8D79-C499B8BD686A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20422,21 +20439,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -4752,7 +4752,7 @@
   <dimension ref="B3:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5403,9 +5403,9 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -4752,7 +4752,7 @@
   <dimension ref="B3:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BF7CD-4773-4C53-AE61-4A40053213E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17016" windowHeight="10416" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -19,7 +25,7 @@
   <definedNames>
     <definedName name="VEDA2">'Import Settings'!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +65,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -82,12 +89,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -105,14 +112,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -3183,7 +3190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
@@ -4029,27 +4036,27 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="5x indented GHG Textfiels" xfId="1"/>
-    <cellStyle name="AggOrange_CRFReport-template" xfId="2"/>
-    <cellStyle name="AggOrange9_CRFReport-template" xfId="3"/>
-    <cellStyle name="CustomizationCells" xfId="4"/>
-    <cellStyle name="Euro" xfId="5"/>
-    <cellStyle name="InputCells" xfId="6"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="AggOrange_CRFReport-template" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="AggOrange9_CRFReport-template" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="CustomizationCells" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Euro" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="InputCells" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Link" xfId="20" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="7"/>
-    <cellStyle name="Normal 10 2" xfId="8"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="13"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 10 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Procent" xfId="16" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="17"/>
-    <cellStyle name="Standaard_Blad1" xfId="19"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="18"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Standaard_Blad1" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4084,7 +4091,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,9 +4121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4154,9 +4161,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4189,9 +4196,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4224,9 +4248,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4399,7 +4440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4409,17 +4450,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -4430,7 +4471,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -4627,7 +4668,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4635,7 +4676,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4643,7 +4684,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="114"/>
       <c r="C15" s="3"/>
@@ -4651,28 +4692,28 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:18" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="115"/>
       <c r="C18" s="115"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="115"/>
       <c r="C19" s="115"/>
@@ -4748,32 +4789,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -4784,7 +4825,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4793,23 +4834,23 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="71" t="str">
         <f ca="1">IF(VEDA2,"~DefaultYear",T(0))</f>
         <v>~DefaultYear</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="70">
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16" s="64" t="s">
         <v>44</v>
       </c>
@@ -4829,7 +4870,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -4849,7 +4890,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>3</v>
       </c>
@@ -4869,7 +4910,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>4</v>
       </c>
@@ -4889,7 +4930,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>5</v>
       </c>
@@ -4909,7 +4950,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>5</v>
       </c>
@@ -4929,7 +4970,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>5</v>
       </c>
@@ -4949,7 +4990,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>5</v>
       </c>
@@ -4969,7 +5010,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>5</v>
       </c>
@@ -4989,7 +5030,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>5</v>
       </c>
@@ -5410,41 +5451,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
     <col min="6" max="13" width="8" customWidth="1"/>
-    <col min="17" max="17" width="21.44140625" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="17" max="17" width="21.453125" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="20" max="20" width="7.54296875" customWidth="1"/>
+    <col min="21" max="21" width="8.08984375" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="str">
         <f ca="1">IF(VEDA2,"~TFM_MIG","~TFM_UPD")</f>
         <v>~TFM_MIG</v>
@@ -5516,8 +5557,12 @@
       <c r="H7" s="74">
         <v>5</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="I7" s="74">
+        <v>5</v>
+      </c>
+      <c r="J7" s="74">
+        <v>5</v>
+      </c>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
@@ -5553,8 +5598,12 @@
       <c r="H8" s="74">
         <v>5</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
+      <c r="I8" s="74">
+        <v>5</v>
+      </c>
+      <c r="J8" s="74">
+        <v>5</v>
+      </c>
       <c r="K8" s="74"/>
       <c r="L8" s="74"/>
       <c r="M8" s="74"/>
@@ -5570,30 +5619,30 @@
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -5636,19 +5685,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>951</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -5656,12 +5705,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="26" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
@@ -5717,23 +5766,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="str">
         <f ca="1">"~Scenario:"&amp;REPLACE(REPLACE($F$1,FIND(".",$F$1),100,""),1,FIND("[",$F$1),"")</f>
-        <v>~Scenario:</v>
+        <v>~Scenario:SysSettings</v>
       </c>
       <c r="C1" s="34" t="b">
         <f ca="1">NOT(ISERR(FIND(".xlsx",$F$1)))</f>
@@ -5744,17 +5793,17 @@
       </c>
       <c r="F1" s="17" t="str">
         <f ca="1">CELL("filename",$E$1)</f>
-        <v>C:\Users\hjs.MEDICOUH\Documents\GitHub\Bachelor_Git\TIMES-DE\[SysSettings.xlsx]Import Settings</v>
+        <v>C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\[SysSettings.xlsx]Import Settings</v>
       </c>
       <c r="I1" s="66"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
@@ -5811,40 +5860,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A3:BH67"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="56" customWidth="1"/>
-    <col min="6" max="10" width="8.33203125" style="56" customWidth="1"/>
-    <col min="11" max="15" width="9.109375" style="56"/>
-    <col min="16" max="16" width="18.6640625" style="56" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="56"/>
+    <col min="1" max="1" width="3.453125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="56" customWidth="1"/>
+    <col min="6" max="10" width="8.36328125" style="56" customWidth="1"/>
+    <col min="11" max="15" width="9.08984375" style="56"/>
+    <col min="16" max="16" width="18.6328125" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="9.08984375" style="56"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:57" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:57" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:57" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="94" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:57" ht="27.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:57" ht="26" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5924,7 +5973,7 @@
       <c r="BD6"/>
       <c r="BE6"/>
     </row>
-    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="99"/>
       <c r="C7" s="99" t="s">
         <v>49</v>
@@ -5988,7 +6037,7 @@
       <c r="BD7"/>
       <c r="BE7"/>
     </row>
-    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="100"/>
       <c r="C8" s="100" t="s">
         <v>35</v>
@@ -6130,7 +6179,7 @@
       <c r="BD9"/>
       <c r="BE9"/>
     </row>
-    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="104"/>
       <c r="C10" s="67" t="s">
         <v>78</v>
@@ -7237,7 +7286,7 @@
       </c>
       <c r="S16" s="25">
         <f>XCHG_rates!E10*S12</f>
-        <v>9.8269499928457155E-2</v>
+        <v>9.8269499928457141E-2</v>
       </c>
       <c r="T16" s="25">
         <f>XCHG_rates!F10*T12</f>
@@ -7249,7 +7298,7 @@
       </c>
       <c r="V16" s="25">
         <f>XCHG_rates!H10*V12</f>
-        <v>7.4266036857875625E-2</v>
+        <v>7.4266036857875611E-2</v>
       </c>
       <c r="W16" s="25">
         <f>XCHG_rates!$I$10*W12</f>
@@ -7421,170 +7470,170 @@
       </c>
       <c r="Q17" s="148">
         <f>XCHG_rates!C9*Q12</f>
-        <v>6.0102368152571709E-2</v>
+        <v>6.010236815257171E-6</v>
       </c>
       <c r="R17" s="27">
         <f>XCHG_rates!D9*R12</f>
-        <v>7.9101615425186927E-2</v>
+        <v>7.910161542518693E-6</v>
       </c>
       <c r="S17" s="27">
         <f>XCHG_rates!E9*S12</f>
-        <v>8.4419109835135911E-2</v>
+        <v>8.441910983513591E-6</v>
       </c>
       <c r="T17" s="27">
         <f>XCHG_rates!F9*T12</f>
-        <v>8.5315743679302045E-2</v>
+        <v>8.5315743679302044E-6</v>
       </c>
       <c r="U17" s="27">
         <f>XCHG_rates!G9*U12</f>
-        <v>8.0040675398849209E-2</v>
+        <v>8.004067539884921E-6</v>
       </c>
       <c r="V17" s="27">
         <f>XCHG_rates!H9*V12</f>
-        <v>7.0965773558535908E-2</v>
+        <v>7.0965773558535916E-6</v>
       </c>
       <c r="W17" s="27">
         <f>XCHG_rates!$I$9*W12</f>
-        <v>8.0365955897416741E-2</v>
+        <v>8.0365955897416733E-6</v>
       </c>
       <c r="X17" s="27">
         <f>XCHG_rates!$I$9*X12</f>
-        <v>9.3406300303272807E-2</v>
+        <v>9.3406300303272798E-6</v>
       </c>
       <c r="Y17" s="27">
         <f>XCHG_rates!$I$9*Y12</f>
-        <v>0.10478732834801259</v>
+        <v>1.0478732834801259E-5</v>
       </c>
       <c r="Z17" s="27">
         <f>XCHG_rates!$I$9*Z12</f>
-        <v>0.10454669389898953</v>
+        <v>1.0454669389898953E-5</v>
       </c>
       <c r="AA17" s="27">
         <f>XCHG_rates!$I$9*AA12</f>
-        <v>0.10559216083797943</v>
+        <v>1.0559216083797941E-5</v>
       </c>
       <c r="AB17" s="27">
         <f>XCHG_rates!$I$9*AB12</f>
-        <v>0.10770400405473901</v>
+        <v>1.07704004054739E-5</v>
       </c>
       <c r="AC17" s="27">
         <f>XCHG_rates!$I$9*AC12</f>
-        <v>0.10985808413583378</v>
+        <v>1.0985808413583379E-5</v>
       </c>
       <c r="AD17" s="27">
         <f>XCHG_rates!$I$9*AD12</f>
-        <v>0.11205524581855046</v>
+        <v>1.1205524581855045E-5</v>
       </c>
       <c r="AE17" s="27">
         <f>XCHG_rates!$I$9*AE12</f>
-        <v>0.11429635073492148</v>
+        <v>1.1429635073492147E-5</v>
       </c>
       <c r="AF17" s="27">
         <f>XCHG_rates!$I$9*AF12</f>
-        <v>0.11658227774961991</v>
+        <v>1.165822777496199E-5</v>
       </c>
       <c r="AG17" s="27">
         <f>XCHG_rates!$I$9*AG12</f>
-        <v>0.11891392330461231</v>
+        <v>1.189139233046123E-5</v>
       </c>
       <c r="AH17" s="27">
         <f>XCHG_rates!$I$9*AH12</f>
-        <v>0.12129220177070454</v>
+        <v>1.2129220177070454E-5</v>
       </c>
       <c r="AI17" s="27">
         <f>XCHG_rates!$I$9*AI12</f>
-        <v>0.12371804580611866</v>
+        <v>1.2371804580611864E-5</v>
       </c>
       <c r="AJ17" s="27">
         <f>XCHG_rates!$I$9*AJ12</f>
-        <v>0.12619240672224102</v>
+        <v>1.2619240672224102E-5</v>
       </c>
       <c r="AK17" s="27">
         <f>XCHG_rates!$I$9*AK12</f>
-        <v>0.12871625485668584</v>
+        <v>1.2871625485668584E-5</v>
       </c>
       <c r="AL17" s="27">
         <f>XCHG_rates!$I$9*AL12</f>
-        <v>0.13129057995381957</v>
+        <v>1.3129057995381956E-5</v>
       </c>
       <c r="AM17" s="27">
         <f>XCHG_rates!$I$9*AM12</f>
-        <v>0.13391639155289595</v>
+        <v>1.3391639155289595E-5</v>
       </c>
       <c r="AN17" s="27">
         <f>XCHG_rates!$I$9*AN12</f>
-        <v>0.1365947193839539</v>
+        <v>1.3659471938395387E-5</v>
       </c>
       <c r="AO17" s="27">
         <f>XCHG_rates!$I$9*AO12</f>
-        <v>0.13932661377163297</v>
+        <v>1.3932661377163297E-5</v>
       </c>
       <c r="AP17" s="27">
         <f>XCHG_rates!$I$9*AP12</f>
-        <v>0.14211314604706565</v>
+        <v>1.4211314604706564E-5</v>
       </c>
       <c r="AQ17" s="27">
         <f>XCHG_rates!$I$9*AQ12</f>
-        <v>0.14495540896800696</v>
+        <v>1.4495540896800695E-5</v>
       </c>
       <c r="AR17" s="27">
         <f>XCHG_rates!$I$9*AR12</f>
-        <v>0.14785451714736711</v>
+        <v>1.478545171473671E-5</v>
       </c>
       <c r="AS17" s="27">
         <f>XCHG_rates!$I$9*AS12</f>
-        <v>0.15081160749031444</v>
+        <v>1.5081160749031445E-5</v>
       </c>
       <c r="AT17" s="27">
         <f>XCHG_rates!$I$9*AT12</f>
-        <v>0.15382783964012073</v>
+        <v>1.5382783964012071E-5</v>
       </c>
       <c r="AU17" s="27">
         <f>XCHG_rates!$I$9*AU12</f>
-        <v>0.15690439643292317</v>
+        <v>1.5690439643292316E-5</v>
       </c>
       <c r="AV17" s="27">
         <f>XCHG_rates!$I$9*AV12</f>
-        <v>0.16004248436158164</v>
+        <v>1.6004248436158162E-5</v>
       </c>
       <c r="AW17" s="27">
         <f>XCHG_rates!$I$9*AW12</f>
-        <v>0.16324333404881328</v>
+        <v>1.6324333404881328E-5</v>
       </c>
       <c r="AX17" s="27">
         <f>XCHG_rates!$I$9*AX12</f>
-        <v>0.16650820072978956</v>
+        <v>1.6650820072978954E-5</v>
       </c>
       <c r="AY17" s="27">
         <f>XCHG_rates!$I$9*AY12</f>
-        <v>0.16983836474438535</v>
+        <v>1.6983836474438533E-5</v>
       </c>
       <c r="AZ17" s="27">
         <f>XCHG_rates!$I$9*AZ12</f>
-        <v>0.17323513203927304</v>
+        <v>1.7323513203927305E-5</v>
       </c>
       <c r="BA17" s="27">
         <f>XCHG_rates!$I$9*BA12</f>
-        <v>0.17669983468005851</v>
+        <v>1.7669983468005848E-5</v>
       </c>
       <c r="BB17" s="27">
         <f>XCHG_rates!$I$9*BB12</f>
-        <v>0.18023383137365967</v>
+        <v>1.8023383137365967E-5</v>
       </c>
       <c r="BC17" s="27">
         <f>XCHG_rates!$I$9*BC12</f>
-        <v>0.18383850800113288</v>
+        <v>1.8383850800113287E-5</v>
       </c>
       <c r="BD17" s="27">
         <f>XCHG_rates!$I$9*BD12</f>
-        <v>0.18751527816115557</v>
+        <v>1.8751527816115556E-5</v>
       </c>
       <c r="BE17" s="28">
         <f>XCHG_rates!$I$9*BE12</f>
-        <v>0.19126558372437868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.9126558372437869E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="104"/>
       <c r="C18" s="67" t="s">
         <v>78</v>
@@ -7651,7 +7700,7 @@
       <c r="BD18"/>
       <c r="BE18"/>
     </row>
-    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="99"/>
       <c r="C19" s="67" t="s">
         <v>78</v>
@@ -7718,7 +7767,7 @@
       <c r="BD19"/>
       <c r="BE19"/>
     </row>
-    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="99"/>
       <c r="C20" s="67" t="s">
         <v>78</v>
@@ -7786,7 +7835,7 @@
       <c r="BD20"/>
       <c r="BE20"/>
     </row>
-    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="99"/>
       <c r="C21" s="67" t="s">
         <v>78</v>
@@ -7858,7 +7907,7 @@
       <c r="BD21"/>
       <c r="BE21"/>
     </row>
-    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="99"/>
       <c r="C22" s="67" t="s">
         <v>78</v>
@@ -7924,7 +7973,7 @@
       <c r="BD22" s="30"/>
       <c r="BE22"/>
     </row>
-    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="104"/>
       <c r="C23" s="105" t="s">
         <v>78</v>
@@ -8006,7 +8055,7 @@
       </c>
       <c r="U25" s="54"/>
     </row>
-    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="104"/>
       <c r="C26" s="105" t="s">
         <v>78</v>
@@ -8036,7 +8085,7 @@
       <c r="T26" s="121"/>
       <c r="U26" s="54"/>
     </row>
-    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="104"/>
       <c r="C27" s="105" t="s">
         <v>78</v>
@@ -8463,7 +8512,7 @@
       <c r="D30" s="99"/>
       <c r="E30" s="102" cm="1">
         <f t="array" ref="E30:E35">TRANSPOSE(Q17:V17)</f>
-        <v>6.0102368152571709E-2</v>
+        <v>6.010236815257171E-6</v>
       </c>
       <c r="F30" s="102"/>
       <c r="G30" s="102"/>
@@ -8659,7 +8708,7 @@
       </c>
       <c r="D31" s="105"/>
       <c r="E31" s="106">
-        <v>7.9101615425186927E-2</v>
+        <v>7.910161542518693E-6</v>
       </c>
       <c r="F31" s="106"/>
       <c r="G31" s="106"/>
@@ -8855,7 +8904,7 @@
       </c>
       <c r="D32" s="105"/>
       <c r="E32" s="106">
-        <v>8.4419109835135911E-2</v>
+        <v>8.441910983513591E-6</v>
       </c>
       <c r="F32" s="106"/>
       <c r="G32" s="106"/>
@@ -9048,7 +9097,7 @@
       </c>
       <c r="D33" s="105"/>
       <c r="E33" s="106">
-        <v>8.5315743679302045E-2</v>
+        <v>8.5315743679302044E-6</v>
       </c>
       <c r="F33" s="106"/>
       <c r="G33" s="106"/>
@@ -9114,7 +9163,7 @@
       </c>
       <c r="D34" s="105"/>
       <c r="E34" s="106">
-        <v>8.0040675398849209E-2</v>
+        <v>8.004067539884921E-6</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
@@ -9130,14 +9179,14 @@
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B35" s="100"/>
       <c r="C35" s="101" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="108">
-        <v>7.0965773558535908E-2</v>
+        <v>7.0965773558535916E-6</v>
       </c>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
@@ -9195,7 +9244,7 @@
       <c r="BD35" s="41"/>
       <c r="BE35" s="41"/>
     </row>
-    <row r="36" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B36" s="104"/>
       <c r="C36" s="67" t="s">
         <v>78</v>
@@ -9263,7 +9312,7 @@
       <c r="BD36" s="41"/>
       <c r="BE36" s="41"/>
     </row>
-    <row r="37" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B37" s="104"/>
       <c r="C37" s="67" t="s">
         <v>78</v>
@@ -9332,14 +9381,14 @@
       <c r="BD37"/>
       <c r="BE37"/>
     </row>
-    <row r="38" spans="1:57" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B38" s="104"/>
       <c r="C38" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="105"/>
       <c r="E38" s="106">
-        <v>9.8269499928457155E-2</v>
+        <v>9.8269499928457141E-2</v>
       </c>
       <c r="F38" s="106"/>
       <c r="G38" s="106"/>
@@ -9471,7 +9520,7 @@
       </c>
       <c r="D41" s="105"/>
       <c r="E41" s="106">
-        <v>7.4266036857875625E-2</v>
+        <v>7.4266036857875611E-2</v>
       </c>
       <c r="F41" s="106"/>
       <c r="G41" s="106"/>
@@ -9610,22 +9659,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
@@ -9636,7 +9685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
         <v>38</v>
       </c>
@@ -9659,7 +9708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="87" t="s">
         <v>983</v>
       </c>
@@ -9688,7 +9737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="130" t="s">
         <v>984</v>
       </c>
@@ -9713,7 +9762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="130" t="s">
         <v>985</v>
       </c>
@@ -9738,7 +9787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="130" t="s">
         <v>986</v>
       </c>
@@ -9748,7 +9797,7 @@
       <c r="F7" s="133"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="130" t="s">
         <v>987</v>
       </c>
@@ -9758,7 +9807,7 @@
       <c r="F8" s="133"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="130" t="s">
         <v>988</v>
       </c>
@@ -9768,7 +9817,7 @@
       <c r="F9" s="133"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="130" t="s">
         <v>937</v>
       </c>
@@ -9778,7 +9827,7 @@
       <c r="F10" s="133"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="130" t="s">
         <v>989</v>
       </c>
@@ -9788,7 +9837,7 @@
       <c r="F11" s="133"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="130" t="s">
         <v>990</v>
       </c>
@@ -9798,7 +9847,7 @@
       <c r="F12" s="133"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="130" t="s">
         <v>991</v>
       </c>
@@ -9808,7 +9857,7 @@
       <c r="F13" s="133"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="130" t="s">
         <v>992</v>
       </c>
@@ -10020,26 +10069,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -10049,7 +10098,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>977</v>
       </c>
@@ -10065,7 +10114,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="S7" s="41"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -10075,7 +10124,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2010</v>
       </c>
@@ -10100,7 +10149,7 @@
       <c r="Y8" s="125"/>
       <c r="Z8" s="125"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2011</v>
       </c>
@@ -10125,7 +10174,7 @@
       <c r="Y9" s="125"/>
       <c r="Z9" s="125"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2012</v>
       </c>
@@ -10150,7 +10199,7 @@
       <c r="Y10" s="126"/>
       <c r="Z10" s="126"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2013</v>
       </c>
@@ -10174,7 +10223,7 @@
       <c r="Y11" s="125"/>
       <c r="Z11" s="125"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2014</v>
       </c>
@@ -10199,7 +10248,7 @@
       <c r="Y12" s="47"/>
       <c r="Z12" s="47"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2015</v>
       </c>
@@ -10215,7 +10264,7 @@
         <v>1.0675083333333333</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2016</v>
       </c>
@@ -10231,7 +10280,7 @@
         <v>1.6065250000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2017</v>
       </c>
@@ -10247,7 +10296,7 @@
         <v>1.7234916666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2018</v>
       </c>
@@ -10263,7 +10312,7 @@
         <v>1.701225</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2019</v>
       </c>
@@ -10279,7 +10328,7 @@
         <v>1.7024999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -10295,7 +10344,7 @@
         <v>1.7035416666666665</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>970</v>
       </c>
@@ -10333,7 +10382,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>YEAR(B25)</f>
         <v>2021</v>
@@ -15925,16 +15974,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:AV54"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -15942,7 +15991,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>88</v>
       </c>
@@ -15953,7 +16002,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31"/>
       <c r="C6" s="44">
         <v>2010</v>
@@ -15977,64 +16026,64 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="47">
         <f>$A$23/C23</f>
-        <v>0.78047379442164166</v>
+        <v>7.8047379442164165E-5</v>
       </c>
       <c r="D7" s="47">
         <f>$A$23/J23</f>
-        <v>0.82470825945321846</v>
+        <v>8.2470825945321841E-4</v>
       </c>
       <c r="E7" s="47">
         <f>$A$23/Q23</f>
-        <v>0.85497854003864504</v>
+        <v>8.5497854003864504E-4</v>
       </c>
       <c r="F7" s="47">
         <f>$A$23/X23</f>
-        <v>0.8621804543690994</v>
+        <v>8.6218045436909946E-4</v>
       </c>
       <c r="G7" s="47">
         <f>$A$23/AE23</f>
-        <v>0.81944913351448623</v>
+        <v>8.1944913351448618E-5</v>
       </c>
       <c r="H7" s="47">
         <f>$A$23/AL23</f>
-        <v>0.79718180289042173</v>
+        <v>7.9718180289042184E-5</v>
       </c>
       <c r="I7" s="47">
         <f>$A$23/AS23</f>
-        <v>0.78615548740460983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.8615548740460981E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="47">
         <f>C38/$A$38*C7</f>
-        <v>0.92999462253555665</v>
+        <v>0.92999462253555654</v>
       </c>
       <c r="D8" s="47">
         <f>J37/$A$38*D7</f>
-        <v>0.95555399777328776</v>
+        <v>9.5555399777328773</v>
       </c>
       <c r="E8" s="47">
         <f>Q37/$A$38*E7</f>
-        <v>0.99525230416716537</v>
+        <v>9.9525230416716539</v>
       </c>
       <c r="F8" s="47">
         <f>X37/$A$38*F7</f>
-        <v>0.95655558908479543</v>
+        <v>9.5655558908479552</v>
       </c>
       <c r="G8" s="47">
         <f>AE36/$A$38*G7</f>
-        <v>0.89272509448248505</v>
+        <v>0.89272509448248494</v>
       </c>
       <c r="H8" s="47">
         <f>AL35/$A$38*H7</f>
@@ -16045,38 +16094,38 @@
         <v>0.80182435242407102</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="49">
         <f>$A$25/C25</f>
-        <v>0.10480752098770608</v>
+        <v>1.0480752098770608E-5</v>
       </c>
       <c r="D9" s="49">
         <f>$A$25/J24</f>
-        <v>0.11069906459290418</v>
+        <v>1.1069906459290419E-5</v>
       </c>
       <c r="E9" s="49">
         <f>$A$25/Q24</f>
-        <v>0.11487254890698771</v>
+        <v>1.148725489069877E-5</v>
       </c>
       <c r="F9" s="49">
         <f>$A$25/X24</f>
-        <v>0.11561495595070179</v>
+        <v>1.1561495595070179E-5</v>
       </c>
       <c r="G9" s="49">
         <f>$A$25/AE24</f>
-        <v>0.10992876615952862</v>
+        <v>1.0992876615952863E-5</v>
       </c>
       <c r="H9" s="49">
         <f>$A$25/AL24</f>
-        <v>0.10688099869605182</v>
+        <v>1.0688099869605182E-5</v>
       </c>
       <c r="I9" s="49">
         <f>$A$25/AS24</f>
-        <v>0.1055921608379794</v>
+        <v>1.0559216083797939E-5</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -16085,7 +16134,7 @@
       </c>
       <c r="C10" s="47">
         <f>C38/$A$38*C9</f>
-        <v>0.12488623143596786</v>
+        <v>0.12488623143596785</v>
       </c>
       <c r="D10" s="47">
         <f>J37/$A$38*D9</f>
@@ -16093,7 +16142,7 @@
       </c>
       <c r="E10" s="47">
         <f>Q37/$A$38*E9</f>
-        <v>0.13371934338851046</v>
+        <v>0.13371934338851044</v>
       </c>
       <c r="F10" s="47">
         <f>X37/$A$38*F9</f>
@@ -16105,14 +16154,14 @@
       </c>
       <c r="H10" s="47">
         <f>AL35/$A$38*H9</f>
-        <v>0.11185149954041171</v>
+        <v>0.11185149954041169</v>
       </c>
       <c r="I10" s="47">
         <f>AS35/$A$38*I9</f>
         <v>0.10769671819564115</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
         <v>93</v>
@@ -16123,15 +16172,15 @@
       </c>
       <c r="D11" s="47">
         <f>J23/$A$23*D9</f>
-        <v>0.13422815077212596</v>
+        <v>1.3422815077212597E-2</v>
       </c>
       <c r="E11" s="47">
         <f>Q23/$A$23*E9</f>
-        <v>0.13435723065259098</v>
+        <v>1.3435723065259093E-2</v>
       </c>
       <c r="F11" s="47">
         <f>X23/$A$23*F9</f>
-        <v>0.13409600665942148</v>
+        <v>1.3409600665942146E-2</v>
       </c>
       <c r="G11" s="47">
         <f>AE23/$A$23*G9</f>
@@ -16143,10 +16192,10 @@
       </c>
       <c r="I11" s="47">
         <f>AS23/$A$23*I9</f>
-        <v>0.13431460128400069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.13431460128400066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="50"/>
@@ -16162,7 +16211,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
         <v>95</v>
       </c>
@@ -16220,7 +16269,7 @@
       <c r="AU15" s="151"/>
       <c r="AV15" s="151"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>101</v>
       </c>
@@ -20126,11 +20175,11 @@
       </c>
       <c r="C50">
         <f>C38/A38</f>
-        <v>1.1915770000000001</v>
+        <v>11915.77</v>
       </c>
       <c r="D50">
         <f>C50*C7</f>
-        <v>0.92999462253555665</v>
+        <v>0.92999462253555654</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20168,18 +20217,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20406,18 +20455,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BF7CD-4773-4C53-AE61-4A40053213E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E6E49E-A5CF-4139-8AAC-20AF3F2672B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1015">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3034,18 +3034,6 @@
     <t>Socio economic discount rate is calculated based on the difference in interest rates set by the central banks of Azerbaijan and Denmark, with baseline assumption of Danish socio-economic discount rate is 4 %</t>
   </si>
   <si>
-    <t>Azerbaijan interest rate</t>
-  </si>
-  <si>
-    <t>Denmark interest rate</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>Assumed socio-economic discount rate for Azerbaijan</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -3185,6 +3173,12 @@
   </si>
   <si>
     <t>DE5</t>
+  </si>
+  <si>
+    <t>Assumed socio-economic discount rate for Germany</t>
+  </si>
+  <si>
+    <t>https://www.csilmilano.com/docs/WP2013_03.pdf</t>
   </si>
 </sst>
 </file>
@@ -4491,10 +4485,10 @@
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>55</v>
@@ -4523,13 +4517,13 @@
         <v>68</v>
       </c>
       <c r="R5" s="114" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="67"/>
       <c r="C6" s="68" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>52</v>
@@ -4558,14 +4552,14 @@
         <v>70</v>
       </c>
       <c r="R6" s="114" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>53</v>
@@ -4585,14 +4579,14 @@
         <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>54</v>
@@ -4612,24 +4606,24 @@
         <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="33" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="Q9" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="R9" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4643,7 +4637,7 @@
         <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4651,13 +4645,13 @@
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
       <c r="G11" s="33" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="Q11" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="R11" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4809,7 +4803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2010</v>
       </c>
@@ -4825,7 +4819,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4840,7 +4834,7 @@
         <v>~DefaultYear</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="70">
         <v>2010</v>
       </c>
@@ -4850,27 +4844,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I16" s="149" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="149" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="K16" s="89" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -4890,7 +4884,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>3</v>
       </c>
@@ -4910,7 +4904,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>4</v>
       </c>
@@ -4930,7 +4924,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>5</v>
       </c>
@@ -4950,7 +4944,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>5</v>
       </c>
@@ -4970,7 +4964,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>5</v>
       </c>
@@ -4990,7 +4984,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>5</v>
       </c>
@@ -5010,7 +5004,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>5</v>
       </c>
@@ -5030,7 +5024,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>5</v>
       </c>
@@ -5506,19 +5500,19 @@
         <v>Year2</v>
       </c>
       <c r="F6" s="73" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J6" s="73" t="s">
         <v>1012</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>1016</v>
       </c>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
@@ -5866,8 +5860,8 @@
   </sheetPr>
   <dimension ref="A3:BH67"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5907,19 +5901,19 @@
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>1012</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>1016</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>22</v>
@@ -6047,7 +6041,7 @@
       </c>
       <c r="E8" s="117">
         <f>Q40</f>
-        <v>0.10850000000000001</v>
+        <v>2.8399999999999998E-2</v>
       </c>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
@@ -6736,7 +6730,7 @@
       </c>
       <c r="N13"/>
       <c r="P13" s="135" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="Q13" s="140">
         <v>0.13827220141517502</v>
@@ -6889,7 +6883,7 @@
       <c r="N14"/>
       <c r="O14" s="61"/>
       <c r="P14" s="135" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="Q14" s="141">
         <f>Q12*Rates!$C$8</f>
@@ -7082,7 +7076,7 @@
       <c r="N15"/>
       <c r="O15" s="61"/>
       <c r="P15" s="135" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="Q15" s="141">
         <f>HLOOKUP($Q$8,$Q$10:$BE$12,3,FALSE)/7.45*Q12</f>
@@ -7274,7 +7268,7 @@
       </c>
       <c r="N16"/>
       <c r="P16" s="135" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="Q16" s="141">
         <f>XCHG_rates!C10*Q12</f>
@@ -7466,7 +7460,7 @@
       </c>
       <c r="N17"/>
       <c r="P17" s="147" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="Q17" s="148">
         <f>XCHG_rates!C9*Q12</f>
@@ -7865,7 +7859,7 @@
         <v>23</v>
       </c>
       <c r="R21" s="127" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="S21" s="54"/>
       <c r="T21"/>
@@ -8051,7 +8045,7 @@
       </c>
       <c r="N25"/>
       <c r="T25" s="121" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="U25" s="54"/>
     </row>
@@ -9335,12 +9329,8 @@
         <v>MEUR20</v>
       </c>
       <c r="P37" s="20"/>
-      <c r="Q37" s="116">
-        <v>6.25E-2</v>
-      </c>
-      <c r="R37" t="s">
-        <v>966</v>
-      </c>
+      <c r="Q37" s="116"/>
+      <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -9404,12 +9394,8 @@
         <v>MEUR20</v>
       </c>
       <c r="P38" s="20"/>
-      <c r="Q38" s="116">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="R38" t="s">
-        <v>967</v>
-      </c>
+      <c r="Q38" s="116"/>
+      <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
@@ -9473,13 +9459,7 @@
         <f t="shared" si="0"/>
         <v>MEUR20</v>
       </c>
-      <c r="Q39" s="118">
-        <f>Q37-Q38</f>
-        <v>6.8500000000000005E-2</v>
-      </c>
-      <c r="R39" s="56" t="s">
-        <v>968</v>
-      </c>
+      <c r="Q39" s="118"/>
     </row>
     <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
@@ -9505,11 +9485,11 @@
         <v>MEUR20</v>
       </c>
       <c r="Q40" s="118">
-        <f>Q39+4%</f>
-        <v>0.10850000000000001</v>
+        <f>2.84%</f>
+        <v>2.8399999999999998E-2</v>
       </c>
       <c r="R40" s="56" t="s">
-        <v>969</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.25">
@@ -9534,6 +9514,9 @@
       <c r="M41" s="104" t="str">
         <f t="shared" si="0"/>
         <v>MEUR20</v>
+      </c>
+      <c r="R41" s="56" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.25">
@@ -9710,7 +9693,7 @@
     </row>
     <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="87" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="95" t="s">
@@ -9739,7 +9722,7 @@
     </row>
     <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="130" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="131"/>
@@ -9764,7 +9747,7 @@
     </row>
     <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="130" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="131"/>
@@ -9789,7 +9772,7 @@
     </row>
     <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="130" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="131"/>
@@ -9799,7 +9782,7 @@
     </row>
     <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="130" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="131"/>
@@ -9809,7 +9792,7 @@
     </row>
     <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="130" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="131"/>
@@ -9829,7 +9812,7 @@
     </row>
     <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="130" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="131"/>
@@ -9839,7 +9822,7 @@
     </row>
     <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="130" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="131"/>
@@ -9849,7 +9832,7 @@
     </row>
     <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="130" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="131"/>
@@ -9859,7 +9842,7 @@
     </row>
     <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="130" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="131"/>
@@ -10047,12 +10030,12 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="93" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -10078,17 +10061,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -10100,10 +10083,10 @@
     </row>
     <row r="6" spans="2:26" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="K6" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="S6" s="42"/>
       <c r="T6" s="43"/>
@@ -10199,7 +10182,7 @@
       <c r="Y10" s="126"/>
       <c r="Z10" s="126"/>
     </row>
-    <row r="11" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2013</v>
       </c>
@@ -10248,7 +10231,7 @@
       <c r="Y12" s="47"/>
       <c r="Z12" s="47"/>
     </row>
-    <row r="13" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2015</v>
       </c>
@@ -10264,7 +10247,7 @@
         <v>1.0675083333333333</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2016</v>
       </c>
@@ -10280,7 +10263,7 @@
         <v>1.6065250000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2017</v>
       </c>
@@ -10296,7 +10279,7 @@
         <v>1.7234916666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2018</v>
       </c>
@@ -10312,7 +10295,7 @@
         <v>1.701225</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2019</v>
       </c>
@@ -10328,7 +10311,7 @@
         <v>1.7024999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -10344,45 +10327,45 @@
         <v>1.7035416666666665</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>966</v>
+      </c>
+      <c r="C24" t="s">
+        <v>967</v>
+      </c>
+      <c r="D24" t="s">
+        <v>968</v>
+      </c>
+      <c r="E24" t="s">
+        <v>969</v>
+      </c>
+      <c r="F24" t="s">
         <v>970</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>971</v>
       </c>
-      <c r="D24" t="s">
-        <v>972</v>
-      </c>
-      <c r="E24" t="s">
-        <v>973</v>
-      </c>
-      <c r="F24" t="s">
-        <v>974</v>
-      </c>
-      <c r="G24" t="s">
-        <v>975</v>
-      </c>
       <c r="K24" t="s">
+        <v>966</v>
+      </c>
+      <c r="L24" t="s">
+        <v>967</v>
+      </c>
+      <c r="M24" t="s">
+        <v>968</v>
+      </c>
+      <c r="N24" t="s">
+        <v>969</v>
+      </c>
+      <c r="O24" t="s">
         <v>970</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>971</v>
       </c>
-      <c r="M24" t="s">
-        <v>972</v>
-      </c>
-      <c r="N24" t="s">
-        <v>973</v>
-      </c>
-      <c r="O24" t="s">
-        <v>974</v>
-      </c>
-      <c r="P24" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>YEAR(B25)</f>
         <v>2021</v>
@@ -15977,7 +15960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:AV54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -15988,7 +15971,7 @@
   <sheetData>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20226,12 +20209,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -20454,6 +20431,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
   <ds:schemaRefs>
@@ -20463,15 +20446,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0421F0-51EF-4FEE-8D79-C499B8BD686A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20488,4 +20462,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E6E49E-A5CF-4139-8AAC-20AF3F2672B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -25,7 +19,7 @@
   <definedNames>
     <definedName name="VEDA2">'Import Settings'!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,12 +59,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,12 +83,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Antti L</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,14 +106,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -134,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1016">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3179,12 +3173,15 @@
   </si>
   <si>
     <t>https://www.csilmilano.com/docs/WP2013_03.pdf</t>
+  </si>
+  <si>
+    <t>P10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
@@ -3786,7 +3783,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4026,31 +4023,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="5x indented GHG Textfiels" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="AggOrange_CRFReport-template" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="AggOrange9_CRFReport-template" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="CustomizationCells" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Euro" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="InputCells" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="1"/>
+    <cellStyle name="AggOrange_CRFReport-template" xfId="2"/>
+    <cellStyle name="AggOrange9_CRFReport-template" xfId="3"/>
+    <cellStyle name="CustomizationCells" xfId="4"/>
+    <cellStyle name="Euro" xfId="5"/>
+    <cellStyle name="InputCells" xfId="6"/>
     <cellStyle name="Link" xfId="20" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 10 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 10" xfId="7"/>
+    <cellStyle name="Normal 10 2" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal 4" xfId="11"/>
+    <cellStyle name="Normal GHG Numbers (0.00)" xfId="12"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="13"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14"/>
+    <cellStyle name="Normale_B2020" xfId="15"/>
     <cellStyle name="Procent" xfId="16" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="17" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Standaard_Blad1" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="17"/>
+    <cellStyle name="Standaard_Blad1" xfId="19"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4085,7 +4083,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4115,9 +4113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4155,9 +4153,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4190,26 +4188,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4242,26 +4223,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4434,7 +4398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4444,17 +4408,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -4465,7 +4429,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -4483,7 +4447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="67" t="s">
         <v>1007</v>
       </c>
@@ -4520,7 +4484,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="67"/>
       <c r="C6" s="68" t="s">
         <v>1009</v>
@@ -4555,7 +4519,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="67"/>
       <c r="C7" s="68" t="s">
@@ -4582,7 +4546,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68" t="s">
@@ -4609,7 +4573,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68" t="s">
@@ -4626,7 +4590,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -4640,7 +4604,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
@@ -4654,7 +4618,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="67"/>
       <c r="C12" s="68"/>
@@ -4662,7 +4626,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4670,7 +4634,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4678,7 +4642,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="114"/>
       <c r="C15" s="3"/>
@@ -4686,90 +4650,90 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="115"/>
       <c r="C17" s="115"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="115"/>
       <c r="C18" s="115"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="115"/>
       <c r="C19" s="115"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
   </sheetData>
@@ -4783,32 +4747,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -4819,7 +4783,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4828,23 +4792,23 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="71" t="str">
         <f ca="1">IF(VEDA2,"~DefaultYear",T(0))</f>
         <v>~DefaultYear</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="70">
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="64" t="s">
         <v>44</v>
       </c>
@@ -4854,6 +4818,9 @@
       <c r="D16" s="65" t="s">
         <v>1006</v>
       </c>
+      <c r="E16" s="149" t="s">
+        <v>1015</v>
+      </c>
       <c r="I16" s="149" t="s">
         <v>44</v>
       </c>
@@ -4864,7 +4831,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -4874,6 +4841,9 @@
       <c r="D17" s="9">
         <v>1</v>
       </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
       <c r="I17">
         <v>2010</v>
       </c>
@@ -4884,7 +4854,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>3</v>
       </c>
@@ -4894,6 +4864,9 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
+      <c r="E18" s="9">
+        <v>3</v>
+      </c>
       <c r="I18">
         <v>2013</v>
       </c>
@@ -4904,7 +4877,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>4</v>
       </c>
@@ -4914,6 +4887,9 @@
       <c r="D19" s="9">
         <v>1</v>
       </c>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
       <c r="I19">
         <v>2015</v>
       </c>
@@ -4924,7 +4900,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>5</v>
       </c>
@@ -4934,6 +4910,9 @@
       <c r="D20" s="9">
         <v>1</v>
       </c>
+      <c r="E20" s="151">
+        <v>5</v>
+      </c>
       <c r="I20">
         <v>2020</v>
       </c>
@@ -4944,7 +4923,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>5</v>
       </c>
@@ -4954,6 +4933,9 @@
       <c r="D21" s="9">
         <v>1</v>
       </c>
+      <c r="E21" s="151">
+        <v>5</v>
+      </c>
       <c r="I21">
         <v>2025</v>
       </c>
@@ -4964,7 +4946,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>5</v>
       </c>
@@ -4974,6 +4956,9 @@
       <c r="D22" s="9">
         <v>1</v>
       </c>
+      <c r="E22" s="151">
+        <v>10</v>
+      </c>
       <c r="I22">
         <v>2030</v>
       </c>
@@ -4984,7 +4969,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>5</v>
       </c>
@@ -4994,6 +4979,9 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
+      <c r="E23" s="151">
+        <v>10</v>
+      </c>
       <c r="I23">
         <v>2035</v>
       </c>
@@ -5004,7 +4992,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>5</v>
       </c>
@@ -5014,6 +5002,9 @@
       <c r="D24" s="9">
         <v>1</v>
       </c>
+      <c r="E24" s="151">
+        <v>10</v>
+      </c>
       <c r="I24">
         <v>2040</v>
       </c>
@@ -5024,7 +5015,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>5</v>
       </c>
@@ -5044,7 +5035,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>5</v>
       </c>
@@ -5064,7 +5055,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>15</v>
       </c>
@@ -5084,7 +5075,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
       <c r="C28" s="9">
         <v>1</v>
@@ -5099,7 +5090,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C29" s="9">
         <v>1</v>
       </c>
@@ -5113,7 +5104,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>1</v>
       </c>
@@ -5127,7 +5118,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C31" s="9">
         <v>1</v>
       </c>
@@ -5141,7 +5132,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>1</v>
       </c>
@@ -5155,7 +5146,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33" s="9">
         <v>1</v>
       </c>
@@ -5169,7 +5160,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>1</v>
       </c>
@@ -5183,7 +5174,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35" s="9">
         <v>1</v>
       </c>
@@ -5197,7 +5188,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36" s="9">
         <v>1</v>
       </c>
@@ -5211,7 +5202,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C37" s="9">
         <v>1</v>
       </c>
@@ -5225,7 +5216,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38" s="9">
         <v>1</v>
       </c>
@@ -5239,7 +5230,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39" s="9">
         <v>1</v>
       </c>
@@ -5253,7 +5244,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40" s="9">
         <v>1</v>
       </c>
@@ -5267,7 +5258,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41" s="9">
         <v>1</v>
       </c>
@@ -5281,7 +5272,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42" s="9">
         <v>1</v>
       </c>
@@ -5295,7 +5286,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="9">
         <v>1</v>
       </c>
@@ -5309,7 +5300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" s="9">
         <v>1</v>
       </c>
@@ -5318,7 +5309,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" s="9">
         <v>1</v>
       </c>
@@ -5327,7 +5318,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46" s="9">
         <v>1</v>
       </c>
@@ -5336,7 +5327,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47" s="9">
         <v>1</v>
       </c>
@@ -5345,7 +5336,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48" s="9">
         <v>1</v>
       </c>
@@ -5354,7 +5345,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C49" s="9">
         <v>1</v>
       </c>
@@ -5363,7 +5354,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C50" s="9">
         <v>1</v>
       </c>
@@ -5372,7 +5363,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C51" s="9">
         <v>1</v>
       </c>
@@ -5381,7 +5372,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C52" s="9">
         <v>1</v>
       </c>
@@ -5390,7 +5381,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C53" s="9">
         <v>1</v>
       </c>
@@ -5399,7 +5390,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C54" s="9">
         <v>1</v>
       </c>
@@ -5408,7 +5399,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C55" s="9">
         <v>1</v>
       </c>
@@ -5417,7 +5408,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C56" s="9">
         <v>1</v>
       </c>
@@ -5426,7 +5417,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C57" s="9">
         <v>1</v>
       </c>
@@ -5445,47 +5436,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="13" width="8" customWidth="1"/>
-    <col min="17" max="17" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.54296875" customWidth="1"/>
-    <col min="21" max="21" width="8.08984375" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="str">
         <f ca="1">IF(VEDA2,"~TFM_MIG","~TFM_UPD")</f>
         <v>~TFM_MIG</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5529,7 +5520,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="77" t="s">
         <v>23</v>
       </c>
@@ -5572,7 +5563,7 @@
       <c r="W7" s="67"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
         <v>67</v>
@@ -5613,30 +5604,30 @@
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="11" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -5650,7 +5641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="69" t="s">
         <v>4</v>
       </c>
@@ -5664,7 +5655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="69" t="s">
         <v>4</v>
       </c>
@@ -5679,19 +5670,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>951</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:13" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -5699,12 +5690,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
@@ -5722,7 +5713,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="77" t="s">
         <v>947</v>
       </c>
@@ -5737,7 +5728,7 @@
       </c>
       <c r="F27" s="69"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="77"/>
       <c r="C28" s="69" t="s">
         <v>960</v>
@@ -5760,23 +5751,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="str">
         <f ca="1">"~Scenario:"&amp;REPLACE(REPLACE($F$1,FIND(".",$F$1),100,""),1,FIND("[",$F$1),"")</f>
-        <v>~Scenario:SysSettings</v>
+        <v>~Scenario:</v>
       </c>
       <c r="C1" s="34" t="b">
         <f ca="1">NOT(ISERR(FIND(".xlsx",$F$1)))</f>
@@ -5787,17 +5778,17 @@
       </c>
       <c r="F1" s="17" t="str">
         <f ca="1">CELL("filename",$E$1)</f>
-        <v>C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\[SysSettings.xlsx]Import Settings</v>
+        <v>C:\Users\hjs.MEDICOUH\Documents\GitHub\Bachelor_Git\TIMES-DE\[SysSettings.xlsx]Import Settings</v>
       </c>
       <c r="I1" s="66"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="3" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
@@ -5805,7 +5796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>27</v>
       </c>
@@ -5813,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>28</v>
       </c>
@@ -5821,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
@@ -5829,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
@@ -5837,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>62</v>
       </c>
@@ -5854,40 +5845,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A3:BH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="56" customWidth="1"/>
-    <col min="6" max="10" width="8.36328125" style="56" customWidth="1"/>
-    <col min="11" max="15" width="9.08984375" style="56"/>
-    <col min="16" max="16" width="18.6328125" style="56" customWidth="1"/>
-    <col min="17" max="16384" width="9.08984375" style="56"/>
+    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="56" customWidth="1"/>
+    <col min="6" max="10" width="8.42578125" style="56" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" style="56"/>
+    <col min="16" max="16" width="18.5703125" style="56" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:57" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:57" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:57" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B5" s="94" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:57" ht="26" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:57" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
@@ -5967,7 +5958,7 @@
       <c r="BD6"/>
       <c r="BE6"/>
     </row>
-    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="99"/>
       <c r="C7" s="99" t="s">
         <v>49</v>
@@ -6031,7 +6022,7 @@
       <c r="BD7"/>
       <c r="BE7"/>
     </row>
-    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="100"/>
       <c r="C8" s="100" t="s">
         <v>35</v>
@@ -6101,7 +6092,7 @@
       <c r="BD8"/>
       <c r="BE8"/>
     </row>
-    <row r="9" spans="2:57" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:57" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="104"/>
       <c r="C9" s="67" t="s">
         <v>78</v>
@@ -6173,7 +6164,7 @@
       <c r="BD9"/>
       <c r="BE9"/>
     </row>
-    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="104"/>
       <c r="C10" s="67" t="s">
         <v>78</v>
@@ -6322,7 +6313,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="104"/>
       <c r="C11" s="67" t="s">
         <v>78</v>
@@ -6513,7 +6504,7 @@
         <v>3.1586828119702575</v>
       </c>
     </row>
-    <row r="12" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="104"/>
       <c r="C12" s="67" t="s">
         <v>78</v>
@@ -6705,7 +6696,7 @@
         <v>1.8113615841033557</v>
       </c>
     </row>
-    <row r="13" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="104"/>
       <c r="C13" s="67" t="s">
         <v>78</v>
@@ -6857,7 +6848,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="104"/>
       <c r="C14" s="67" t="s">
         <v>78</v>
@@ -7050,7 +7041,7 @@
         <v>3.5169849357346781</v>
       </c>
     </row>
-    <row r="15" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="104"/>
       <c r="C15" s="67" t="s">
         <v>78</v>
@@ -7243,7 +7234,7 @@
         <v>0.24313578310112163</v>
       </c>
     </row>
-    <row r="16" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="104"/>
       <c r="C16" s="67" t="s">
         <v>78</v>
@@ -7435,7 +7426,7 @@
         <v>0.19507769807358924</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="104"/>
       <c r="C17" s="67" t="s">
         <v>78</v>
@@ -7627,7 +7618,7 @@
         <v>1.9126558372437869E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="104"/>
       <c r="C18" s="67" t="s">
         <v>78</v>
@@ -7694,7 +7685,7 @@
       <c r="BD18"/>
       <c r="BE18"/>
     </row>
-    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="99"/>
       <c r="C19" s="67" t="s">
         <v>78</v>
@@ -7761,7 +7752,7 @@
       <c r="BD19"/>
       <c r="BE19"/>
     </row>
-    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="99"/>
       <c r="C20" s="67" t="s">
         <v>78</v>
@@ -7829,7 +7820,7 @@
       <c r="BD20"/>
       <c r="BE20"/>
     </row>
-    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="99"/>
       <c r="C21" s="67" t="s">
         <v>78</v>
@@ -7901,7 +7892,7 @@
       <c r="BD21"/>
       <c r="BE21"/>
     </row>
-    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="99"/>
       <c r="C22" s="67" t="s">
         <v>78</v>
@@ -7967,7 +7958,7 @@
       <c r="BD22" s="30"/>
       <c r="BE22"/>
     </row>
-    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
       <c r="C23" s="105" t="s">
         <v>78</v>
@@ -7994,7 +7985,7 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
       <c r="B24" s="104"/>
       <c r="C24" s="105" t="s">
@@ -8020,7 +8011,7 @@
       <c r="N24"/>
       <c r="P24" s="113"/>
     </row>
-    <row r="25" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="59"/>
       <c r="B25" s="104"/>
       <c r="C25" s="105" t="s">
@@ -8049,7 +8040,7 @@
       </c>
       <c r="U25" s="54"/>
     </row>
-    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="104"/>
       <c r="C26" s="105" t="s">
         <v>78</v>
@@ -8079,7 +8070,7 @@
       <c r="T26" s="121"/>
       <c r="U26" s="54"/>
     </row>
-    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="104"/>
       <c r="C27" s="105" t="s">
         <v>78</v>
@@ -8109,7 +8100,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="B28" s="104"/>
       <c r="C28" s="105" t="s">
         <v>78</v>
@@ -8301,7 +8292,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:60" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="100"/>
       <c r="C29" s="101" t="s">
@@ -8497,7 +8488,7 @@
       <c r="BG29" s="56"/>
       <c r="BH29" s="56"/>
     </row>
-    <row r="30" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="99"/>
       <c r="C30" s="67" t="s">
@@ -8694,7 +8685,7 @@
       <c r="BG30" s="56"/>
       <c r="BH30" s="56"/>
     </row>
-    <row r="31" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="104"/>
       <c r="C31" s="67" t="s">
@@ -8890,7 +8881,7 @@
       <c r="BG31" s="56"/>
       <c r="BH31" s="56"/>
     </row>
-    <row r="32" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="104"/>
       <c r="C32" s="67" t="s">
@@ -9083,7 +9074,7 @@
         <v>3.5169849357346781</v>
       </c>
     </row>
-    <row r="33" spans="1:57" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:57" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="104"/>
       <c r="C33" s="67" t="s">
@@ -9150,7 +9141,7 @@
       <c r="BD33" s="56"/>
       <c r="BE33" s="56"/>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B34" s="104"/>
       <c r="C34" s="67" t="s">
         <v>78</v>
@@ -9173,7 +9164,7 @@
         <v>MEUR20</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:57" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B35" s="100"/>
       <c r="C35" s="101" t="s">
         <v>78</v>
@@ -9238,7 +9229,7 @@
       <c r="BD35" s="41"/>
       <c r="BE35" s="41"/>
     </row>
-    <row r="36" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:57" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B36" s="104"/>
       <c r="C36" s="67" t="s">
         <v>78</v>
@@ -9306,7 +9297,7 @@
       <c r="BD36" s="41"/>
       <c r="BE36" s="41"/>
     </row>
-    <row r="37" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:57" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B37" s="104"/>
       <c r="C37" s="67" t="s">
         <v>78</v>
@@ -9371,7 +9362,7 @@
       <c r="BD37"/>
       <c r="BE37"/>
     </row>
-    <row r="38" spans="1:57" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:57" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B38" s="104"/>
       <c r="C38" s="67" t="s">
         <v>78</v>
@@ -9436,7 +9427,7 @@
       <c r="BD38"/>
       <c r="BE38"/>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="104"/>
       <c r="C39" s="67" t="s">
@@ -9461,7 +9452,7 @@
       </c>
       <c r="Q39" s="118"/>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="104"/>
       <c r="C40" s="67" t="s">
@@ -9492,7 +9483,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
       <c r="B41" s="104"/>
       <c r="C41" s="105" t="s">
@@ -9519,7 +9510,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A42" s="61"/>
       <c r="B42" s="110"/>
       <c r="C42" s="111"/>
@@ -9534,29 +9525,29 @@
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
       <c r="C45" s="58"/>
       <c r="E45" s="63"/>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="C46" s="58"/>
       <c r="E46" s="63"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -9567,7 +9558,7 @@
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -9578,7 +9569,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -9589,7 +9580,7 @@
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -9600,7 +9591,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -9611,7 +9602,7 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -9622,7 +9613,7 @@
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -9642,22 +9633,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
@@ -9668,7 +9659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>38</v>
       </c>
@@ -9691,7 +9682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="87" t="s">
         <v>979</v>
       </c>
@@ -9720,7 +9711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="130" t="s">
         <v>980</v>
       </c>
@@ -9745,7 +9736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="130" t="s">
         <v>981</v>
       </c>
@@ -9770,7 +9761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="130" t="s">
         <v>982</v>
       </c>
@@ -9780,7 +9771,7 @@
       <c r="F7" s="133"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="130" t="s">
         <v>983</v>
       </c>
@@ -9790,7 +9781,7 @@
       <c r="F8" s="133"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="130" t="s">
         <v>984</v>
       </c>
@@ -9800,7 +9791,7 @@
       <c r="F9" s="133"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="130" t="s">
         <v>937</v>
       </c>
@@ -9810,7 +9801,7 @@
       <c r="F10" s="133"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="130" t="s">
         <v>985</v>
       </c>
@@ -9820,7 +9811,7 @@
       <c r="F11" s="133"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="130" t="s">
         <v>986</v>
       </c>
@@ -9830,7 +9821,7 @@
       <c r="F12" s="133"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="130" t="s">
         <v>987</v>
       </c>
@@ -9840,7 +9831,7 @@
       <c r="F13" s="133"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="130" t="s">
         <v>988</v>
       </c>
@@ -9850,7 +9841,7 @@
       <c r="F14" s="133"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="88" t="s">
         <v>71</v>
       </c>
@@ -9858,7 +9849,7 @@
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="89" t="s">
         <v>72</v>
       </c>
@@ -9866,7 +9857,7 @@
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="88" t="s">
         <v>73</v>
       </c>
@@ -9874,7 +9865,7 @@
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="88" t="s">
         <v>74</v>
       </c>
@@ -9882,7 +9873,7 @@
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="89" t="s">
         <v>75</v>
       </c>
@@ -9890,7 +9881,7 @@
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
         <v>946</v>
       </c>
@@ -9898,7 +9889,7 @@
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="90" t="s">
         <v>944</v>
       </c>
@@ -9906,7 +9897,7 @@
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="90" t="s">
         <v>945</v>
       </c>
@@ -9914,7 +9905,7 @@
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="90" t="s">
         <v>962</v>
       </c>
@@ -9922,7 +9913,7 @@
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="90" t="s">
         <v>963</v>
       </c>
@@ -9930,7 +9921,7 @@
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="91" t="s">
         <v>964</v>
       </c>
@@ -9938,7 +9929,7 @@
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="92" t="s">
         <v>938</v>
       </c>
@@ -9946,102 +9937,102 @@
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="90" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="92" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="92" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="92" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="91" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="92" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="90" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="90" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="90" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="90" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="91" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="93" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="93" t="s">
         <v>955</v>
       </c>
       <c r="C39" s="41"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="93" t="s">
         <v>956</v>
       </c>
       <c r="C40" s="41"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="93"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="93" t="s">
         <v>957</v>
       </c>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="93" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="93" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="93"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="93"/>
     </row>
   </sheetData>
@@ -10052,26 +10043,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -10081,7 +10072,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>973</v>
       </c>
@@ -10097,7 +10088,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="S7" s="41"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
@@ -10107,7 +10098,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2010</v>
       </c>
@@ -10132,7 +10123,7 @@
       <c r="Y8" s="125"/>
       <c r="Z8" s="125"/>
     </row>
-    <row r="9" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2011</v>
       </c>
@@ -10157,7 +10148,7 @@
       <c r="Y9" s="125"/>
       <c r="Z9" s="125"/>
     </row>
-    <row r="10" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2012</v>
       </c>
@@ -10182,7 +10173,7 @@
       <c r="Y10" s="126"/>
       <c r="Z10" s="126"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2013</v>
       </c>
@@ -10206,7 +10197,7 @@
       <c r="Y11" s="125"/>
       <c r="Z11" s="125"/>
     </row>
-    <row r="12" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2014</v>
       </c>
@@ -10231,7 +10222,7 @@
       <c r="Y12" s="47"/>
       <c r="Z12" s="47"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2015</v>
       </c>
@@ -10247,7 +10238,7 @@
         <v>1.0675083333333333</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2016</v>
       </c>
@@ -10263,7 +10254,7 @@
         <v>1.6065250000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>2017</v>
       </c>
@@ -10279,7 +10270,7 @@
         <v>1.7234916666666666</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2018</v>
       </c>
@@ -10295,7 +10286,7 @@
         <v>1.701225</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2019</v>
       </c>
@@ -10311,7 +10302,7 @@
         <v>1.7024999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -10327,7 +10318,7 @@
         <v>1.7035416666666665</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>966</v>
       </c>
@@ -10365,7 +10356,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>YEAR(B25)</f>
         <v>2021</v>
@@ -10407,7 +10398,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ref="A26:A89" si="2">YEAR(B26)</f>
         <v>2020</v>
@@ -10449,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10491,7 +10482,7 @@
         <v>-6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10533,7 +10524,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10575,7 +10566,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10617,7 +10608,7 @@
         <v>-6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10659,7 +10650,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10701,7 +10692,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10743,7 +10734,7 @@
         <v>-8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10785,7 +10776,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10827,7 +10818,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10869,7 +10860,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -10911,7 +10902,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -10953,7 +10944,7 @@
         <v>-1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -10995,7 +10986,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11037,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11079,7 +11070,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11121,7 +11112,7 @@
         <v>-5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11163,7 +11154,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11205,7 +11196,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11247,7 +11238,7 @@
         <v>-7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11289,7 +11280,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11331,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11373,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11415,7 +11406,7 @@
         <v>-3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11457,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11499,7 +11490,7 @@
         <v>-1.5E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11541,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11583,7 +11574,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11625,7 +11616,7 @@
         <v>-1.5E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11667,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11709,7 +11700,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11751,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11793,7 +11784,7 @@
         <v>-1.5E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11835,7 +11826,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11877,7 +11868,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -11919,7 +11910,7 @@
         <v>-6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -11961,7 +11952,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12003,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12045,7 +12036,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12087,7 +12078,7 @@
         <v>-8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12129,7 +12120,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12171,7 +12162,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12213,7 +12204,7 @@
         <v>-8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12255,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12297,7 +12288,7 @@
         <v>-8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12339,7 +12330,7 @@
         <v>-2.8299999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12381,7 +12372,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -12423,7 +12414,7 @@
         <v>8.1299999999999997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12465,7 +12456,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12507,7 +12498,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12549,7 +12540,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12591,7 +12582,7 @@
         <v>-6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12633,7 +12624,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12675,7 +12666,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12717,7 +12708,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12759,7 +12750,7 @@
         <v>-1.43E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12801,7 +12792,7 @@
         <v>-1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12843,7 +12834,7 @@
         <v>-1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12885,7 +12876,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -12927,7 +12918,7 @@
         <v>2.64E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -12969,7 +12960,7 @@
         <v>0.49259999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -13011,7 +13002,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -13053,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -13095,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" ref="A90:A153" si="3">YEAR(B90)</f>
         <v>2015</v>
@@ -13137,7 +13128,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>2015</v>
@@ -13179,7 +13170,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>2015</v>
@@ -13221,7 +13212,7 @@
         <v>-8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>2015</v>
@@ -13263,7 +13254,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>2015</v>
@@ -13305,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>2015</v>
@@ -13347,7 +13338,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>2015</v>
@@ -13389,7 +13380,7 @@
         <v>0.33739999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>2015</v>
@@ -13431,7 +13422,7 @@
         <v>-2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13473,7 +13464,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13515,7 +13506,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13557,7 +13548,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13599,7 +13590,7 @@
         <v>-2.3E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13641,7 +13632,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13683,7 +13674,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13725,7 +13716,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13767,7 +13758,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13809,7 +13800,7 @@
         <v>-1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13851,7 +13842,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13893,7 +13884,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="3"/>
         <v>2014</v>
@@ -13935,7 +13926,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -13977,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14019,7 +14010,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14061,7 +14052,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14103,7 +14094,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14145,7 +14136,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14187,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14229,7 +14220,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14271,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14313,7 +14304,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14355,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14397,7 +14388,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>2013</v>
@@ -14439,7 +14430,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14481,7 +14472,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14523,7 +14514,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14565,7 +14556,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14607,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14649,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14691,7 +14682,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14733,7 +14724,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14775,7 +14766,7 @@
         <v>-5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14817,7 +14808,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14859,7 +14850,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14901,7 +14892,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="3"/>
         <v>2012</v>
@@ -14943,7 +14934,7 @@
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -14985,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15027,7 +15018,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15069,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15111,7 +15102,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15153,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15195,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15237,7 +15228,7 @@
         <v>-1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15279,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15321,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15363,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15405,7 +15396,7 @@
         <v>-1.4E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="3"/>
         <v>2011</v>
@@ -15447,7 +15438,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15489,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15531,7 +15522,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15573,7 +15564,7 @@
         <v>-2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15615,7 +15606,7 @@
         <v>-8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15657,7 +15648,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15699,7 +15690,7 @@
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15741,7 +15732,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="3"/>
         <v>2010</v>
@@ -15783,7 +15774,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" ref="A154:A157" si="4">YEAR(B154)</f>
         <v>2010</v>
@@ -15825,7 +15816,7 @@
         <v>-2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -15867,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -15909,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -15957,24 +15948,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AV54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
         <v>88</v>
       </c>
@@ -15985,7 +15976,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="31"/>
       <c r="C6" s="44">
         <v>2010</v>
@@ -16009,7 +16000,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="46" t="s">
         <v>89</v>
@@ -16043,7 +16034,7 @@
         <v>7.8615548740460981E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="48" t="s">
         <v>90</v>
@@ -16077,7 +16068,7 @@
         <v>0.80182435242407102</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="46" t="s">
         <v>91</v>
@@ -16111,7 +16102,7 @@
         <v>1.0559216083797939E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
         <v>92</v>
       </c>
@@ -16144,7 +16135,7 @@
         <v>0.10769671819564115</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="46" t="s">
         <v>93</v>
@@ -16178,7 +16169,7 @@
         <v>0.13431460128400066</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="50"/>
@@ -16188,71 +16179,71 @@
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
     </row>
-    <row r="13" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:48" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="152" t="s">
+    <row r="14" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A15" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="H15" s="152" t="s">
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="H15" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
-      <c r="O15" s="152" t="s">
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="O15" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="152"/>
-      <c r="V15" s="152" t="s">
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="V15" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="W15" s="152"/>
-      <c r="X15" s="152"/>
-      <c r="Y15" s="152"/>
-      <c r="Z15" s="152"/>
-      <c r="AA15" s="152"/>
-      <c r="AC15" s="152" t="s">
+      <c r="W15" s="153"/>
+      <c r="X15" s="153"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="153"/>
+      <c r="AC15" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="AD15" s="152"/>
-      <c r="AE15" s="152"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="152"/>
-      <c r="AH15" s="152"/>
-      <c r="AJ15" s="152" t="s">
+      <c r="AD15" s="153"/>
+      <c r="AE15" s="153"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="153"/>
+      <c r="AJ15" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="AK15" s="152"/>
-      <c r="AL15" s="152"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="152"/>
-      <c r="AO15" s="152"/>
-      <c r="AQ15" s="151" t="s">
+      <c r="AK15" s="153"/>
+      <c r="AL15" s="153"/>
+      <c r="AM15" s="153"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="153"/>
+      <c r="AQ15" s="152" t="s">
         <v>824</v>
       </c>
-      <c r="AR15" s="151"/>
-      <c r="AS15" s="151"/>
-      <c r="AT15" s="151"/>
-      <c r="AU15" s="151"/>
-      <c r="AV15" s="151"/>
-    </row>
-    <row r="16" spans="1:48" ht="13" x14ac:dyDescent="0.3">
+      <c r="AR15" s="152"/>
+      <c r="AS15" s="152"/>
+      <c r="AT15" s="152"/>
+      <c r="AU15" s="152"/>
+      <c r="AV15" s="152"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>101</v>
       </c>
@@ -16380,7 +16371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -16508,7 +16499,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -16636,7 +16627,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -16764,7 +16755,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -16892,7 +16883,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -17020,7 +17011,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -17148,7 +17139,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <v>100</v>
       </c>
@@ -17276,7 +17267,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -17404,7 +17395,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="52">
         <v>1</v>
       </c>
@@ -17532,7 +17523,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -17660,7 +17651,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -17788,7 +17779,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -17916,7 +17907,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>100</v>
       </c>
@@ -18044,7 +18035,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>100</v>
       </c>
@@ -18172,7 +18163,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>100</v>
       </c>
@@ -18300,7 +18291,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>100</v>
       </c>
@@ -18428,7 +18419,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>100</v>
       </c>
@@ -18556,7 +18547,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -18684,7 +18675,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -18812,7 +18803,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -18940,7 +18931,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -19068,7 +19059,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>100</v>
       </c>
@@ -19196,7 +19187,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -19324,7 +19315,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -19452,7 +19443,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
@@ -19580,7 +19571,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -19708,7 +19699,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -19836,7 +19827,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -19964,7 +19955,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -20056,7 +20047,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -20130,7 +20121,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -20150,9 +20141,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>1</v>
       </c>
@@ -20165,7 +20156,7 @@
         <v>0.92999462253555654</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="40" t="s">
         <v>561</v>
       </c>
@@ -20176,12 +20167,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
     </row>
-    <row r="54" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" s="40"/>
     </row>
   </sheetData>

--- a/TIMES-DE/SysSettings.xlsx
+++ b/TIMES-DE/SysSettings.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1016">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -4083,7 +4083,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9563E5EE-A894-47F4-BFC6-EAD796C87904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4748,7 +4748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K57"/>
+  <dimension ref="B3:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -4762,17 +4762,17 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -4792,23 +4792,23 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="71" t="str">
         <f ca="1">IF(VEDA2,"~DefaultYear",T(0))</f>
         <v>~DefaultYear</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="70">
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="64" t="s">
         <v>44</v>
       </c>
@@ -4830,8 +4830,11 @@
       <c r="K16" s="89" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="149" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -4853,8 +4856,11 @@
       <c r="K17">
         <v>2010</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>3</v>
       </c>
@@ -4876,8 +4882,11 @@
       <c r="K18">
         <v>2011</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>4</v>
       </c>
@@ -4899,8 +4908,11 @@
       <c r="K19">
         <v>2012</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>5</v>
       </c>
@@ -4922,8 +4934,11 @@
       <c r="K20">
         <v>2013</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>5</v>
       </c>
@@ -4934,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="151">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I21">
         <v>2025</v>
@@ -4945,8 +4960,11 @@
       <c r="K21">
         <v>2014</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>5</v>
       </c>
@@ -4968,8 +4986,11 @@
       <c r="K22">
         <v>2015</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>5</v>
       </c>
@@ -4992,7 +5013,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>5</v>
       </c>
@@ -5015,7 +5036,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>5</v>
       </c>
@@ -5035,7 +5056,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>5</v>
       </c>
@@ -5055,7 +5076,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>15</v>
       </c>
@@ -5075,7 +5096,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
       <c r="C28" s="9">
         <v>1</v>
@@ -5090,7 +5111,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C29" s="9">
         <v>1</v>
       </c>
@@ -5104,7 +5125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>1</v>
       </c>
@@ -5118,7 +5139,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C31" s="9">
         <v>1</v>
       </c>
@@ -5132,7 +5153,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>1</v>
       </c>
@@ -20191,12 +20212,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20423,15 +20441,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20456,10 +20478,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6FFB9B-9A12-40AA-B62D-7157E8D5CF96}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDEEE354-EE8B-4204-B030-8478E7CEBD45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>